--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_15_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_15_27.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>724445.1902358265</v>
+        <v>740040.8018213481</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6742609.142433868</v>
+        <v>6742609.142433866</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>16888659.67207651</v>
+        <v>16888659.6720765</v>
       </c>
     </row>
     <row r="9">
@@ -2084,70 +2084,70 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>73.00117972968171</v>
       </c>
       <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
         <v>82.88054011090114</v>
       </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
         <v>82.88054011090114</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="n">
         <v>82.88054011090114</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>73.00117972968168</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2163,67 +2163,67 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>77.20538669489326</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" t="n">
         <v>82.88054011090114</v>
       </c>
-      <c r="H21" t="n">
+      <c r="V21" t="n">
         <v>82.88054011090114</v>
       </c>
-      <c r="I21" t="n">
-        <v>78.67633314568958</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>0</v>
-      </c>
-      <c r="R21" t="n">
-        <v>0</v>
-      </c>
-      <c r="S21" t="n">
-        <v>0</v>
-      </c>
-      <c r="T21" t="n">
-        <v>0</v>
-      </c>
-      <c r="U21" t="n">
-        <v>0</v>
-      </c>
-      <c r="V21" t="n">
-        <v>0</v>
-      </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>73.00117972968171</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2236,76 +2236,76 @@
         </is>
       </c>
       <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>73.00117972968171</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
         <v>82.88054011090114</v>
       </c>
-      <c r="C22" t="n">
+      <c r="X22" t="n">
         <v>82.88054011090114</v>
       </c>
-      <c r="D22" t="n">
-        <v>73.00117972968171</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
+      <c r="Y22" t="n">
         <v>82.88054011090114</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
-      </c>
-      <c r="X22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2315,17 +2315,17 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
         <v>73.00117972968171</v>
       </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
@@ -2333,55 +2333,55 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
         <v>82.88054011090114</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
         <v>82.88054011090114</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>82.88054011090114</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2394,7 +2394,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>73.00117972968171</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>75.0559318833856</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2442,28 +2442,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>80.82578795719726</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
+        <v>0</v>
+      </c>
+      <c r="T24" t="n">
         <v>82.88054011090114</v>
       </c>
-      <c r="T24" t="n">
-        <v>0</v>
-      </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="n">
         <v>82.88054011090114</v>
       </c>
-      <c r="W24" t="n">
-        <v>0</v>
-      </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
     </row>
     <row r="25">
@@ -2476,7 +2476,7 @@
         <v>82.88054011090114</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>73.00117972968171</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2497,7 +2497,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>73.00117972968171</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2542,7 +2542,7 @@
         <v>82.88054011090114</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
     </row>
     <row r="26">
@@ -2561,64 +2561,64 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
         <v>82.88054011090114</v>
       </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>82.88054011090114</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
         <v>73.00117972968171</v>
       </c>
-      <c r="I26" t="n">
+      <c r="X26" t="n">
         <v>82.88054011090114</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>82.88054011090114</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2631,73 +2631,73 @@
         </is>
       </c>
       <c r="B27" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>73.00117972968171</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" t="n">
         <v>82.88054011090114</v>
       </c>
-      <c r="C27" t="n">
-        <v>0</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" t="n">
-        <v>75.0559318833856</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>0</v>
-      </c>
-      <c r="R27" t="n">
-        <v>80.82578795719726</v>
-      </c>
-      <c r="S27" t="n">
+      <c r="V27" t="n">
         <v>82.88054011090114</v>
       </c>
-      <c r="T27" t="n">
-        <v>0</v>
-      </c>
-      <c r="U27" t="n">
-        <v>0</v>
-      </c>
-      <c r="V27" t="n">
-        <v>0</v>
-      </c>
       <c r="W27" t="n">
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2710,76 +2710,76 @@
         </is>
       </c>
       <c r="B28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>74.90369780277223</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>80.97802203781062</v>
+      </c>
+      <c r="T28" t="n">
         <v>82.88054011090114</v>
       </c>
-      <c r="C28" t="n">
-        <v>0</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>73.00117972968168</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2789,76 +2789,76 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>82.88054011090114</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>82.88054011090114</v>
+      </c>
+      <c r="U29" t="n">
+        <v>82.88054011090114</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="n">
         <v>73.00117972968171</v>
-      </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="n">
-        <v>82.88054011090114</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>82.88054011090114</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>82.88054011090114</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2871,7 +2871,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2883,13 +2883,13 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>73.00117972968171</v>
       </c>
       <c r="H30" t="n">
         <v>82.88054011090114</v>
       </c>
       <c r="I30" t="n">
-        <v>78.67633314568958</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2928,13 +2928,13 @@
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>77.20538669489326</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -2950,10 +2950,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>73.00117972968171</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2968,55 +2968,55 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
         <v>82.88054011090114</v>
-      </c>
-      <c r="J31" t="n">
-        <v>73.00117972968171</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>82.88054011090114</v>
       </c>
       <c r="Y31" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3026,76 +3026,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>73.00117972968171</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
         <v>82.88054011090114</v>
       </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
+      <c r="X32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y32" t="n">
         <v>82.88054011090114</v>
-      </c>
-      <c r="T32" t="n">
-        <v>82.88054011090114</v>
-      </c>
-      <c r="U32" t="n">
-        <v>73.00117972968171</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0</v>
-      </c>
-      <c r="X32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3108,17 +3108,17 @@
         <v>82.88054011090114</v>
       </c>
       <c r="C33" t="n">
-        <v>73.00117972968171</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
         <v>82.88054011090114</v>
       </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" t="n">
-        <v>0</v>
-      </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
@@ -3159,7 +3159,7 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>73.00117972968168</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -3168,13 +3168,13 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3184,73 +3184,73 @@
         </is>
       </c>
       <c r="B34" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>73.00117972968171</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
         <v>82.88054011090114</v>
       </c>
-      <c r="C34" t="n">
-        <v>0</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
+      <c r="S34" t="n">
         <v>82.88054011090114</v>
       </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>73.00117972968168</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3278,7 +3278,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3329,7 +3329,7 @@
         <v>82.88054011090114</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="Y35" t="n">
         <v>82.88054011090114</v>
@@ -3348,7 +3348,7 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>75.0559318833856</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -3357,61 +3357,61 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0</v>
+      </c>
+      <c r="R36" t="n">
+        <v>80.82578795719726</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0</v>
+      </c>
+      <c r="T36" t="n">
+        <v>0</v>
+      </c>
+      <c r="U36" t="n">
+        <v>0</v>
+      </c>
+      <c r="V36" t="n">
         <v>82.88054011090114</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>0</v>
-      </c>
-      <c r="R36" t="n">
-        <v>0</v>
-      </c>
-      <c r="S36" t="n">
-        <v>0</v>
-      </c>
-      <c r="T36" t="n">
-        <v>0</v>
-      </c>
-      <c r="U36" t="n">
-        <v>0</v>
-      </c>
-      <c r="V36" t="n">
-        <v>0</v>
-      </c>
       <c r="W36" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>82.88054011090114</v>
       </c>
       <c r="Y36" t="n">
-        <v>73.00117972968171</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3421,10 +3421,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>73.00117972968171</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3442,10 +3442,10 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>80.97802203781062</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>74.90369780277223</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
         <v>82.88054011090114</v>
       </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3487,7 +3487,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3500,67 +3500,67 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
         <v>82.88054011090114</v>
       </c>
-      <c r="C38" t="n">
-        <v>0</v>
-      </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>73.00117972968171</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
         <v>82.88054011090114</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>73.00117972968168</v>
-      </c>
-      <c r="U38" t="n">
-        <v>82.88054011090114</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3579,7 +3579,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>73.00117972968171</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>82.88054011090114</v>
@@ -3588,7 +3588,7 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3600,7 +3600,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>73.00117972968171</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3636,7 +3636,7 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -3645,10 +3645,10 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3758,55 +3758,55 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>82.88054011090114</v>
+      </c>
+      <c r="S41" t="n">
+        <v>82.88054011090114</v>
+      </c>
+      <c r="T41" t="n">
+        <v>82.88054011090114</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
         <v>73.00117972968171</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
-      <c r="W41" t="n">
-        <v>82.88054011090114</v>
-      </c>
       <c r="X41" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3816,10 +3816,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3837,7 +3837,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>73.00117972968171</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3867,7 +3867,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>73.00117972968168</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -3879,10 +3879,10 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>82.88054011090114</v>
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3907,64 +3907,64 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>73.00117972968171</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
+        <v>0</v>
+      </c>
+      <c r="X43" t="n">
+        <v>73.00117972968168</v>
+      </c>
+      <c r="Y43" t="n">
         <v>82.88054011090114</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>82.88054011090114</v>
-      </c>
-      <c r="S43" t="n">
-        <v>82.88054011090114</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0</v>
-      </c>
-      <c r="W43" t="n">
-        <v>0</v>
-      </c>
-      <c r="X43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y43" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -5726,46 +5726,46 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>257.7835950600877</v>
+        <v>164.0867258761275</v>
       </c>
       <c r="C20" t="n">
-        <v>257.7835950600877</v>
+        <v>164.0867258761275</v>
       </c>
       <c r="D20" t="n">
-        <v>257.7835950600877</v>
+        <v>90.34816049261062</v>
       </c>
       <c r="E20" t="n">
-        <v>174.0658777763491</v>
+        <v>90.34816049261062</v>
       </c>
       <c r="F20" t="n">
-        <v>174.0658777763491</v>
+        <v>90.34816049261062</v>
       </c>
       <c r="G20" t="n">
         <v>90.34816049261062</v>
       </c>
       <c r="H20" t="n">
-        <v>90.34816049261062</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="I20" t="n">
         <v>6.630443208872091</v>
       </c>
       <c r="J20" t="n">
-        <v>43.6983692857935</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="K20" t="n">
-        <v>43.6983692857935</v>
+        <v>88.68217791866422</v>
       </c>
       <c r="L20" t="n">
-        <v>43.6983692857935</v>
+        <v>170.7339126284564</v>
       </c>
       <c r="M20" t="n">
-        <v>115.094676728219</v>
+        <v>197.1464114380112</v>
       </c>
       <c r="N20" t="n">
         <v>197.1464114380112</v>
       </c>
       <c r="O20" t="n">
-        <v>279.1981461478033</v>
+        <v>197.1464114380112</v>
       </c>
       <c r="P20" t="n">
         <v>279.1981461478033</v>
@@ -5774,28 +5774,28 @@
         <v>331.5221604436045</v>
       </c>
       <c r="R20" t="n">
-        <v>257.7835950600877</v>
+        <v>247.804443159866</v>
       </c>
       <c r="S20" t="n">
-        <v>257.7835950600877</v>
+        <v>247.804443159866</v>
       </c>
       <c r="T20" t="n">
-        <v>257.7835950600877</v>
+        <v>247.804443159866</v>
       </c>
       <c r="U20" t="n">
-        <v>257.7835950600877</v>
+        <v>247.804443159866</v>
       </c>
       <c r="V20" t="n">
-        <v>257.7835950600877</v>
+        <v>247.804443159866</v>
       </c>
       <c r="W20" t="n">
-        <v>257.7835950600877</v>
+        <v>247.804443159866</v>
       </c>
       <c r="X20" t="n">
-        <v>257.7835950600877</v>
+        <v>247.804443159866</v>
       </c>
       <c r="Y20" t="n">
-        <v>257.7835950600877</v>
+        <v>164.0867258761275</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5805,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>331.5221604436045</v>
+        <v>90.34816049261062</v>
       </c>
       <c r="C21" t="n">
-        <v>331.5221604436045</v>
+        <v>90.34816049261062</v>
       </c>
       <c r="D21" t="n">
-        <v>331.5221604436045</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="E21" t="n">
-        <v>331.5221604436045</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="F21" t="n">
-        <v>253.5369213578538</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="G21" t="n">
-        <v>169.8192040741152</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="H21" t="n">
-        <v>86.10148679037673</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="I21" t="n">
         <v>6.630443208872091</v>
@@ -5832,13 +5832,13 @@
         <v>35.01446635656757</v>
       </c>
       <c r="K21" t="n">
-        <v>35.01446635656757</v>
+        <v>117.0662010663597</v>
       </c>
       <c r="L21" t="n">
-        <v>35.01446635656757</v>
+        <v>117.0662010663597</v>
       </c>
       <c r="M21" t="n">
-        <v>85.36695631422816</v>
+        <v>117.0662010663597</v>
       </c>
       <c r="N21" t="n">
         <v>167.4186910240203</v>
@@ -5862,19 +5862,19 @@
         <v>331.5221604436045</v>
       </c>
       <c r="U21" t="n">
-        <v>331.5221604436045</v>
+        <v>247.804443159866</v>
       </c>
       <c r="V21" t="n">
-        <v>331.5221604436045</v>
+        <v>164.0867258761275</v>
       </c>
       <c r="W21" t="n">
-        <v>331.5221604436045</v>
+        <v>164.0867258761275</v>
       </c>
       <c r="X21" t="n">
-        <v>331.5221604436045</v>
+        <v>90.34816049261062</v>
       </c>
       <c r="Y21" t="n">
-        <v>331.5221604436045</v>
+        <v>90.34816049261062</v>
       </c>
     </row>
     <row r="22">
@@ -5884,10 +5884,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>164.0867258761275</v>
+        <v>80.36900859238898</v>
       </c>
       <c r="C22" t="n">
-        <v>80.36900859238898</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="D22" t="n">
         <v>6.630443208872091</v>
@@ -5914,7 +5914,7 @@
         <v>14.60839277571539</v>
       </c>
       <c r="L22" t="n">
-        <v>80.34385611233596</v>
+        <v>80.34385611233594</v>
       </c>
       <c r="M22" t="n">
         <v>160.0418085032467</v>
@@ -5938,22 +5938,22 @@
         <v>331.5221604436045</v>
       </c>
       <c r="T22" t="n">
-        <v>247.804443159866</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="U22" t="n">
-        <v>247.804443159866</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="V22" t="n">
-        <v>247.804443159866</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="W22" t="n">
         <v>247.804443159866</v>
       </c>
       <c r="X22" t="n">
-        <v>247.804443159866</v>
+        <v>164.0867258761275</v>
       </c>
       <c r="Y22" t="n">
-        <v>247.804443159866</v>
+        <v>80.36900859238898</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>164.0867258761275</v>
+        <v>80.36900859238898</v>
       </c>
       <c r="C23" t="n">
-        <v>164.0867258761275</v>
+        <v>80.36900859238898</v>
       </c>
       <c r="D23" t="n">
-        <v>90.34816049261062</v>
+        <v>80.36900859238898</v>
       </c>
       <c r="E23" t="n">
-        <v>90.34816049261062</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="F23" t="n">
-        <v>90.34816049261062</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="G23" t="n">
-        <v>90.34816049261062</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="H23" t="n">
         <v>6.630443208872091</v>
@@ -5990,22 +5990,22 @@
         <v>43.6983692857935</v>
       </c>
       <c r="K23" t="n">
-        <v>125.7501039955856</v>
+        <v>115.094676728219</v>
       </c>
       <c r="L23" t="n">
-        <v>207.8018387053777</v>
+        <v>197.1464114380112</v>
       </c>
       <c r="M23" t="n">
-        <v>207.8018387053777</v>
+        <v>197.1464114380112</v>
       </c>
       <c r="N23" t="n">
-        <v>207.8018387053777</v>
+        <v>279.1981461478033</v>
       </c>
       <c r="O23" t="n">
-        <v>249.4704257338124</v>
+        <v>279.1981461478033</v>
       </c>
       <c r="P23" t="n">
-        <v>331.5221604436045</v>
+        <v>279.1981461478033</v>
       </c>
       <c r="Q23" t="n">
         <v>331.5221604436045</v>
@@ -6014,7 +6014,7 @@
         <v>331.5221604436045</v>
       </c>
       <c r="S23" t="n">
-        <v>247.804443159866</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="T23" t="n">
         <v>247.804443159866</v>
@@ -6026,7 +6026,7 @@
         <v>247.804443159866</v>
       </c>
       <c r="W23" t="n">
-        <v>164.0867258761275</v>
+        <v>247.804443159866</v>
       </c>
       <c r="X23" t="n">
         <v>164.0867258761275</v>
@@ -6042,16 +6042,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>82.4445158183525</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="C24" t="n">
-        <v>82.4445158183525</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="D24" t="n">
-        <v>82.4445158183525</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="E24" t="n">
-        <v>82.4445158183525</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="F24" t="n">
         <v>6.630443208872091</v>
@@ -6066,22 +6066,22 @@
         <v>6.630443208872091</v>
       </c>
       <c r="J24" t="n">
-        <v>35.01446635656757</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="K24" t="n">
-        <v>35.01446635656757</v>
+        <v>88.68217791866422</v>
       </c>
       <c r="L24" t="n">
-        <v>85.36695631422816</v>
+        <v>88.68217791866422</v>
       </c>
       <c r="M24" t="n">
-        <v>167.4186910240203</v>
+        <v>88.68217791866422</v>
       </c>
       <c r="N24" t="n">
-        <v>249.4704257338124</v>
+        <v>170.7339126284564</v>
       </c>
       <c r="O24" t="n">
-        <v>331.5221604436045</v>
+        <v>252.7856473382485</v>
       </c>
       <c r="P24" t="n">
         <v>331.5221604436045</v>
@@ -6090,28 +6090,28 @@
         <v>331.5221604436045</v>
       </c>
       <c r="R24" t="n">
-        <v>249.8799503858295</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="S24" t="n">
-        <v>166.162233102091</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="T24" t="n">
-        <v>166.162233102091</v>
+        <v>247.804443159866</v>
       </c>
       <c r="U24" t="n">
-        <v>166.162233102091</v>
+        <v>247.804443159866</v>
       </c>
       <c r="V24" t="n">
-        <v>82.4445158183525</v>
+        <v>247.804443159866</v>
       </c>
       <c r="W24" t="n">
-        <v>82.4445158183525</v>
+        <v>164.0867258761275</v>
       </c>
       <c r="X24" t="n">
-        <v>82.4445158183525</v>
+        <v>164.0867258761275</v>
       </c>
       <c r="Y24" t="n">
-        <v>82.4445158183525</v>
+        <v>80.36900859238898</v>
       </c>
     </row>
     <row r="25">
@@ -6124,34 +6124,34 @@
         <v>80.36900859238898</v>
       </c>
       <c r="C25" t="n">
-        <v>80.36900859238898</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="D25" t="n">
-        <v>80.36900859238898</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="E25" t="n">
-        <v>80.36900859238898</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="F25" t="n">
-        <v>80.36900859238898</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="G25" t="n">
-        <v>80.36900859238898</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="H25" t="n">
-        <v>80.36900859238898</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="I25" t="n">
-        <v>80.36900859238898</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="J25" t="n">
         <v>6.630443208872091</v>
       </c>
       <c r="K25" t="n">
-        <v>14.60839277571539</v>
+        <v>14.60839277571537</v>
       </c>
       <c r="L25" t="n">
-        <v>80.34385611233594</v>
+        <v>80.34385611233591</v>
       </c>
       <c r="M25" t="n">
         <v>160.0418085032467</v>
@@ -6172,22 +6172,22 @@
         <v>331.5221604436045</v>
       </c>
       <c r="S25" t="n">
+        <v>331.5221604436045</v>
+      </c>
+      <c r="T25" t="n">
+        <v>331.5221604436045</v>
+      </c>
+      <c r="U25" t="n">
+        <v>331.5221604436045</v>
+      </c>
+      <c r="V25" t="n">
+        <v>331.5221604436045</v>
+      </c>
+      <c r="W25" t="n">
+        <v>331.5221604436045</v>
+      </c>
+      <c r="X25" t="n">
         <v>247.804443159866</v>
-      </c>
-      <c r="T25" t="n">
-        <v>247.804443159866</v>
-      </c>
-      <c r="U25" t="n">
-        <v>247.804443159866</v>
-      </c>
-      <c r="V25" t="n">
-        <v>247.804443159866</v>
-      </c>
-      <c r="W25" t="n">
-        <v>247.804443159866</v>
-      </c>
-      <c r="X25" t="n">
-        <v>164.0867258761275</v>
       </c>
       <c r="Y25" t="n">
         <v>164.0867258761275</v>
@@ -6200,25 +6200,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>247.804443159866</v>
+        <v>90.34816049261062</v>
       </c>
       <c r="C26" t="n">
-        <v>247.804443159866</v>
+        <v>90.34816049261062</v>
       </c>
       <c r="D26" t="n">
-        <v>247.804443159866</v>
+        <v>90.34816049261062</v>
       </c>
       <c r="E26" t="n">
-        <v>164.0867258761275</v>
+        <v>90.34816049261062</v>
       </c>
       <c r="F26" t="n">
-        <v>164.0867258761275</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="G26" t="n">
-        <v>164.0867258761275</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="H26" t="n">
-        <v>90.34816049261062</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="I26" t="n">
         <v>6.630443208872091</v>
@@ -6227,7 +6227,7 @@
         <v>43.6983692857935</v>
       </c>
       <c r="K26" t="n">
-        <v>115.094676728219</v>
+        <v>43.6983692857935</v>
       </c>
       <c r="L26" t="n">
         <v>115.094676728219</v>
@@ -6248,13 +6248,13 @@
         <v>331.5221604436045</v>
       </c>
       <c r="R26" t="n">
-        <v>331.5221604436045</v>
+        <v>247.804443159866</v>
       </c>
       <c r="S26" t="n">
-        <v>331.5221604436045</v>
+        <v>247.804443159866</v>
       </c>
       <c r="T26" t="n">
-        <v>331.5221604436045</v>
+        <v>247.804443159866</v>
       </c>
       <c r="U26" t="n">
         <v>247.804443159866</v>
@@ -6263,13 +6263,13 @@
         <v>247.804443159866</v>
       </c>
       <c r="W26" t="n">
-        <v>247.804443159866</v>
+        <v>174.0658777763491</v>
       </c>
       <c r="X26" t="n">
-        <v>247.804443159866</v>
+        <v>90.34816049261062</v>
       </c>
       <c r="Y26" t="n">
-        <v>247.804443159866</v>
+        <v>90.34816049261062</v>
       </c>
     </row>
     <row r="27">
@@ -6279,19 +6279,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>82.4445158183525</v>
+        <v>80.36900859238898</v>
       </c>
       <c r="C27" t="n">
-        <v>82.4445158183525</v>
+        <v>80.36900859238898</v>
       </c>
       <c r="D27" t="n">
-        <v>82.4445158183525</v>
+        <v>80.36900859238898</v>
       </c>
       <c r="E27" t="n">
-        <v>82.4445158183525</v>
+        <v>80.36900859238898</v>
       </c>
       <c r="F27" t="n">
-        <v>82.4445158183525</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="G27" t="n">
         <v>6.630443208872091</v>
@@ -6306,16 +6306,16 @@
         <v>35.01446635656757</v>
       </c>
       <c r="K27" t="n">
-        <v>35.01446635656757</v>
+        <v>117.0662010663597</v>
       </c>
       <c r="L27" t="n">
-        <v>85.36695631422816</v>
+        <v>117.0662010663597</v>
       </c>
       <c r="M27" t="n">
-        <v>167.4186910240203</v>
+        <v>117.0662010663597</v>
       </c>
       <c r="N27" t="n">
-        <v>167.4186910240203</v>
+        <v>117.0662010663597</v>
       </c>
       <c r="O27" t="n">
         <v>167.4186910240203</v>
@@ -6327,28 +6327,28 @@
         <v>331.5221604436045</v>
       </c>
       <c r="R27" t="n">
-        <v>249.8799503858295</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="S27" t="n">
-        <v>166.162233102091</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="T27" t="n">
-        <v>166.162233102091</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="U27" t="n">
-        <v>166.162233102091</v>
+        <v>247.804443159866</v>
       </c>
       <c r="V27" t="n">
-        <v>166.162233102091</v>
+        <v>164.0867258761275</v>
       </c>
       <c r="W27" t="n">
-        <v>166.162233102091</v>
+        <v>164.0867258761275</v>
       </c>
       <c r="X27" t="n">
-        <v>166.162233102091</v>
+        <v>80.36900859238898</v>
       </c>
       <c r="Y27" t="n">
-        <v>166.162233102091</v>
+        <v>80.36900859238898</v>
       </c>
     </row>
     <row r="28">
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>6.630443208872091</v>
+        <v>82.29074401975313</v>
       </c>
       <c r="C28" t="n">
-        <v>6.630443208872091</v>
+        <v>82.29074401975313</v>
       </c>
       <c r="D28" t="n">
-        <v>6.630443208872091</v>
+        <v>82.29074401975313</v>
       </c>
       <c r="E28" t="n">
-        <v>6.630443208872091</v>
+        <v>82.29074401975313</v>
       </c>
       <c r="F28" t="n">
-        <v>6.630443208872091</v>
+        <v>82.29074401975313</v>
       </c>
       <c r="G28" t="n">
-        <v>6.630443208872091</v>
+        <v>82.29074401975313</v>
       </c>
       <c r="H28" t="n">
-        <v>6.630443208872091</v>
+        <v>82.29074401975313</v>
       </c>
       <c r="I28" t="n">
-        <v>6.630443208872091</v>
+        <v>82.29074401975313</v>
       </c>
       <c r="J28" t="n">
         <v>6.630443208872091</v>
@@ -6409,25 +6409,25 @@
         <v>331.5221604436045</v>
       </c>
       <c r="S28" t="n">
-        <v>331.5221604436045</v>
+        <v>249.7261785872302</v>
       </c>
       <c r="T28" t="n">
-        <v>331.5221604436045</v>
+        <v>166.0084613034917</v>
       </c>
       <c r="U28" t="n">
-        <v>331.5221604436045</v>
+        <v>82.29074401975313</v>
       </c>
       <c r="V28" t="n">
-        <v>331.5221604436045</v>
+        <v>82.29074401975313</v>
       </c>
       <c r="W28" t="n">
-        <v>257.7835950600877</v>
+        <v>82.29074401975313</v>
       </c>
       <c r="X28" t="n">
-        <v>174.0658777763491</v>
+        <v>82.29074401975313</v>
       </c>
       <c r="Y28" t="n">
-        <v>90.34816049261062</v>
+        <v>82.29074401975313</v>
       </c>
     </row>
     <row r="29">
@@ -6437,43 +6437,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>174.0658777763491</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="C29" t="n">
-        <v>174.0658777763491</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="D29" t="n">
-        <v>90.34816049261062</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="E29" t="n">
-        <v>90.34816049261062</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="F29" t="n">
-        <v>90.34816049261062</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="G29" t="n">
-        <v>90.34816049261062</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="H29" t="n">
-        <v>90.34816049261062</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="I29" t="n">
         <v>6.630443208872091</v>
       </c>
       <c r="J29" t="n">
-        <v>6.630443208872091</v>
+        <v>43.6983692857935</v>
       </c>
       <c r="K29" t="n">
-        <v>6.630443208872091</v>
+        <v>125.7501039955856</v>
       </c>
       <c r="L29" t="n">
-        <v>33.04294201842691</v>
+        <v>207.8018387053777</v>
       </c>
       <c r="M29" t="n">
-        <v>115.094676728219</v>
+        <v>279.1981461478033</v>
       </c>
       <c r="N29" t="n">
-        <v>197.1464114380112</v>
+        <v>279.1981461478033</v>
       </c>
       <c r="O29" t="n">
         <v>279.1981461478033</v>
@@ -6485,28 +6485,28 @@
         <v>331.5221604436045</v>
       </c>
       <c r="R29" t="n">
-        <v>247.804443159866</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="S29" t="n">
-        <v>247.804443159866</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="T29" t="n">
         <v>247.804443159866</v>
       </c>
       <c r="U29" t="n">
-        <v>247.804443159866</v>
+        <v>164.0867258761275</v>
       </c>
       <c r="V29" t="n">
-        <v>247.804443159866</v>
+        <v>164.0867258761275</v>
       </c>
       <c r="W29" t="n">
-        <v>247.804443159866</v>
+        <v>164.0867258761275</v>
       </c>
       <c r="X29" t="n">
-        <v>247.804443159866</v>
+        <v>164.0867258761275</v>
       </c>
       <c r="Y29" t="n">
-        <v>247.804443159866</v>
+        <v>90.34816049261062</v>
       </c>
     </row>
     <row r="30">
@@ -6516,25 +6516,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>253.5369213578538</v>
+        <v>164.0867258761275</v>
       </c>
       <c r="C30" t="n">
-        <v>169.8192040741152</v>
+        <v>164.0867258761275</v>
       </c>
       <c r="D30" t="n">
-        <v>169.8192040741152</v>
+        <v>164.0867258761275</v>
       </c>
       <c r="E30" t="n">
-        <v>169.8192040741152</v>
+        <v>164.0867258761275</v>
       </c>
       <c r="F30" t="n">
-        <v>169.8192040741152</v>
+        <v>164.0867258761275</v>
       </c>
       <c r="G30" t="n">
-        <v>169.8192040741152</v>
+        <v>90.34816049261062</v>
       </c>
       <c r="H30" t="n">
-        <v>86.10148679037673</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="I30" t="n">
         <v>6.630443208872091</v>
@@ -6543,19 +6543,19 @@
         <v>35.01446635656757</v>
       </c>
       <c r="K30" t="n">
-        <v>35.01446635656757</v>
+        <v>117.0662010663597</v>
       </c>
       <c r="L30" t="n">
-        <v>35.01446635656757</v>
+        <v>199.1179357761518</v>
       </c>
       <c r="M30" t="n">
-        <v>85.36695631422816</v>
+        <v>281.1696704859439</v>
       </c>
       <c r="N30" t="n">
-        <v>167.4186910240203</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="O30" t="n">
-        <v>249.4704257338124</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="P30" t="n">
         <v>331.5221604436045</v>
@@ -6576,16 +6576,16 @@
         <v>331.5221604436045</v>
       </c>
       <c r="V30" t="n">
-        <v>253.5369213578538</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="W30" t="n">
-        <v>253.5369213578538</v>
+        <v>247.804443159866</v>
       </c>
       <c r="X30" t="n">
-        <v>253.5369213578538</v>
+        <v>164.0867258761275</v>
       </c>
       <c r="Y30" t="n">
-        <v>253.5369213578538</v>
+        <v>164.0867258761275</v>
       </c>
     </row>
     <row r="31">
@@ -6598,25 +6598,25 @@
         <v>164.0867258761275</v>
       </c>
       <c r="C31" t="n">
-        <v>164.0867258761275</v>
+        <v>80.36900859238898</v>
       </c>
       <c r="D31" t="n">
-        <v>164.0867258761275</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="E31" t="n">
-        <v>164.0867258761275</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="F31" t="n">
-        <v>164.0867258761275</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="G31" t="n">
-        <v>164.0867258761275</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="H31" t="n">
-        <v>164.0867258761275</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="I31" t="n">
-        <v>80.36900859238898</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="J31" t="n">
         <v>6.630443208872091</v>
@@ -6658,10 +6658,10 @@
         <v>331.5221604436045</v>
       </c>
       <c r="W31" t="n">
-        <v>331.5221604436045</v>
+        <v>247.804443159866</v>
       </c>
       <c r="X31" t="n">
-        <v>247.804443159866</v>
+        <v>164.0867258761275</v>
       </c>
       <c r="Y31" t="n">
         <v>164.0867258761275</v>
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>90.34816049261062</v>
+        <v>80.36900859238898</v>
       </c>
       <c r="C32" t="n">
-        <v>90.34816049261062</v>
+        <v>80.36900859238898</v>
       </c>
       <c r="D32" t="n">
-        <v>6.630443208872091</v>
+        <v>80.36900859238898</v>
       </c>
       <c r="E32" t="n">
-        <v>6.630443208872091</v>
+        <v>80.36900859238898</v>
       </c>
       <c r="F32" t="n">
-        <v>6.630443208872091</v>
+        <v>80.36900859238898</v>
       </c>
       <c r="G32" t="n">
         <v>6.630443208872091</v>
@@ -6701,22 +6701,22 @@
         <v>6.630443208872091</v>
       </c>
       <c r="K32" t="n">
-        <v>6.630443208872091</v>
+        <v>88.68217791866422</v>
       </c>
       <c r="L32" t="n">
-        <v>88.68217791866422</v>
+        <v>170.7339126284564</v>
       </c>
       <c r="M32" t="n">
-        <v>170.7339126284564</v>
+        <v>252.7856473382485</v>
       </c>
       <c r="N32" t="n">
-        <v>197.1464114380112</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="O32" t="n">
-        <v>197.1464114380112</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="P32" t="n">
-        <v>279.1981461478033</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="Q32" t="n">
         <v>331.5221604436045</v>
@@ -6725,25 +6725,25 @@
         <v>331.5221604436045</v>
       </c>
       <c r="S32" t="n">
+        <v>331.5221604436045</v>
+      </c>
+      <c r="T32" t="n">
+        <v>331.5221604436045</v>
+      </c>
+      <c r="U32" t="n">
+        <v>331.5221604436045</v>
+      </c>
+      <c r="V32" t="n">
+        <v>331.5221604436045</v>
+      </c>
+      <c r="W32" t="n">
         <v>247.804443159866</v>
       </c>
-      <c r="T32" t="n">
+      <c r="X32" t="n">
+        <v>247.804443159866</v>
+      </c>
+      <c r="Y32" t="n">
         <v>164.0867258761275</v>
-      </c>
-      <c r="U32" t="n">
-        <v>90.34816049261062</v>
-      </c>
-      <c r="V32" t="n">
-        <v>90.34816049261062</v>
-      </c>
-      <c r="W32" t="n">
-        <v>90.34816049261062</v>
-      </c>
-      <c r="X32" t="n">
-        <v>90.34816049261062</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>90.34816049261062</v>
       </c>
     </row>
     <row r="33">
@@ -6753,16 +6753,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>164.0867258761275</v>
+        <v>90.34816049261062</v>
       </c>
       <c r="C33" t="n">
         <v>90.34816049261062</v>
       </c>
       <c r="D33" t="n">
-        <v>6.630443208872091</v>
+        <v>90.34816049261062</v>
       </c>
       <c r="E33" t="n">
-        <v>6.630443208872091</v>
+        <v>90.34816049261062</v>
       </c>
       <c r="F33" t="n">
         <v>6.630443208872091</v>
@@ -6780,22 +6780,22 @@
         <v>35.01446635656757</v>
       </c>
       <c r="K33" t="n">
-        <v>35.01446635656757</v>
+        <v>117.0662010663597</v>
       </c>
       <c r="L33" t="n">
-        <v>85.36695631422816</v>
+        <v>199.1179357761518</v>
       </c>
       <c r="M33" t="n">
-        <v>167.4186910240203</v>
+        <v>199.1179357761518</v>
       </c>
       <c r="N33" t="n">
-        <v>167.4186910240203</v>
+        <v>199.1179357761518</v>
       </c>
       <c r="O33" t="n">
-        <v>249.4704257338124</v>
+        <v>281.1696704859439</v>
       </c>
       <c r="P33" t="n">
-        <v>249.4704257338124</v>
+        <v>281.1696704859439</v>
       </c>
       <c r="Q33" t="n">
         <v>331.5221604436045</v>
@@ -6807,22 +6807,22 @@
         <v>331.5221604436045</v>
       </c>
       <c r="T33" t="n">
-        <v>331.5221604436045</v>
+        <v>257.7835950600877</v>
       </c>
       <c r="U33" t="n">
-        <v>331.5221604436045</v>
+        <v>257.7835950600877</v>
       </c>
       <c r="V33" t="n">
-        <v>331.5221604436045</v>
+        <v>257.7835950600877</v>
       </c>
       <c r="W33" t="n">
-        <v>331.5221604436045</v>
+        <v>174.0658777763491</v>
       </c>
       <c r="X33" t="n">
-        <v>331.5221604436045</v>
+        <v>174.0658777763491</v>
       </c>
       <c r="Y33" t="n">
-        <v>247.804443159866</v>
+        <v>174.0658777763491</v>
       </c>
     </row>
     <row r="34">
@@ -6832,16 +6832,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>90.34816049261062</v>
+        <v>80.36900859238898</v>
       </c>
       <c r="C34" t="n">
-        <v>90.34816049261062</v>
+        <v>80.36900859238898</v>
       </c>
       <c r="D34" t="n">
-        <v>90.34816049261062</v>
+        <v>80.36900859238898</v>
       </c>
       <c r="E34" t="n">
-        <v>90.34816049261062</v>
+        <v>80.36900859238898</v>
       </c>
       <c r="F34" t="n">
         <v>6.630443208872091</v>
@@ -6880,28 +6880,28 @@
         <v>331.5221604436045</v>
       </c>
       <c r="R34" t="n">
-        <v>331.5221604436045</v>
+        <v>247.804443159866</v>
       </c>
       <c r="S34" t="n">
-        <v>331.5221604436045</v>
+        <v>164.0867258761275</v>
       </c>
       <c r="T34" t="n">
-        <v>331.5221604436045</v>
+        <v>164.0867258761275</v>
       </c>
       <c r="U34" t="n">
-        <v>331.5221604436045</v>
+        <v>80.36900859238898</v>
       </c>
       <c r="V34" t="n">
-        <v>331.5221604436045</v>
+        <v>80.36900859238898</v>
       </c>
       <c r="W34" t="n">
-        <v>257.7835950600877</v>
+        <v>80.36900859238898</v>
       </c>
       <c r="X34" t="n">
-        <v>174.0658777763491</v>
+        <v>80.36900859238898</v>
       </c>
       <c r="Y34" t="n">
-        <v>174.0658777763491</v>
+        <v>80.36900859238898</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>164.0867258761275</v>
+        <v>80.36900859238898</v>
       </c>
       <c r="C35" t="n">
-        <v>164.0867258761275</v>
+        <v>80.36900859238898</v>
       </c>
       <c r="D35" t="n">
-        <v>90.34816049261062</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="E35" t="n">
-        <v>90.34816049261062</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="F35" t="n">
-        <v>90.34816049261062</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="G35" t="n">
         <v>6.630443208872091</v>
@@ -6935,10 +6935,10 @@
         <v>6.630443208872091</v>
       </c>
       <c r="J35" t="n">
-        <v>43.6983692857935</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="K35" t="n">
-        <v>115.094676728219</v>
+        <v>88.68217791866422</v>
       </c>
       <c r="L35" t="n">
         <v>115.094676728219</v>
@@ -6977,10 +6977,10 @@
         <v>247.804443159866</v>
       </c>
       <c r="X35" t="n">
-        <v>247.804443159866</v>
+        <v>164.0867258761275</v>
       </c>
       <c r="Y35" t="n">
-        <v>164.0867258761275</v>
+        <v>80.36900859238898</v>
       </c>
     </row>
     <row r="36">
@@ -6990,19 +6990,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>90.34816049261062</v>
+        <v>82.4445158183525</v>
       </c>
       <c r="C36" t="n">
-        <v>90.34816049261062</v>
+        <v>82.4445158183525</v>
       </c>
       <c r="D36" t="n">
-        <v>90.34816049261062</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="E36" t="n">
-        <v>90.34816049261062</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="F36" t="n">
-        <v>90.34816049261062</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="G36" t="n">
         <v>6.630443208872091</v>
@@ -7020,46 +7020,46 @@
         <v>35.01446635656757</v>
       </c>
       <c r="L36" t="n">
+        <v>35.01446635656757</v>
+      </c>
+      <c r="M36" t="n">
+        <v>35.01446635656757</v>
+      </c>
+      <c r="N36" t="n">
         <v>85.36695631422816</v>
       </c>
-      <c r="M36" t="n">
+      <c r="O36" t="n">
         <v>167.4186910240203</v>
       </c>
-      <c r="N36" t="n">
+      <c r="P36" t="n">
         <v>249.4704257338124</v>
-      </c>
-      <c r="O36" t="n">
-        <v>331.5221604436045</v>
-      </c>
-      <c r="P36" t="n">
-        <v>331.5221604436045</v>
       </c>
       <c r="Q36" t="n">
         <v>331.5221604436045</v>
       </c>
       <c r="R36" t="n">
-        <v>331.5221604436045</v>
+        <v>249.8799503858295</v>
       </c>
       <c r="S36" t="n">
-        <v>331.5221604436045</v>
+        <v>249.8799503858295</v>
       </c>
       <c r="T36" t="n">
-        <v>331.5221604436045</v>
+        <v>249.8799503858295</v>
       </c>
       <c r="U36" t="n">
-        <v>331.5221604436045</v>
+        <v>249.8799503858295</v>
       </c>
       <c r="V36" t="n">
-        <v>331.5221604436045</v>
+        <v>166.162233102091</v>
       </c>
       <c r="W36" t="n">
-        <v>247.804443159866</v>
+        <v>166.162233102091</v>
       </c>
       <c r="X36" t="n">
-        <v>164.0867258761275</v>
+        <v>82.4445158183525</v>
       </c>
       <c r="Y36" t="n">
-        <v>90.34816049261062</v>
+        <v>82.4445158183525</v>
       </c>
     </row>
     <row r="37">
@@ -7069,34 +7069,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>164.0867258761275</v>
+        <v>80.36900859238898</v>
       </c>
       <c r="C37" t="n">
-        <v>164.0867258761275</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="D37" t="n">
-        <v>164.0867258761275</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="E37" t="n">
-        <v>164.0867258761275</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="F37" t="n">
-        <v>164.0867258761275</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="G37" t="n">
-        <v>164.0867258761275</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="H37" t="n">
-        <v>164.0867258761275</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="I37" t="n">
-        <v>82.29074401975313</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="J37" t="n">
-        <v>6.630443208872091</v>
+        <v>6.6304432088721</v>
       </c>
       <c r="K37" t="n">
-        <v>14.60839277571539</v>
+        <v>14.6083927757154</v>
       </c>
       <c r="L37" t="n">
         <v>80.34385611233596</v>
@@ -7117,22 +7117,22 @@
         <v>331.5221604436045</v>
       </c>
       <c r="R37" t="n">
-        <v>247.804443159866</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="S37" t="n">
         <v>247.804443159866</v>
       </c>
       <c r="T37" t="n">
-        <v>247.804443159866</v>
+        <v>164.0867258761275</v>
       </c>
       <c r="U37" t="n">
-        <v>247.804443159866</v>
+        <v>164.0867258761275</v>
       </c>
       <c r="V37" t="n">
-        <v>247.804443159866</v>
+        <v>164.0867258761275</v>
       </c>
       <c r="W37" t="n">
-        <v>247.804443159866</v>
+        <v>164.0867258761275</v>
       </c>
       <c r="X37" t="n">
         <v>164.0867258761275</v>
@@ -7148,46 +7148,46 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>90.34816049261062</v>
+        <v>247.804443159866</v>
       </c>
       <c r="C38" t="n">
-        <v>90.34816049261062</v>
+        <v>164.0867258761275</v>
       </c>
       <c r="D38" t="n">
-        <v>90.34816049261062</v>
+        <v>164.0867258761275</v>
       </c>
       <c r="E38" t="n">
-        <v>90.34816049261062</v>
+        <v>80.36900859238898</v>
       </c>
       <c r="F38" t="n">
-        <v>6.630443208872091</v>
+        <v>80.36900859238898</v>
       </c>
       <c r="G38" t="n">
-        <v>6.630443208872091</v>
+        <v>80.36900859238898</v>
       </c>
       <c r="H38" t="n">
-        <v>6.630443208872091</v>
+        <v>80.36900859238898</v>
       </c>
       <c r="I38" t="n">
         <v>6.630443208872091</v>
       </c>
       <c r="J38" t="n">
-        <v>43.6983692857935</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="K38" t="n">
-        <v>43.6983692857935</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="L38" t="n">
-        <v>43.6983692857935</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="M38" t="n">
-        <v>43.6983692857935</v>
+        <v>88.68217791866422</v>
       </c>
       <c r="N38" t="n">
-        <v>115.094676728219</v>
+        <v>170.7339126284564</v>
       </c>
       <c r="O38" t="n">
-        <v>197.1464114380112</v>
+        <v>252.7856473382485</v>
       </c>
       <c r="P38" t="n">
         <v>279.1981461478033</v>
@@ -7202,22 +7202,22 @@
         <v>331.5221604436045</v>
       </c>
       <c r="T38" t="n">
-        <v>257.7835950600877</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="U38" t="n">
-        <v>174.0658777763491</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="V38" t="n">
-        <v>174.0658777763491</v>
+        <v>247.804443159866</v>
       </c>
       <c r="W38" t="n">
-        <v>174.0658777763491</v>
+        <v>247.804443159866</v>
       </c>
       <c r="X38" t="n">
-        <v>174.0658777763491</v>
+        <v>247.804443159866</v>
       </c>
       <c r="Y38" t="n">
-        <v>174.0658777763491</v>
+        <v>247.804443159866</v>
       </c>
     </row>
     <row r="39">
@@ -7227,25 +7227,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>90.34816049261062</v>
+        <v>247.804443159866</v>
       </c>
       <c r="C39" t="n">
-        <v>6.630443208872091</v>
+        <v>164.0867258761275</v>
       </c>
       <c r="D39" t="n">
-        <v>6.630443208872091</v>
+        <v>164.0867258761275</v>
       </c>
       <c r="E39" t="n">
-        <v>6.630443208872091</v>
+        <v>80.36900859238898</v>
       </c>
       <c r="F39" t="n">
-        <v>6.630443208872091</v>
+        <v>80.36900859238898</v>
       </c>
       <c r="G39" t="n">
-        <v>6.630443208872091</v>
+        <v>80.36900859238898</v>
       </c>
       <c r="H39" t="n">
-        <v>6.630443208872091</v>
+        <v>80.36900859238898</v>
       </c>
       <c r="I39" t="n">
         <v>6.630443208872091</v>
@@ -7257,19 +7257,19 @@
         <v>35.01446635656757</v>
       </c>
       <c r="L39" t="n">
-        <v>117.0662010663597</v>
+        <v>35.01446635656757</v>
       </c>
       <c r="M39" t="n">
-        <v>199.1179357761518</v>
+        <v>85.36695631422816</v>
       </c>
       <c r="N39" t="n">
-        <v>249.4704257338124</v>
+        <v>167.4186910240203</v>
       </c>
       <c r="O39" t="n">
         <v>249.4704257338124</v>
       </c>
       <c r="P39" t="n">
-        <v>249.4704257338124</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="Q39" t="n">
         <v>331.5221604436045</v>
@@ -7284,19 +7284,19 @@
         <v>331.5221604436045</v>
       </c>
       <c r="U39" t="n">
-        <v>331.5221604436045</v>
+        <v>247.804443159866</v>
       </c>
       <c r="V39" t="n">
-        <v>331.5221604436045</v>
+        <v>247.804443159866</v>
       </c>
       <c r="W39" t="n">
-        <v>331.5221604436045</v>
+        <v>247.804443159866</v>
       </c>
       <c r="X39" t="n">
         <v>247.804443159866</v>
       </c>
       <c r="Y39" t="n">
-        <v>164.0867258761275</v>
+        <v>247.804443159866</v>
       </c>
     </row>
     <row r="40">
@@ -7336,7 +7336,7 @@
         <v>14.60839277571539</v>
       </c>
       <c r="L40" t="n">
-        <v>80.34385611233596</v>
+        <v>80.34385611233594</v>
       </c>
       <c r="M40" t="n">
         <v>160.0418085032467</v>
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>80.36900859238898</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="C41" t="n">
-        <v>80.36900859238898</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="D41" t="n">
-        <v>80.36900859238898</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="E41" t="n">
-        <v>80.36900859238898</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="F41" t="n">
-        <v>80.36900859238898</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="G41" t="n">
-        <v>80.36900859238898</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="H41" t="n">
-        <v>80.36900859238898</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="I41" t="n">
         <v>6.630443208872091</v>
@@ -7412,19 +7412,19 @@
         <v>6.630443208872091</v>
       </c>
       <c r="K41" t="n">
-        <v>33.04294201842691</v>
+        <v>88.68217791866422</v>
       </c>
       <c r="L41" t="n">
-        <v>33.04294201842691</v>
+        <v>170.7339126284564</v>
       </c>
       <c r="M41" t="n">
-        <v>33.04294201842691</v>
+        <v>252.7856473382485</v>
       </c>
       <c r="N41" t="n">
-        <v>115.094676728219</v>
+        <v>279.1981461478033</v>
       </c>
       <c r="O41" t="n">
-        <v>197.1464114380112</v>
+        <v>279.1981461478033</v>
       </c>
       <c r="P41" t="n">
         <v>279.1981461478033</v>
@@ -7433,28 +7433,28 @@
         <v>331.5221604436045</v>
       </c>
       <c r="R41" t="n">
-        <v>331.5221604436045</v>
+        <v>247.804443159866</v>
       </c>
       <c r="S41" t="n">
-        <v>331.5221604436045</v>
+        <v>164.0867258761275</v>
       </c>
       <c r="T41" t="n">
-        <v>331.5221604436045</v>
+        <v>80.36900859238898</v>
       </c>
       <c r="U41" t="n">
-        <v>331.5221604436045</v>
+        <v>80.36900859238898</v>
       </c>
       <c r="V41" t="n">
-        <v>331.5221604436045</v>
+        <v>80.36900859238898</v>
       </c>
       <c r="W41" t="n">
-        <v>247.804443159866</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="X41" t="n">
-        <v>164.0867258761275</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="Y41" t="n">
-        <v>80.36900859238898</v>
+        <v>6.630443208872091</v>
       </c>
     </row>
     <row r="42">
@@ -7464,46 +7464,46 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>80.36900859238898</v>
+        <v>90.34816049261062</v>
       </c>
       <c r="C42" t="n">
-        <v>80.36900859238898</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="D42" t="n">
-        <v>80.36900859238898</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="E42" t="n">
-        <v>80.36900859238898</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="F42" t="n">
-        <v>80.36900859238898</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="G42" t="n">
-        <v>80.36900859238898</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="H42" t="n">
-        <v>80.36900859238898</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="I42" t="n">
         <v>6.630443208872091</v>
       </c>
       <c r="J42" t="n">
-        <v>35.01446635656757</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="K42" t="n">
-        <v>35.01446635656757</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="L42" t="n">
+        <v>6.630443208872091</v>
+      </c>
+      <c r="M42" t="n">
+        <v>6.630443208872091</v>
+      </c>
+      <c r="N42" t="n">
         <v>85.36695631422816</v>
       </c>
-      <c r="M42" t="n">
+      <c r="O42" t="n">
         <v>167.4186910240203</v>
-      </c>
-      <c r="N42" t="n">
-        <v>249.4704257338124</v>
-      </c>
-      <c r="O42" t="n">
-        <v>249.4704257338124</v>
       </c>
       <c r="P42" t="n">
         <v>249.4704257338124</v>
@@ -7515,25 +7515,25 @@
         <v>331.5221604436045</v>
       </c>
       <c r="S42" t="n">
-        <v>331.5221604436045</v>
+        <v>257.7835950600877</v>
       </c>
       <c r="T42" t="n">
-        <v>331.5221604436045</v>
+        <v>257.7835950600877</v>
       </c>
       <c r="U42" t="n">
-        <v>331.5221604436045</v>
+        <v>257.7835950600877</v>
       </c>
       <c r="V42" t="n">
-        <v>331.5221604436045</v>
+        <v>257.7835950600877</v>
       </c>
       <c r="W42" t="n">
-        <v>247.804443159866</v>
+        <v>257.7835950600877</v>
       </c>
       <c r="X42" t="n">
-        <v>164.0867258761275</v>
+        <v>257.7835950600877</v>
       </c>
       <c r="Y42" t="n">
-        <v>80.36900859238898</v>
+        <v>174.0658777763491</v>
       </c>
     </row>
     <row r="43">
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>164.0867258761275</v>
+        <v>90.34816049261062</v>
       </c>
       <c r="C43" t="n">
-        <v>164.0867258761275</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="D43" t="n">
-        <v>164.0867258761275</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="E43" t="n">
-        <v>164.0867258761275</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="F43" t="n">
-        <v>90.34816049261062</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="G43" t="n">
         <v>6.630443208872091</v>
@@ -7570,7 +7570,7 @@
         <v>6.630443208872091</v>
       </c>
       <c r="K43" t="n">
-        <v>14.6083927757154</v>
+        <v>14.60839277571539</v>
       </c>
       <c r="L43" t="n">
         <v>80.34385611233596</v>
@@ -7591,28 +7591,28 @@
         <v>331.5221604436045</v>
       </c>
       <c r="R43" t="n">
-        <v>247.804443159866</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="S43" t="n">
-        <v>164.0867258761275</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="T43" t="n">
-        <v>164.0867258761275</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="U43" t="n">
-        <v>164.0867258761275</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="V43" t="n">
-        <v>164.0867258761275</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="W43" t="n">
-        <v>164.0867258761275</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="X43" t="n">
-        <v>164.0867258761275</v>
+        <v>257.7835950600877</v>
       </c>
       <c r="Y43" t="n">
-        <v>164.0867258761275</v>
+        <v>174.0658777763491</v>
       </c>
     </row>
     <row r="44">
@@ -9398,25 +9398,25 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>131.6542655994259</v>
       </c>
       <c r="K20" t="n">
-        <v>146.0645877545816</v>
+        <v>228.9451278654827</v>
       </c>
       <c r="L20" t="n">
-        <v>143.9315300967061</v>
+        <v>226.8120702076072</v>
       </c>
       <c r="M20" t="n">
-        <v>200.2797113828769</v>
+        <v>154.8415208446236</v>
       </c>
       <c r="N20" t="n">
-        <v>208.4561555814414</v>
+        <v>125.5756154705403</v>
       </c>
       <c r="O20" t="n">
-        <v>214.927993750524</v>
+        <v>132.0474536396228</v>
       </c>
       <c r="P20" t="n">
-        <v>147.5489424727328</v>
+        <v>230.4294825836339</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
@@ -9480,16 +9480,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>87.56255053286914</v>
+        <v>170.4430906437703</v>
       </c>
       <c r="L21" t="n">
         <v>70.94820947007285</v>
       </c>
       <c r="M21" t="n">
-        <v>114.1019229148603</v>
+        <v>63.24082194752641</v>
       </c>
       <c r="N21" t="n">
-        <v>133.2409716528566</v>
+        <v>101.2215325092894</v>
       </c>
       <c r="O21" t="n">
         <v>151.3947338373213</v>
@@ -9562,7 +9562,7 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L22" t="n">
-        <v>162.4747015415545</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M22" t="n">
         <v>178.5096609094456</v>
@@ -9638,7 +9638,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>228.9451278654827</v>
+        <v>218.1820700196579</v>
       </c>
       <c r="L23" t="n">
         <v>226.8120702076072</v>
@@ -9647,16 +9647,16 @@
         <v>128.1622291178006</v>
       </c>
       <c r="N23" t="n">
-        <v>125.5756154705403</v>
+        <v>208.4561555814414</v>
       </c>
       <c r="O23" t="n">
-        <v>174.1369354865265</v>
+        <v>132.0474536396228</v>
       </c>
       <c r="P23" t="n">
-        <v>230.4294825836339</v>
+        <v>147.5489424727328</v>
       </c>
       <c r="Q23" t="n">
-        <v>159.4624509671762</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9714,16 +9714,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>97.42030488819117</v>
       </c>
       <c r="K24" t="n">
-        <v>87.56255053286914</v>
+        <v>170.4430906437703</v>
       </c>
       <c r="L24" t="n">
-        <v>121.8093104374068</v>
+        <v>70.94820947007285</v>
       </c>
       <c r="M24" t="n">
-        <v>146.1213620584276</v>
+        <v>63.24082194752641</v>
       </c>
       <c r="N24" t="n">
         <v>133.2409716528566</v>
@@ -9732,7 +9732,7 @@
         <v>151.3947338373213</v>
       </c>
       <c r="P24" t="n">
-        <v>74.5170305241549</v>
+        <v>154.0488619437065</v>
       </c>
       <c r="Q24" t="n">
         <v>100.2360922216349</v>
@@ -9875,10 +9875,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>218.1820700196579</v>
+        <v>146.0645877545816</v>
       </c>
       <c r="L26" t="n">
-        <v>143.9315300967061</v>
+        <v>216.0490123617824</v>
       </c>
       <c r="M26" t="n">
         <v>211.0427692287017</v>
@@ -9954,19 +9954,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>87.56255053286914</v>
+        <v>170.4430906437703</v>
       </c>
       <c r="L27" t="n">
-        <v>121.8093104374068</v>
+        <v>70.94820947007285</v>
       </c>
       <c r="M27" t="n">
-        <v>146.1213620584276</v>
+        <v>63.24082194752641</v>
       </c>
       <c r="N27" t="n">
         <v>50.36043154195549</v>
       </c>
       <c r="O27" t="n">
-        <v>68.51419372642015</v>
+        <v>119.3752946937541</v>
       </c>
       <c r="P27" t="n">
         <v>157.397570635056</v>
@@ -10109,22 +10109,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>131.6542655994259</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>146.0645877545816</v>
+        <v>228.9451278654827</v>
       </c>
       <c r="L29" t="n">
-        <v>170.6108218235291</v>
+        <v>226.8120702076072</v>
       </c>
       <c r="M29" t="n">
-        <v>211.0427692287017</v>
+        <v>200.2797113828769</v>
       </c>
       <c r="N29" t="n">
-        <v>208.4561555814414</v>
+        <v>125.5756154705403</v>
       </c>
       <c r="O29" t="n">
-        <v>214.927993750524</v>
+        <v>132.0474536396228</v>
       </c>
       <c r="P29" t="n">
         <v>147.5489424727328</v>
@@ -10191,22 +10191,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>87.56255053286914</v>
+        <v>170.4430906437703</v>
       </c>
       <c r="L30" t="n">
-        <v>70.94820947007285</v>
+        <v>153.828749580974</v>
       </c>
       <c r="M30" t="n">
-        <v>114.1019229148603</v>
+        <v>146.1213620584276</v>
       </c>
       <c r="N30" t="n">
-        <v>133.2409716528566</v>
+        <v>101.2215325092895</v>
       </c>
       <c r="O30" t="n">
-        <v>151.3947338373213</v>
+        <v>68.51419372642015</v>
       </c>
       <c r="P30" t="n">
-        <v>157.397570635056</v>
+        <v>74.5170305241549</v>
       </c>
       <c r="Q30" t="n">
         <v>100.2360922216349</v>
@@ -10349,7 +10349,7 @@
         <v>131.6542655994259</v>
       </c>
       <c r="K32" t="n">
-        <v>146.0645877545816</v>
+        <v>228.9451278654827</v>
       </c>
       <c r="L32" t="n">
         <v>226.8120702076072</v>
@@ -10358,16 +10358,16 @@
         <v>211.0427692287017</v>
       </c>
       <c r="N32" t="n">
-        <v>152.2549071973633</v>
+        <v>205.1074468900918</v>
       </c>
       <c r="O32" t="n">
         <v>132.0474536396228</v>
       </c>
       <c r="P32" t="n">
-        <v>230.4294825836339</v>
+        <v>147.5489424727328</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>159.4624509671762</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10428,13 +10428,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>87.56255053286914</v>
+        <v>170.4430906437703</v>
       </c>
       <c r="L33" t="n">
-        <v>121.8093104374068</v>
+        <v>153.828749580974</v>
       </c>
       <c r="M33" t="n">
-        <v>146.1213620584276</v>
+        <v>63.24082194752641</v>
       </c>
       <c r="N33" t="n">
         <v>50.36043154195549</v>
@@ -10446,7 +10446,7 @@
         <v>74.5170305241549</v>
       </c>
       <c r="Q33" t="n">
-        <v>183.1166323325361</v>
+        <v>151.0971931889689</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10583,13 +10583,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>131.6542655994259</v>
       </c>
       <c r="K35" t="n">
-        <v>218.1820700196579</v>
+        <v>228.9451278654827</v>
       </c>
       <c r="L35" t="n">
-        <v>143.9315300967061</v>
+        <v>170.6108218235291</v>
       </c>
       <c r="M35" t="n">
         <v>128.1622291178006</v>
@@ -10668,22 +10668,22 @@
         <v>87.56255053286914</v>
       </c>
       <c r="L36" t="n">
-        <v>121.8093104374068</v>
+        <v>70.94820947007285</v>
       </c>
       <c r="M36" t="n">
-        <v>146.1213620584276</v>
+        <v>63.24082194752641</v>
       </c>
       <c r="N36" t="n">
-        <v>133.2409716528566</v>
+        <v>101.2215325092894</v>
       </c>
       <c r="O36" t="n">
         <v>151.3947338373213</v>
       </c>
       <c r="P36" t="n">
-        <v>74.5170305241549</v>
+        <v>157.397570635056</v>
       </c>
       <c r="Q36" t="n">
-        <v>100.2360922216349</v>
+        <v>183.1166323325361</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10747,7 +10747,7 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L37" t="n">
-        <v>162.4747015415545</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M37" t="n">
         <v>178.5096609094456</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>131.6542655994259</v>
       </c>
       <c r="K38" t="n">
         <v>146.0645877545816</v>
@@ -10829,16 +10829,16 @@
         <v>143.9315300967061</v>
       </c>
       <c r="M38" t="n">
-        <v>128.1622291178006</v>
+        <v>211.0427692287017</v>
       </c>
       <c r="N38" t="n">
-        <v>197.6930977356166</v>
+        <v>208.4561555814414</v>
       </c>
       <c r="O38" t="n">
         <v>214.927993750524</v>
       </c>
       <c r="P38" t="n">
-        <v>230.4294825836339</v>
+        <v>174.2282341995558</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -10905,22 +10905,22 @@
         <v>87.56255053286914</v>
       </c>
       <c r="L39" t="n">
-        <v>153.828749580974</v>
+        <v>70.94820947007285</v>
       </c>
       <c r="M39" t="n">
-        <v>146.1213620584276</v>
+        <v>114.1019229148603</v>
       </c>
       <c r="N39" t="n">
-        <v>101.2215325092894</v>
+        <v>133.2409716528566</v>
       </c>
       <c r="O39" t="n">
-        <v>68.51419372642015</v>
+        <v>151.3947338373213</v>
       </c>
       <c r="P39" t="n">
-        <v>74.5170305241549</v>
+        <v>157.397570635056</v>
       </c>
       <c r="Q39" t="n">
-        <v>183.1166323325361</v>
+        <v>100.2360922216349</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -10984,7 +10984,7 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L40" t="n">
-        <v>162.4747015415545</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M40" t="n">
         <v>178.5096609094456</v>
@@ -11060,22 +11060,22 @@
         <v>131.6542655994259</v>
       </c>
       <c r="K41" t="n">
-        <v>172.7438794814046</v>
+        <v>228.9451278654827</v>
       </c>
       <c r="L41" t="n">
-        <v>143.9315300967061</v>
+        <v>226.8120702076072</v>
       </c>
       <c r="M41" t="n">
-        <v>128.1622291178006</v>
+        <v>211.0427692287017</v>
       </c>
       <c r="N41" t="n">
-        <v>208.4561555814414</v>
+        <v>152.2549071973633</v>
       </c>
       <c r="O41" t="n">
-        <v>214.927993750524</v>
+        <v>132.0474536396228</v>
       </c>
       <c r="P41" t="n">
-        <v>230.4294825836339</v>
+        <v>147.5489424727328</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11136,25 +11136,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>97.42030488819117</v>
       </c>
       <c r="K42" t="n">
         <v>87.56255053286914</v>
       </c>
       <c r="L42" t="n">
-        <v>121.8093104374068</v>
+        <v>70.94820947007285</v>
       </c>
       <c r="M42" t="n">
-        <v>146.1213620584276</v>
+        <v>63.24082194752641</v>
       </c>
       <c r="N42" t="n">
-        <v>133.2409716528566</v>
+        <v>129.8922629615071</v>
       </c>
       <c r="O42" t="n">
-        <v>68.51419372642015</v>
+        <v>151.3947338373213</v>
       </c>
       <c r="P42" t="n">
-        <v>74.5170305241549</v>
+        <v>157.397570635056</v>
       </c>
       <c r="Q42" t="n">
         <v>183.1166323325361</v>
@@ -11221,7 +11221,7 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L43" t="n">
-        <v>162.4747015415544</v>
+        <v>162.4747015415545</v>
       </c>
       <c r="M43" t="n">
         <v>178.5096609094456</v>
@@ -23972,22 +23972,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>281.6818618910012</v>
       </c>
       <c r="E20" t="n">
-        <v>299.0498299613606</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>331.8402549434936</v>
+        <v>414.7207950543947</v>
       </c>
       <c r="H20" t="n">
-        <v>333.5149838897102</v>
+        <v>250.634443778809</v>
       </c>
       <c r="I20" t="n">
-        <v>105.1600127418128</v>
+        <v>188.040552852714</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,7 +24014,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>40.31249511198764</v>
+        <v>30.43313473076819</v>
       </c>
       <c r="S20" t="n">
         <v>195.7590557621249</v>
@@ -24035,7 +24035,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>303.3573985451525</v>
       </c>
     </row>
     <row r="21">
@@ -24051,22 +24051,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>64.56452545373762</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>67.86382569849061</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>54.15161038569735</v>
+        <v>137.0321504965985</v>
       </c>
       <c r="H21" t="n">
-        <v>26.34775763489372</v>
+        <v>109.2282977457949</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>78.67633314568958</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24102,16 +24102,16 @@
         <v>198.9097025254507</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9208974318556</v>
+        <v>143.0403573209545</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>149.9200470385241</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>132.7718054737958</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24124,13 +24124,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>96.95144007103616</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>84.3662809877267</v>
+        <v>94.24564136894612</v>
       </c>
       <c r="D22" t="n">
-        <v>75.61429328853065</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24178,7 +24178,7 @@
         <v>219.4673940256893</v>
       </c>
       <c r="T22" t="n">
-        <v>143.9496993511295</v>
+        <v>226.8302394620306</v>
       </c>
       <c r="U22" t="n">
         <v>286.3047908462834</v>
@@ -24187,13 +24187,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>203.6424582256899</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>142.829115278136</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>135.7041132411937</v>
       </c>
     </row>
     <row r="23">
@@ -24203,16 +24203,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>299.8533015525794</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>281.6818618910012</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>308.9291903425801</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -24221,7 +24221,7 @@
         <v>414.7207950543947</v>
       </c>
       <c r="H23" t="n">
-        <v>250.634443778809</v>
+        <v>333.5149838897102</v>
       </c>
       <c r="I23" t="n">
         <v>188.040552852714</v>
@@ -24254,10 +24254,10 @@
         <v>113.3136748416693</v>
       </c>
       <c r="S23" t="n">
-        <v>112.8785156512237</v>
+        <v>195.7590557621249</v>
       </c>
       <c r="T23" t="n">
-        <v>220.5483964422405</v>
+        <v>137.6678563313394</v>
       </c>
       <c r="U23" t="n">
         <v>251.2990975109773</v>
@@ -24266,10 +24266,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>266.3604286065118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>286.8505605675679</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24282,7 +24282,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>93.53200392018563</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
@@ -24294,7 +24294,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>70.01328050999828</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>137.0321504965985</v>
@@ -24330,28 +24330,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>80.82578795719726</v>
       </c>
       <c r="S24" t="n">
-        <v>83.01913172494338</v>
+        <v>165.8996718358445</v>
       </c>
       <c r="T24" t="n">
-        <v>198.9097025254507</v>
+        <v>116.0291624145495</v>
       </c>
       <c r="U24" t="n">
         <v>225.9208974318556</v>
       </c>
       <c r="V24" t="n">
-        <v>149.9200470385241</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>168.8144430500185</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>122.8021556664032</v>
       </c>
     </row>
     <row r="25">
@@ -24364,7 +24364,7 @@
         <v>96.95144007103616</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>94.24564136894612</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24385,7 +24385,7 @@
         <v>147.6003096328796</v>
       </c>
       <c r="J25" t="n">
-        <v>1.902518073090519</v>
+        <v>74.90369780277223</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>165.5561127961547</v>
       </c>
       <c r="S25" t="n">
-        <v>136.5868539147882</v>
+        <v>219.4673940256893</v>
       </c>
       <c r="T25" t="n">
         <v>226.8302394620306</v>
@@ -24430,7 +24430,7 @@
         <v>142.829115278136</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>135.7041132411937</v>
       </c>
     </row>
     <row r="26">
@@ -24449,19 +24449,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>299.0498299613606</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>323.9955056308103</v>
       </c>
       <c r="G26" t="n">
         <v>414.7207950543947</v>
       </c>
       <c r="H26" t="n">
-        <v>260.5138041600284</v>
+        <v>333.5149838897102</v>
       </c>
       <c r="I26" t="n">
-        <v>105.1600127418128</v>
+        <v>188.040552852714</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24488,7 +24488,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>113.3136748416693</v>
+        <v>30.43313473076819</v>
       </c>
       <c r="S26" t="n">
         <v>195.7590557621249</v>
@@ -24497,16 +24497,16 @@
         <v>220.5483964422405</v>
       </c>
       <c r="U26" t="n">
-        <v>168.4185574000761</v>
+        <v>251.2990975109773</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>276.2397889877313</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>286.8505605675679</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24519,7 +24519,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>83.6526435389662</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
@@ -24531,10 +24531,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>72.06803266370217</v>
       </c>
       <c r="G27" t="n">
-        <v>61.97621861321289</v>
+        <v>137.0321504965985</v>
       </c>
       <c r="H27" t="n">
         <v>109.2282977457949</v>
@@ -24567,25 +24567,25 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>80.82578795719726</v>
       </c>
       <c r="S27" t="n">
-        <v>83.01913172494338</v>
+        <v>165.8996718358445</v>
       </c>
       <c r="T27" t="n">
         <v>198.9097025254507</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9208974318556</v>
+        <v>143.0403573209545</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>149.9200470385241</v>
       </c>
       <c r="W27" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>122.8924450925763</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>96.95144007103616</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24622,7 +24622,7 @@
         <v>147.6003096328796</v>
       </c>
       <c r="J28" t="n">
-        <v>74.90369780277223</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24649,25 +24649,25 @@
         <v>165.5561127961547</v>
       </c>
       <c r="S28" t="n">
-        <v>219.4673940256893</v>
+        <v>138.4893719878787</v>
       </c>
       <c r="T28" t="n">
-        <v>226.8302394620306</v>
+        <v>143.9496993511295</v>
       </c>
       <c r="U28" t="n">
-        <v>286.3047908462834</v>
+        <v>203.4242507353823</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>213.5218186069093</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>142.829115278136</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>135.7041132411937</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24677,13 +24677,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>309.7326619337989</v>
+        <v>299.8533015525794</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>271.8025015097818</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24698,7 +24698,7 @@
         <v>333.5149838897102</v>
       </c>
       <c r="I29" t="n">
-        <v>105.1600127418128</v>
+        <v>188.040552852714</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,16 +24725,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>30.43313473076819</v>
+        <v>113.3136748416693</v>
       </c>
       <c r="S29" t="n">
         <v>195.7590557621249</v>
       </c>
       <c r="T29" t="n">
-        <v>220.5483964422405</v>
+        <v>137.6678563313394</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2990975109773</v>
+        <v>168.4185574000761</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24746,7 +24746,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>313.2367589263719</v>
       </c>
     </row>
     <row r="30">
@@ -24759,7 +24759,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>89.8279588774146</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -24771,13 +24771,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>137.0321504965985</v>
+        <v>64.03097076691678</v>
       </c>
       <c r="H30" t="n">
         <v>26.34775763489372</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>78.67633314568958</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24816,13 +24816,13 @@
         <v>225.9208974318556</v>
       </c>
       <c r="V30" t="n">
-        <v>155.595200454532</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>168.8144430500185</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>122.8924450925763</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24838,10 +24838,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>84.3662809877267</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>75.61429328853065</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24856,10 +24856,10 @@
         <v>159.9062953436239</v>
       </c>
       <c r="I31" t="n">
-        <v>64.71976952197846</v>
+        <v>147.6003096328796</v>
       </c>
       <c r="J31" t="n">
-        <v>1.902518073090519</v>
+        <v>74.90369780277223</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24898,13 +24898,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>203.6424582256899</v>
       </c>
       <c r="X31" t="n">
         <v>142.829115278136</v>
       </c>
       <c r="Y31" t="n">
-        <v>135.7041132411937</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24914,13 +24914,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>299.8533015525794</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>271.8025015097818</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -24929,7 +24929,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>414.7207950543947</v>
+        <v>341.719615324713</v>
       </c>
       <c r="H32" t="n">
         <v>333.5149838897102</v>
@@ -24965,25 +24965,25 @@
         <v>113.3136748416693</v>
       </c>
       <c r="S32" t="n">
-        <v>112.8785156512237</v>
+        <v>195.7590557621249</v>
       </c>
       <c r="T32" t="n">
-        <v>137.6678563313394</v>
+        <v>220.5483964422405</v>
       </c>
       <c r="U32" t="n">
-        <v>178.2979177812956</v>
+        <v>251.2990975109773</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>266.3604286065118</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>303.3573985451525</v>
       </c>
     </row>
     <row r="33">
@@ -24996,16 +24996,16 @@
         <v>83.6526435389662</v>
       </c>
       <c r="C33" t="n">
-        <v>99.70731925863403</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>64.56452545373762</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>62.18867228248274</v>
       </c>
       <c r="G33" t="n">
         <v>137.0321504965985</v>
@@ -25047,7 +25047,7 @@
         <v>165.8996718358445</v>
       </c>
       <c r="T33" t="n">
-        <v>198.9097025254507</v>
+        <v>125.908522795769</v>
       </c>
       <c r="U33" t="n">
         <v>225.9208974318556</v>
@@ -25056,13 +25056,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>168.8144430500185</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>122.8021556664032</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>96.95144007103616</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25084,7 +25084,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>62.54050791203011</v>
+        <v>72.41986829324954</v>
       </c>
       <c r="G34" t="n">
         <v>167.7299400046554</v>
@@ -25120,25 +25120,25 @@
         <v>64.30355699821131</v>
       </c>
       <c r="R34" t="n">
-        <v>165.5561127961547</v>
+        <v>82.67557268525354</v>
       </c>
       <c r="S34" t="n">
-        <v>219.4673940256893</v>
+        <v>136.5868539147882</v>
       </c>
       <c r="T34" t="n">
         <v>226.8302394620306</v>
       </c>
       <c r="U34" t="n">
-        <v>286.3047908462834</v>
+        <v>203.4242507353823</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>213.5218186069093</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>142.829115278136</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25166,7 +25166,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>331.8402549434936</v>
+        <v>414.7207950543947</v>
       </c>
       <c r="H35" t="n">
         <v>333.5149838897102</v>
@@ -25217,7 +25217,7 @@
         <v>266.3604286065118</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>286.8505605675679</v>
       </c>
       <c r="Y35" t="n">
         <v>303.3573985451525</v>
@@ -25236,7 +25236,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>72.38913368125316</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
@@ -25245,7 +25245,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>54.15161038569735</v>
+        <v>137.0321504965985</v>
       </c>
       <c r="H36" t="n">
         <v>109.2282977457949</v>
@@ -25278,7 +25278,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>80.82578795719726</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>165.8996718358445</v>
@@ -25290,16 +25290,16 @@
         <v>225.9208974318556</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>149.9200470385241</v>
       </c>
       <c r="W36" t="n">
-        <v>168.8144430500185</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
         <v>122.8924450925763</v>
       </c>
       <c r="Y36" t="n">
-        <v>132.6815160476227</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25309,10 +25309,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>96.95144007103616</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>94.24564136894612</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25330,10 +25330,10 @@
         <v>159.9062953436239</v>
       </c>
       <c r="I37" t="n">
-        <v>66.62228759506898</v>
+        <v>147.6003096328796</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>74.90369780277223</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25357,13 +25357,13 @@
         <v>64.30355699821131</v>
       </c>
       <c r="R37" t="n">
-        <v>82.67557268525354</v>
+        <v>165.5561127961547</v>
       </c>
       <c r="S37" t="n">
-        <v>219.4673940256893</v>
+        <v>136.5868539147882</v>
       </c>
       <c r="T37" t="n">
-        <v>226.8302394620306</v>
+        <v>143.9496993511295</v>
       </c>
       <c r="U37" t="n">
         <v>286.3047908462834</v>
@@ -25375,7 +25375,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>142.829115278136</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25388,19 +25388,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>299.8533015525794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>282.3923516601064</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>299.0498299613606</v>
       </c>
       <c r="F38" t="n">
-        <v>323.9955056308103</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>414.7207950543947</v>
@@ -25409,7 +25409,7 @@
         <v>333.5149838897102</v>
       </c>
       <c r="I38" t="n">
-        <v>188.040552852714</v>
+        <v>115.0393731230323</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25442,13 +25442,13 @@
         <v>195.7590557621249</v>
       </c>
       <c r="T38" t="n">
-        <v>147.5472167125588</v>
+        <v>220.5483964422405</v>
       </c>
       <c r="U38" t="n">
-        <v>168.4185574000761</v>
+        <v>251.2990975109773</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>244.8717183592338</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -25467,7 +25467,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>93.53200392018563</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>89.8279588774146</v>
@@ -25476,7 +25476,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>74.76454034449981</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
@@ -25488,7 +25488,7 @@
         <v>109.2282977457949</v>
       </c>
       <c r="I39" t="n">
-        <v>78.67633314568958</v>
+        <v>5.675153416007873</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25524,7 +25524,7 @@
         <v>198.9097025254507</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9208974318556</v>
+        <v>143.0403573209545</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -25533,10 +25533,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>122.8924450925763</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>122.8021556664032</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25646,7 +25646,7 @@
         <v>333.5149838897102</v>
       </c>
       <c r="I41" t="n">
-        <v>115.0393731230323</v>
+        <v>188.040552852714</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,13 +25673,13 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>113.3136748416693</v>
+        <v>30.43313473076819</v>
       </c>
       <c r="S41" t="n">
-        <v>195.7590557621249</v>
+        <v>112.8785156512237</v>
       </c>
       <c r="T41" t="n">
-        <v>220.5483964422405</v>
+        <v>137.6678563313394</v>
       </c>
       <c r="U41" t="n">
         <v>251.2990975109773</v>
@@ -25688,13 +25688,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>266.3604286065118</v>
+        <v>276.2397889877313</v>
       </c>
       <c r="X41" t="n">
-        <v>286.8505605675679</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>303.3573985451525</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25704,10 +25704,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>83.6526435389662</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>89.8279588774146</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25725,7 +25725,7 @@
         <v>109.2282977457949</v>
       </c>
       <c r="I42" t="n">
-        <v>5.675153416007873</v>
+        <v>78.67633314568958</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25755,7 +25755,7 @@
         <v>80.82578795719726</v>
       </c>
       <c r="S42" t="n">
-        <v>165.8996718358445</v>
+        <v>92.89849210616283</v>
       </c>
       <c r="T42" t="n">
         <v>198.9097025254507</v>
@@ -25767,10 +25767,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>168.8144430500185</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>122.8924450925763</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
         <v>122.8021556664032</v>
@@ -25783,10 +25783,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>96.95144007103616</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>84.3662809877267</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25795,10 +25795,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>72.41986829324954</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>84.84939989375422</v>
+        <v>167.7299400046554</v>
       </c>
       <c r="H43" t="n">
         <v>159.9062953436239</v>
@@ -25831,10 +25831,10 @@
         <v>64.30355699821131</v>
       </c>
       <c r="R43" t="n">
-        <v>82.67557268525354</v>
+        <v>165.5561127961547</v>
       </c>
       <c r="S43" t="n">
-        <v>136.5868539147882</v>
+        <v>219.4673940256893</v>
       </c>
       <c r="T43" t="n">
         <v>226.8302394620306</v>
@@ -25849,10 +25849,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>152.7084756593555</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>135.7041132411937</v>
       </c>
     </row>
     <row r="44">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>364753.173187055</v>
+        <v>364753.1731870549</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>364753.1731870549</v>
+        <v>364753.173187055</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>364753.1731870549</v>
+        <v>364753.173187055</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>364753.1731870552</v>
+        <v>364753.1731870549</v>
       </c>
     </row>
     <row r="16">
@@ -26317,7 +26317,7 @@
         <v>553011.5286340009</v>
       </c>
       <c r="D2" t="n">
-        <v>553011.5286340009</v>
+        <v>553011.528634001</v>
       </c>
       <c r="E2" t="n">
         <v>153374.3365786686</v>
@@ -26332,16 +26332,16 @@
         <v>185072.2345248167</v>
       </c>
       <c r="I2" t="n">
+        <v>185072.2345248166</v>
+      </c>
+      <c r="J2" t="n">
         <v>185072.2345248167</v>
-      </c>
-      <c r="J2" t="n">
-        <v>185072.2345248166</v>
       </c>
       <c r="K2" t="n">
         <v>185072.2345248167</v>
       </c>
       <c r="L2" t="n">
-        <v>185072.2345248167</v>
+        <v>185072.2345248166</v>
       </c>
       <c r="M2" t="n">
         <v>185072.2345248167</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>427717.1737329711</v>
+        <v>425523.1391661035</v>
       </c>
       <c r="C4" t="n">
-        <v>427717.1737329711</v>
+        <v>425523.1391661035</v>
       </c>
       <c r="D4" t="n">
-        <v>427717.1737329711</v>
+        <v>425523.1391661035</v>
       </c>
       <c r="E4" t="n">
-        <v>53457.09252212531</v>
+        <v>52041.00690483689</v>
       </c>
       <c r="F4" t="n">
-        <v>53457.09252212531</v>
+        <v>52041.00690483689</v>
       </c>
       <c r="G4" t="n">
-        <v>53457.09252212531</v>
+        <v>52041.00690483689</v>
       </c>
       <c r="H4" t="n">
-        <v>71985.37177128425</v>
+        <v>70080.3733742066</v>
       </c>
       <c r="I4" t="n">
-        <v>71985.37177128423</v>
+        <v>70080.3733742066</v>
       </c>
       <c r="J4" t="n">
-        <v>71985.37177128425</v>
+        <v>70080.37337420658</v>
       </c>
       <c r="K4" t="n">
-        <v>71985.37177128425</v>
+        <v>70080.3733742066</v>
       </c>
       <c r="L4" t="n">
-        <v>71985.37177128425</v>
+        <v>70080.3733742066</v>
       </c>
       <c r="M4" t="n">
-        <v>71985.37177128425</v>
+        <v>70080.3733742066</v>
       </c>
       <c r="N4" t="n">
-        <v>71985.37177128425</v>
+        <v>70080.3733742066</v>
       </c>
       <c r="O4" t="n">
-        <v>71985.37177128425</v>
+        <v>70080.3733742066</v>
       </c>
       <c r="P4" t="n">
-        <v>53457.09252212531</v>
+        <v>52041.00690483689</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>91666.75490102978</v>
+        <v>93860.78946789744</v>
       </c>
       <c r="C6" t="n">
-        <v>91666.75490102978</v>
+        <v>93860.78946789744</v>
       </c>
       <c r="D6" t="n">
-        <v>91666.75490102978</v>
+        <v>93860.78946789756</v>
       </c>
       <c r="E6" t="n">
-        <v>-19537.64622049648</v>
+        <v>-18121.56060320805</v>
       </c>
       <c r="F6" t="n">
-        <v>96761.51557756356</v>
+        <v>98177.601194852</v>
       </c>
       <c r="G6" t="n">
-        <v>96761.51557756356</v>
+        <v>98177.601194852</v>
       </c>
       <c r="H6" t="n">
-        <v>82530.08178902788</v>
+        <v>84435.08018610548</v>
       </c>
       <c r="I6" t="n">
-        <v>104891.99743581</v>
+        <v>106796.9958328876</v>
       </c>
       <c r="J6" t="n">
-        <v>104891.9974358099</v>
+        <v>106796.9958328876</v>
       </c>
       <c r="K6" t="n">
-        <v>104891.99743581</v>
+        <v>106796.9958328876</v>
       </c>
       <c r="L6" t="n">
-        <v>104891.9974358099</v>
+        <v>106796.9958328876</v>
       </c>
       <c r="M6" t="n">
-        <v>104891.99743581</v>
+        <v>106796.9958328876</v>
       </c>
       <c r="N6" t="n">
-        <v>104891.99743581</v>
+        <v>106796.9958328876</v>
       </c>
       <c r="O6" t="n">
-        <v>104891.9974358099</v>
+        <v>106796.9958328876</v>
       </c>
       <c r="P6" t="n">
-        <v>96761.51557756356</v>
+        <v>98177.601194852</v>
       </c>
     </row>
   </sheetData>
@@ -36118,25 +36118,25 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>37.44234957264789</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="M20" t="n">
-        <v>72.1174822650763</v>
+        <v>26.67929172682305</v>
       </c>
       <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
         <v>82.88054011090114</v>
-      </c>
-      <c r="O20" t="n">
-        <v>82.88054011090114</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>52.85253969272854</v>
@@ -36200,16 +36200,16 @@
         <v>28.67073045221766</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
         <v>50.86110096733393</v>
-      </c>
-      <c r="N21" t="n">
-        <v>82.88054011090114</v>
       </c>
       <c r="O21" t="n">
         <v>82.88054011090114</v>
@@ -36282,7 +36282,7 @@
         <v>8.058534916003335</v>
       </c>
       <c r="L22" t="n">
-        <v>66.39945791577836</v>
+        <v>66.39945791577834</v>
       </c>
       <c r="M22" t="n">
         <v>80.50298221304118</v>
@@ -36358,7 +36358,7 @@
         <v>37.44234957264789</v>
       </c>
       <c r="K23" t="n">
-        <v>82.88054011090114</v>
+        <v>72.1174822650763</v>
       </c>
       <c r="L23" t="n">
         <v>82.88054011090114</v>
@@ -36367,16 +36367,16 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="O23" t="n">
-        <v>42.08948184690371</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>52.85253969272854</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36434,16 +36434,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>28.67073045221766</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="L24" t="n">
-        <v>50.86110096733393</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>82.88054011090114</v>
@@ -36452,7 +36452,7 @@
         <v>82.88054011090114</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>79.53183141955158</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36595,10 +36595,10 @@
         <v>37.44234957264789</v>
       </c>
       <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
         <v>72.1174822650763</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>82.88054011090114</v>
@@ -36674,19 +36674,19 @@
         <v>28.67073045221766</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
         <v>50.86110096733393</v>
-      </c>
-      <c r="M27" t="n">
-        <v>82.88054011090114</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>82.88054011090114</v>
@@ -36829,22 +36829,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>37.44234957264789</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="L29" t="n">
-        <v>26.67929172682305</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="M29" t="n">
-        <v>82.88054011090114</v>
+        <v>72.11748226507632</v>
       </c>
       <c r="N29" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -36911,22 +36911,22 @@
         <v>28.67073045221766</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="M30" t="n">
-        <v>50.86110096733393</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="N30" t="n">
-        <v>82.88054011090114</v>
+        <v>50.86110096733396</v>
       </c>
       <c r="O30" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37069,7 +37069,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="L32" t="n">
         <v>82.88054011090114</v>
@@ -37078,16 +37078,16 @@
         <v>82.88054011090114</v>
       </c>
       <c r="N32" t="n">
-        <v>26.67929172682305</v>
+        <v>79.53183141955158</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>52.85253969272854</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37148,13 +37148,13 @@
         <v>28.67073045221766</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="L33" t="n">
-        <v>50.86110096733393</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="M33" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -37166,7 +37166,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>82.88054011090114</v>
+        <v>50.86110096733396</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37303,13 +37303,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>37.44234957264789</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>72.1174822650763</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>26.67929172682305</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -37388,22 +37388,22 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
         <v>50.86110096733393</v>
-      </c>
-      <c r="M36" t="n">
-        <v>82.88054011090114</v>
-      </c>
-      <c r="N36" t="n">
-        <v>82.88054011090114</v>
       </c>
       <c r="O36" t="n">
         <v>82.88054011090114</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37467,7 +37467,7 @@
         <v>8.058534916003335</v>
       </c>
       <c r="L37" t="n">
-        <v>66.39945791577836</v>
+        <v>66.39945791577834</v>
       </c>
       <c r="M37" t="n">
         <v>80.50298221304118</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>37.44234957264789</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -37549,16 +37549,16 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="N38" t="n">
-        <v>72.1174822650763</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="O38" t="n">
         <v>82.88054011090114</v>
       </c>
       <c r="P38" t="n">
-        <v>82.88054011090114</v>
+        <v>26.67929172682305</v>
       </c>
       <c r="Q38" t="n">
         <v>52.85253969272854</v>
@@ -37625,22 +37625,22 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>50.86110096733393</v>
+      </c>
+      <c r="N39" t="n">
         <v>82.88054011090114</v>
       </c>
-      <c r="M39" t="n">
+      <c r="O39" t="n">
         <v>82.88054011090114</v>
       </c>
-      <c r="N39" t="n">
-        <v>50.86110096733393</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="Q39" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37704,7 +37704,7 @@
         <v>8.058534916003335</v>
       </c>
       <c r="L40" t="n">
-        <v>66.39945791577836</v>
+        <v>66.39945791577834</v>
       </c>
       <c r="M40" t="n">
         <v>80.50298221304118</v>
@@ -37716,7 +37716,7 @@
         <v>61.48185403163332</v>
       </c>
       <c r="P40" t="n">
-        <v>28.8500825648977</v>
+        <v>28.85008256489769</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37780,22 +37780,22 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
+        <v>82.88054011090114</v>
+      </c>
+      <c r="L41" t="n">
+        <v>82.88054011090114</v>
+      </c>
+      <c r="M41" t="n">
+        <v>82.88054011090114</v>
+      </c>
+      <c r="N41" t="n">
         <v>26.67929172682305</v>
       </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>82.88054011090114</v>
-      </c>
       <c r="O41" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>52.85253969272854</v>
@@ -37856,25 +37856,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>28.67073045221766</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>50.86110096733393</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>79.53183141955158</v>
+      </c>
+      <c r="O42" t="n">
         <v>82.88054011090114</v>
       </c>
-      <c r="N42" t="n">
+      <c r="P42" t="n">
         <v>82.88054011090114</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
-      </c>
-      <c r="P42" t="n">
-        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>82.88054011090114</v>
@@ -37938,10 +37938,10 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>8.058534916003344</v>
+        <v>8.058534916003335</v>
       </c>
       <c r="L43" t="n">
-        <v>66.39945791577834</v>
+        <v>66.39945791577836</v>
       </c>
       <c r="M43" t="n">
         <v>80.50298221304118</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_15_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_15_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>750535.653999381</v>
+        <v>670170.6293175153</v>
       </c>
     </row>
     <row r="7">
@@ -2326,16 +2326,16 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
         <v>73.73075715809455</v>
       </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2365,19 +2365,19 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>83.70885235932626</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>83.70885235932626</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>83.70885235932626</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2399,7 +2399,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>73.73075715809455</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2444,16 +2444,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>80.5603238899909</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="T24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" t="n">
         <v>83.70885235932626</v>
-      </c>
-      <c r="U24" t="n">
-        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -2462,7 +2462,7 @@
         <v>83.70885235932626</v>
       </c>
       <c r="X24" t="n">
-        <v>76.87928562742989</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2484,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,25 +2523,25 @@
         <v>64.00340032544321</v>
       </c>
       <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
         <v>83.70885235932626</v>
       </c>
-      <c r="S25" t="n">
+      <c r="X25" t="n">
         <v>9.727356832651365</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>83.70885235932626</v>
-      </c>
-      <c r="V25" t="n">
-        <v>83.70885235932626</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0</v>
-      </c>
-      <c r="X25" t="n">
-        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>83.70885235932626</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>73.73075715809455</v>
+        <v>73.73075715809458</v>
       </c>
       <c r="W26" t="n">
         <v>83.70885235932626</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="Y26" t="n">
-        <v>83.70885235932626</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2681,16 +2681,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>80.5603238899909</v>
+        <v>73.73075715809458</v>
       </c>
       <c r="S27" t="n">
+        <v>0</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" t="n">
         <v>83.70885235932626</v>
-      </c>
-      <c r="T27" t="n">
-        <v>0</v>
-      </c>
-      <c r="U27" t="n">
-        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>83.70885235932626</v>
@@ -2699,7 +2699,7 @@
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>76.87928562742989</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>73.73075715809458</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>83.70885235932626</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>83.70885235932626</v>
@@ -2772,13 +2772,13 @@
         <v>83.70885235932626</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>73.73075715809455</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2800,61 +2800,61 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
         <v>83.70885235932626</v>
       </c>
-      <c r="F29" t="n">
+      <c r="G29" t="n">
         <v>73.73075715809455</v>
       </c>
-      <c r="G29" t="n">
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
         <v>83.70885235932626</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="W29" t="n">
-        <v>83.70885235932626</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2879,10 +2879,10 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>76.87928562742989</v>
+        <v>76.87928562742992</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2918,13 +2918,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>80.5603238899909</v>
+        <v>80.56032388999088</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="T30" t="n">
-        <v>83.70885235932626</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -2933,7 +2933,7 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>83.70885235932626</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -2949,26 +2949,26 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
         <v>73.73075715809455</v>
       </c>
-      <c r="D31" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>83.70885235932626</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3009,13 +3009,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" t="n">
         <v>83.70885235932626</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0</v>
-      </c>
-      <c r="X31" t="n">
-        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3031,19 +3031,19 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
         <v>83.70885235932626</v>
       </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>73.73075715809455</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3076,20 +3076,20 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
         <v>83.70885235932626</v>
       </c>
-      <c r="S32" t="n">
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
         <v>83.70885235932626</v>
       </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
@@ -3097,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>73.73075715809455</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3155,25 +3155,25 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>80.5603238899909</v>
+        <v>73.73075715809458</v>
       </c>
       <c r="S33" t="n">
-        <v>76.87928562742989</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="T33" t="n">
+        <v>0</v>
+      </c>
+      <c r="U33" t="n">
         <v>83.70885235932626</v>
       </c>
-      <c r="U33" t="n">
-        <v>0</v>
-      </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>83.70885235932626</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3231,28 +3231,28 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>64.00340032544321</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
       </c>
       <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>73.73075715809458</v>
+      </c>
+      <c r="W34" t="n">
         <v>83.70885235932626</v>
       </c>
-      <c r="T34" t="n">
-        <v>9.727356832651365</v>
-      </c>
-      <c r="U34" t="n">
+      <c r="X34" t="n">
         <v>83.70885235932626</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
-      </c>
-      <c r="X34" t="n">
-        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>83.70885235932626</v>
@@ -3280,10 +3280,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>73.73075715809455</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3313,13 +3313,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
         <v>83.70885235932626</v>
-      </c>
-      <c r="S35" t="n">
-        <v>73.73075715809455</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>83.70885235932626</v>
@@ -3328,7 +3328,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>83.70885235932626</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>73.73075715809458</v>
+        <v>80.56032388999088</v>
       </c>
       <c r="S36" t="n">
         <v>83.70885235932626</v>
@@ -3401,7 +3401,7 @@
         <v>83.70885235932626</v>
       </c>
       <c r="U36" t="n">
-        <v>83.70885235932626</v>
+        <v>76.87928562742992</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>9.727356832651365</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3468,28 +3468,28 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>64.00340032544321</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>73.73075715809458</v>
       </c>
       <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
         <v>83.70885235932626</v>
       </c>
-      <c r="T37" t="n">
-        <v>0</v>
-      </c>
       <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
         <v>83.70885235932626</v>
       </c>
-      <c r="V37" t="n">
+      <c r="X37" t="n">
         <v>83.70885235932626</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0</v>
-      </c>
-      <c r="X37" t="n">
-        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
         <v>83.70885235932626</v>
       </c>
-      <c r="C38" t="n">
-        <v>0</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>73.73075715809455</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3556,22 +3556,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y38" t="n">
         <v>83.70885235932626</v>
-      </c>
-      <c r="W38" t="n">
-        <v>83.70885235932626</v>
-      </c>
-      <c r="X38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>73.73075715809455</v>
       </c>
     </row>
     <row r="39">
@@ -3587,16 +3587,16 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>73.73075715809455</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3629,13 +3629,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>73.73075715809458</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>83.70885235932626</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>83.70885235932626</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -3647,7 +3647,7 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>83.70885235932626</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3660,23 +3660,23 @@
         </is>
       </c>
       <c r="B40" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
         <v>83.70885235932626</v>
       </c>
-      <c r="C40" t="n">
-        <v>0</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" t="n">
-        <v>83.70885235932626</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
@@ -3684,7 +3684,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>9.727356832651365</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3711,22 +3711,22 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
         <v>83.70885235932626</v>
       </c>
-      <c r="T40" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0</v>
-      </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="X40" t="n">
-        <v>9.727356832651365</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3739,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3751,11 +3751,11 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
         <v>83.70885235932626</v>
       </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
@@ -3787,19 +3787,19 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>83.70885235932626</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>73.73075715809455</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>73.73075715809458</v>
       </c>
       <c r="V41" t="n">
-        <v>83.70885235932626</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3824,70 +3824,70 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0</v>
+      </c>
+      <c r="R42" t="n">
         <v>73.73075715809458</v>
       </c>
-      <c r="E42" t="n">
+      <c r="S42" t="n">
         <v>83.70885235932626</v>
       </c>
-      <c r="F42" t="n">
+      <c r="T42" t="n">
+        <v>0</v>
+      </c>
+      <c r="U42" t="n">
+        <v>0</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="n">
+        <v>0</v>
+      </c>
+      <c r="X42" t="n">
         <v>83.70885235932626</v>
       </c>
-      <c r="G42" t="n">
+      <c r="Y42" t="n">
         <v>83.70885235932626</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
-      </c>
-      <c r="P42" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>0</v>
-      </c>
-      <c r="R42" t="n">
-        <v>0</v>
-      </c>
-      <c r="S42" t="n">
-        <v>0</v>
-      </c>
-      <c r="T42" t="n">
-        <v>0</v>
-      </c>
-      <c r="U42" t="n">
-        <v>0</v>
-      </c>
-      <c r="V42" t="n">
-        <v>0</v>
-      </c>
-      <c r="W42" t="n">
-        <v>0</v>
-      </c>
-      <c r="X42" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y42" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3912,49 +3912,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="H43" t="n">
         <v>83.70885235932626</v>
       </c>
       <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>73.73075715809458</v>
+      </c>
+      <c r="S43" t="n">
         <v>83.70885235932626</v>
       </c>
-      <c r="J43" t="n">
-        <v>74.65027054795544</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
-      </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>82.78933896946535</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3976,64 +3976,64 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
         <v>83.70885235932626</v>
       </c>
-      <c r="C44" t="n">
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
         <v>83.70885235932626</v>
       </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0</v>
-      </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>73.73075715809455</v>
       </c>
       <c r="U44" t="n">
-        <v>73.73075715809458</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4042,7 +4042,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>83.70885235932626</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4055,70 +4055,70 @@
         </is>
       </c>
       <c r="B45" t="n">
+        <v>0</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0</v>
+      </c>
+      <c r="R45" t="n">
+        <v>80.56032388999088</v>
+      </c>
+      <c r="S45" t="n">
         <v>83.70885235932626</v>
       </c>
-      <c r="C45" t="n">
-        <v>0</v>
-      </c>
-      <c r="D45" t="n">
-        <v>0</v>
-      </c>
-      <c r="E45" t="n">
+      <c r="T45" t="n">
         <v>83.70885235932626</v>
       </c>
-      <c r="F45" t="n">
-        <v>0</v>
-      </c>
-      <c r="G45" t="n">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>83.70885235932626</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P45" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>0</v>
-      </c>
-      <c r="R45" t="n">
-        <v>0</v>
-      </c>
-      <c r="S45" t="n">
-        <v>0</v>
-      </c>
-      <c r="T45" t="n">
-        <v>0</v>
-      </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>76.87928562742992</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>73.73075715809458</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4191,13 +4191,13 @@
         <v>83.70885235932626</v>
       </c>
       <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
         <v>83.70885235932626</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>81.17222046964969</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="C23" t="n">
-        <v>81.17222046964969</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="D23" t="n">
-        <v>81.17222046964969</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="E23" t="n">
-        <v>6.696708188746101</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="F23" t="n">
-        <v>6.696708188746101</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="G23" t="n">
-        <v>6.696708188746101</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="H23" t="n">
         <v>6.696708188746101</v>
@@ -5989,34 +5989,34 @@
         <v>6.696708188746101</v>
       </c>
       <c r="J23" t="n">
-        <v>6.696708188746101</v>
+        <v>44.43608870824591</v>
       </c>
       <c r="K23" t="n">
-        <v>89.56847202447909</v>
+        <v>44.43608870824591</v>
       </c>
       <c r="L23" t="n">
-        <v>89.56847202447909</v>
+        <v>44.43608870824591</v>
       </c>
       <c r="M23" t="n">
-        <v>115.9135453040444</v>
+        <v>127.3078525439789</v>
       </c>
       <c r="N23" t="n">
-        <v>198.7853091397774</v>
+        <v>210.1796163797119</v>
       </c>
       <c r="O23" t="n">
-        <v>198.7853091397774</v>
+        <v>293.0513802154449</v>
       </c>
       <c r="P23" t="n">
-        <v>281.6570729755103</v>
+        <v>334.835409437305</v>
       </c>
       <c r="Q23" t="n">
         <v>334.835409437305</v>
       </c>
       <c r="R23" t="n">
+        <v>334.835409437305</v>
+      </c>
+      <c r="S23" t="n">
         <v>250.2810131147533</v>
-      </c>
-      <c r="S23" t="n">
-        <v>165.7266167922015</v>
       </c>
       <c r="T23" t="n">
         <v>165.7266167922015</v>
@@ -6025,16 +6025,16 @@
         <v>165.7266167922015</v>
       </c>
       <c r="V23" t="n">
-        <v>81.17222046964969</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="W23" t="n">
-        <v>81.17222046964969</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="X23" t="n">
-        <v>81.17222046964969</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="Y23" t="n">
-        <v>81.17222046964969</v>
+        <v>165.7266167922015</v>
       </c>
     </row>
     <row r="24">
@@ -6044,7 +6044,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>6.696708188746101</v>
+        <v>81.17222046964969</v>
       </c>
       <c r="C24" t="n">
         <v>6.696708188746101</v>
@@ -6068,52 +6068,52 @@
         <v>6.696708188746101</v>
       </c>
       <c r="J24" t="n">
-        <v>35.48064500251784</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="K24" t="n">
-        <v>35.48064500251784</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="L24" t="n">
-        <v>35.48064500251784</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="M24" t="n">
-        <v>86.22011793010606</v>
+        <v>89.56847202447909</v>
       </c>
       <c r="N24" t="n">
-        <v>169.091881765839</v>
+        <v>172.4402358602121</v>
       </c>
       <c r="O24" t="n">
-        <v>251.963645601572</v>
+        <v>255.3119996959451</v>
       </c>
       <c r="P24" t="n">
-        <v>251.963645601572</v>
+        <v>334.835409437305</v>
       </c>
       <c r="Q24" t="n">
         <v>334.835409437305</v>
       </c>
       <c r="R24" t="n">
-        <v>253.4613449019607</v>
+        <v>334.835409437305</v>
       </c>
       <c r="S24" t="n">
-        <v>253.4613449019607</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="T24" t="n">
-        <v>168.9069485794089</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="U24" t="n">
-        <v>168.9069485794089</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="V24" t="n">
-        <v>168.9069485794089</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="W24" t="n">
-        <v>84.35255225685711</v>
+        <v>81.17222046964969</v>
       </c>
       <c r="X24" t="n">
-        <v>6.696708188746101</v>
+        <v>81.17222046964969</v>
       </c>
       <c r="Y24" t="n">
-        <v>6.696708188746101</v>
+        <v>81.17222046964969</v>
       </c>
     </row>
     <row r="25">
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>6.696708188746101</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="C25" t="n">
-        <v>6.696708188746101</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="D25" t="n">
-        <v>6.696708188746101</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="E25" t="n">
-        <v>6.696708188746101</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="F25" t="n">
-        <v>6.696708188746101</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="G25" t="n">
-        <v>6.696708188746101</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="H25" t="n">
         <v>6.696708188746101</v>
@@ -6159,7 +6159,7 @@
         <v>161.6042370215895</v>
       </c>
       <c r="N25" t="n">
-        <v>244.4760008573226</v>
+        <v>244.4760008573225</v>
       </c>
       <c r="O25" t="n">
         <v>305.8446287478054</v>
@@ -6171,28 +6171,28 @@
         <v>270.1855101186756</v>
       </c>
       <c r="R25" t="n">
+        <v>270.1855101186756</v>
+      </c>
+      <c r="S25" t="n">
+        <v>270.1855101186756</v>
+      </c>
+      <c r="T25" t="n">
+        <v>270.1855101186756</v>
+      </c>
+      <c r="U25" t="n">
+        <v>270.1855101186756</v>
+      </c>
+      <c r="V25" t="n">
+        <v>270.1855101186756</v>
+      </c>
+      <c r="W25" t="n">
         <v>185.6311137961238</v>
       </c>
-      <c r="S25" t="n">
+      <c r="X25" t="n">
         <v>175.8055008338497</v>
       </c>
-      <c r="T25" t="n">
+      <c r="Y25" t="n">
         <v>175.8055008338497</v>
-      </c>
-      <c r="U25" t="n">
-        <v>91.25110451129788</v>
-      </c>
-      <c r="V25" t="n">
-        <v>6.696708188746101</v>
-      </c>
-      <c r="W25" t="n">
-        <v>6.696708188746101</v>
-      </c>
-      <c r="X25" t="n">
-        <v>6.696708188746101</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>6.696708188746101</v>
       </c>
     </row>
     <row r="26">
@@ -6226,22 +6226,22 @@
         <v>6.696708188746101</v>
       </c>
       <c r="J26" t="n">
-        <v>44.4360887082459</v>
+        <v>44.43608870824591</v>
       </c>
       <c r="K26" t="n">
-        <v>44.4360887082459</v>
+        <v>44.43608870824591</v>
       </c>
       <c r="L26" t="n">
-        <v>44.4360887082459</v>
+        <v>44.43608870824591</v>
       </c>
       <c r="M26" t="n">
-        <v>115.9135453040444</v>
+        <v>127.3078525439789</v>
       </c>
       <c r="N26" t="n">
-        <v>115.9135453040444</v>
+        <v>198.7853091397773</v>
       </c>
       <c r="O26" t="n">
-        <v>198.7853091397774</v>
+        <v>281.6570729755103</v>
       </c>
       <c r="P26" t="n">
         <v>281.6570729755103</v>
@@ -6256,22 +6256,22 @@
         <v>334.835409437305</v>
       </c>
       <c r="T26" t="n">
-        <v>250.2810131147533</v>
+        <v>334.835409437305</v>
       </c>
       <c r="U26" t="n">
-        <v>250.2810131147533</v>
+        <v>334.835409437305</v>
       </c>
       <c r="V26" t="n">
+        <v>260.3598971564014</v>
+      </c>
+      <c r="W26" t="n">
         <v>175.8055008338497</v>
-      </c>
-      <c r="W26" t="n">
-        <v>91.25110451129788</v>
       </c>
       <c r="X26" t="n">
         <v>91.25110451129788</v>
       </c>
       <c r="Y26" t="n">
-        <v>6.696708188746101</v>
+        <v>91.25110451129788</v>
       </c>
     </row>
     <row r="27">
@@ -6311,40 +6311,40 @@
         <v>6.696708188746101</v>
       </c>
       <c r="L27" t="n">
-        <v>6.696708188746101</v>
+        <v>86.22011793010606</v>
       </c>
       <c r="M27" t="n">
-        <v>89.56847202447909</v>
+        <v>169.091881765839</v>
       </c>
       <c r="N27" t="n">
-        <v>172.4402358602121</v>
+        <v>251.963645601572</v>
       </c>
       <c r="O27" t="n">
-        <v>172.4402358602121</v>
+        <v>334.835409437305</v>
       </c>
       <c r="P27" t="n">
-        <v>251.963645601572</v>
+        <v>334.835409437305</v>
       </c>
       <c r="Q27" t="n">
         <v>334.835409437305</v>
       </c>
       <c r="R27" t="n">
-        <v>253.4613449019607</v>
+        <v>260.3598971564014</v>
       </c>
       <c r="S27" t="n">
-        <v>168.9069485794089</v>
+        <v>260.3598971564014</v>
       </c>
       <c r="T27" t="n">
-        <v>168.9069485794089</v>
+        <v>260.3598971564014</v>
       </c>
       <c r="U27" t="n">
-        <v>168.9069485794089</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="V27" t="n">
-        <v>84.35255225685711</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="W27" t="n">
-        <v>84.35255225685711</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="X27" t="n">
         <v>6.696708188746101</v>
@@ -6387,7 +6387,7 @@
         <v>6.696708188746101</v>
       </c>
       <c r="K28" t="n">
-        <v>15.08695199673547</v>
+        <v>15.08695199673548</v>
       </c>
       <c r="L28" t="n">
         <v>81.35001001408396</v>
@@ -6408,22 +6408,22 @@
         <v>334.835409437305</v>
       </c>
       <c r="R28" t="n">
-        <v>260.3598971564014</v>
+        <v>334.835409437305</v>
       </c>
       <c r="S28" t="n">
-        <v>175.8055008338497</v>
+        <v>334.835409437305</v>
       </c>
       <c r="T28" t="n">
-        <v>91.25110451129788</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="U28" t="n">
-        <v>6.696708188746101</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="V28" t="n">
-        <v>6.696708188746101</v>
+        <v>81.17222046964969</v>
       </c>
       <c r="W28" t="n">
-        <v>6.696708188746101</v>
+        <v>81.17222046964969</v>
       </c>
       <c r="X28" t="n">
         <v>6.696708188746101</v>
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>250.2810131147533</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="C29" t="n">
-        <v>250.2810131147533</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="D29" t="n">
-        <v>250.2810131147533</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="E29" t="n">
         <v>165.7266167922015</v>
       </c>
       <c r="F29" t="n">
-        <v>91.25110451129788</v>
+        <v>81.17222046964969</v>
       </c>
       <c r="G29" t="n">
         <v>6.696708188746101</v>
@@ -6466,22 +6466,22 @@
         <v>6.696708188746101</v>
       </c>
       <c r="K29" t="n">
-        <v>33.04178146831137</v>
+        <v>89.56847202447909</v>
       </c>
       <c r="L29" t="n">
-        <v>115.9135453040444</v>
+        <v>172.4402358602121</v>
       </c>
       <c r="M29" t="n">
-        <v>115.9135453040444</v>
+        <v>172.4402358602121</v>
       </c>
       <c r="N29" t="n">
-        <v>115.9135453040444</v>
+        <v>251.963645601572</v>
       </c>
       <c r="O29" t="n">
-        <v>198.7853091397774</v>
+        <v>334.835409437305</v>
       </c>
       <c r="P29" t="n">
-        <v>281.6570729755103</v>
+        <v>334.835409437305</v>
       </c>
       <c r="Q29" t="n">
         <v>334.835409437305</v>
@@ -6496,19 +6496,19 @@
         <v>334.835409437305</v>
       </c>
       <c r="U29" t="n">
-        <v>334.835409437305</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="V29" t="n">
-        <v>334.835409437305</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="W29" t="n">
-        <v>250.2810131147533</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="X29" t="n">
-        <v>250.2810131147533</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="Y29" t="n">
-        <v>250.2810131147533</v>
+        <v>165.7266167922015</v>
       </c>
     </row>
     <row r="30">
@@ -6518,16 +6518,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>84.35255225685711</v>
+        <v>168.9069485794089</v>
       </c>
       <c r="C30" t="n">
-        <v>84.35255225685711</v>
+        <v>168.9069485794089</v>
       </c>
       <c r="D30" t="n">
-        <v>84.35255225685711</v>
+        <v>168.9069485794089</v>
       </c>
       <c r="E30" t="n">
-        <v>6.696708188746101</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="F30" t="n">
         <v>6.696708188746101</v>
@@ -6548,19 +6548,19 @@
         <v>6.696708188746101</v>
       </c>
       <c r="L30" t="n">
-        <v>86.22011793010606</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="M30" t="n">
-        <v>86.22011793010606</v>
+        <v>89.56847202447909</v>
       </c>
       <c r="N30" t="n">
-        <v>169.091881765839</v>
+        <v>172.4402358602121</v>
       </c>
       <c r="O30" t="n">
-        <v>251.963645601572</v>
+        <v>255.3119996959451</v>
       </c>
       <c r="P30" t="n">
-        <v>251.963645601572</v>
+        <v>255.3119996959451</v>
       </c>
       <c r="Q30" t="n">
         <v>334.835409437305</v>
@@ -6569,7 +6569,7 @@
         <v>253.4613449019607</v>
       </c>
       <c r="S30" t="n">
-        <v>253.4613449019607</v>
+        <v>168.9069485794089</v>
       </c>
       <c r="T30" t="n">
         <v>168.9069485794089</v>
@@ -6581,13 +6581,13 @@
         <v>168.9069485794089</v>
       </c>
       <c r="W30" t="n">
-        <v>84.35255225685711</v>
+        <v>168.9069485794089</v>
       </c>
       <c r="X30" t="n">
-        <v>84.35255225685711</v>
+        <v>168.9069485794089</v>
       </c>
       <c r="Y30" t="n">
-        <v>84.35255225685711</v>
+        <v>168.9069485794089</v>
       </c>
     </row>
     <row r="31">
@@ -6600,19 +6600,19 @@
         <v>81.17222046964969</v>
       </c>
       <c r="C31" t="n">
-        <v>6.696708188746101</v>
+        <v>81.17222046964969</v>
       </c>
       <c r="D31" t="n">
-        <v>6.696708188746101</v>
+        <v>81.17222046964969</v>
       </c>
       <c r="E31" t="n">
-        <v>6.696708188746101</v>
+        <v>81.17222046964969</v>
       </c>
       <c r="F31" t="n">
-        <v>6.696708188746101</v>
+        <v>81.17222046964969</v>
       </c>
       <c r="G31" t="n">
-        <v>6.696708188746101</v>
+        <v>81.17222046964969</v>
       </c>
       <c r="H31" t="n">
         <v>6.696708188746101</v>
@@ -6624,16 +6624,16 @@
         <v>6.696708188746101</v>
       </c>
       <c r="K31" t="n">
-        <v>15.08695199673551</v>
+        <v>15.08695199673548</v>
       </c>
       <c r="L31" t="n">
-        <v>81.35001001408399</v>
+        <v>81.35001001408396</v>
       </c>
       <c r="M31" t="n">
-        <v>161.6042370215896</v>
+        <v>161.6042370215895</v>
       </c>
       <c r="N31" t="n">
-        <v>244.4760008573226</v>
+        <v>244.4760008573225</v>
       </c>
       <c r="O31" t="n">
         <v>305.8446287478054</v>
@@ -6645,28 +6645,28 @@
         <v>334.835409437305</v>
       </c>
       <c r="R31" t="n">
+        <v>334.835409437305</v>
+      </c>
+      <c r="S31" t="n">
+        <v>334.835409437305</v>
+      </c>
+      <c r="T31" t="n">
         <v>250.2810131147533</v>
       </c>
-      <c r="S31" t="n">
+      <c r="U31" t="n">
         <v>250.2810131147533</v>
       </c>
-      <c r="T31" t="n">
+      <c r="V31" t="n">
+        <v>250.2810131147533</v>
+      </c>
+      <c r="W31" t="n">
+        <v>250.2810131147533</v>
+      </c>
+      <c r="X31" t="n">
         <v>165.7266167922015</v>
       </c>
-      <c r="U31" t="n">
+      <c r="Y31" t="n">
         <v>165.7266167922015</v>
-      </c>
-      <c r="V31" t="n">
-        <v>81.17222046964969</v>
-      </c>
-      <c r="W31" t="n">
-        <v>81.17222046964969</v>
-      </c>
-      <c r="X31" t="n">
-        <v>81.17222046964969</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>81.17222046964969</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>91.25110451129788</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="C32" t="n">
-        <v>6.696708188746101</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="D32" t="n">
-        <v>6.696708188746101</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="E32" t="n">
-        <v>6.696708188746101</v>
+        <v>81.17222046964969</v>
       </c>
       <c r="F32" t="n">
-        <v>6.696708188746101</v>
+        <v>81.17222046964969</v>
       </c>
       <c r="G32" t="n">
         <v>6.696708188746101</v>
@@ -6700,10 +6700,10 @@
         <v>6.696708188746101</v>
       </c>
       <c r="J32" t="n">
-        <v>44.4360887082459</v>
+        <v>44.43608870824591</v>
       </c>
       <c r="K32" t="n">
-        <v>127.3078525439789</v>
+        <v>44.43608870824591</v>
       </c>
       <c r="L32" t="n">
         <v>127.3078525439789</v>
@@ -6712,28 +6712,28 @@
         <v>127.3078525439789</v>
       </c>
       <c r="N32" t="n">
-        <v>198.7853091397774</v>
+        <v>210.1796163797119</v>
       </c>
       <c r="O32" t="n">
-        <v>198.7853091397774</v>
+        <v>293.0513802154449</v>
       </c>
       <c r="P32" t="n">
-        <v>281.6570729755103</v>
+        <v>334.835409437305</v>
       </c>
       <c r="Q32" t="n">
         <v>334.835409437305</v>
       </c>
       <c r="R32" t="n">
+        <v>334.835409437305</v>
+      </c>
+      <c r="S32" t="n">
+        <v>334.835409437305</v>
+      </c>
+      <c r="T32" t="n">
         <v>250.2810131147533</v>
       </c>
-      <c r="S32" t="n">
-        <v>165.7266167922015</v>
-      </c>
-      <c r="T32" t="n">
-        <v>165.7266167922015</v>
-      </c>
       <c r="U32" t="n">
-        <v>165.7266167922015</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="V32" t="n">
         <v>165.7266167922015</v>
@@ -6745,7 +6745,7 @@
         <v>165.7266167922015</v>
       </c>
       <c r="Y32" t="n">
-        <v>91.25110451129788</v>
+        <v>165.7266167922015</v>
       </c>
     </row>
     <row r="33">
@@ -6782,43 +6782,43 @@
         <v>6.696708188746101</v>
       </c>
       <c r="K33" t="n">
-        <v>86.22011793010606</v>
+        <v>89.56847202447909</v>
       </c>
       <c r="L33" t="n">
-        <v>86.22011793010606</v>
+        <v>172.4402358602121</v>
       </c>
       <c r="M33" t="n">
-        <v>86.22011793010606</v>
+        <v>255.3119996959451</v>
       </c>
       <c r="N33" t="n">
-        <v>169.091881765839</v>
+        <v>255.3119996959451</v>
       </c>
       <c r="O33" t="n">
-        <v>169.091881765839</v>
+        <v>255.3119996959451</v>
       </c>
       <c r="P33" t="n">
-        <v>251.963645601572</v>
+        <v>334.835409437305</v>
       </c>
       <c r="Q33" t="n">
         <v>334.835409437305</v>
       </c>
       <c r="R33" t="n">
-        <v>253.4613449019607</v>
+        <v>260.3598971564014</v>
       </c>
       <c r="S33" t="n">
         <v>175.8055008338497</v>
       </c>
       <c r="T33" t="n">
-        <v>91.25110451129788</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="U33" t="n">
         <v>91.25110451129788</v>
       </c>
       <c r="V33" t="n">
-        <v>91.25110451129788</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="W33" t="n">
-        <v>91.25110451129788</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="X33" t="n">
         <v>6.696708188746101</v>
@@ -6861,16 +6861,16 @@
         <v>6.696708188746101</v>
       </c>
       <c r="K34" t="n">
-        <v>15.08695199673547</v>
+        <v>15.08695199673548</v>
       </c>
       <c r="L34" t="n">
-        <v>81.35001001408399</v>
+        <v>81.35001001408396</v>
       </c>
       <c r="M34" t="n">
-        <v>161.6042370215896</v>
+        <v>161.6042370215895</v>
       </c>
       <c r="N34" t="n">
-        <v>244.4760008573226</v>
+        <v>244.4760008573225</v>
       </c>
       <c r="O34" t="n">
         <v>305.8446287478054</v>
@@ -6879,25 +6879,25 @@
         <v>334.835409437305</v>
       </c>
       <c r="Q34" t="n">
-        <v>270.1855101186756</v>
+        <v>334.835409437305</v>
       </c>
       <c r="R34" t="n">
-        <v>270.1855101186756</v>
+        <v>334.835409437305</v>
       </c>
       <c r="S34" t="n">
-        <v>185.6311137961238</v>
+        <v>334.835409437305</v>
       </c>
       <c r="T34" t="n">
+        <v>334.835409437305</v>
+      </c>
+      <c r="U34" t="n">
+        <v>334.835409437305</v>
+      </c>
+      <c r="V34" t="n">
+        <v>260.3598971564014</v>
+      </c>
+      <c r="W34" t="n">
         <v>175.8055008338497</v>
-      </c>
-      <c r="U34" t="n">
-        <v>91.25110451129788</v>
-      </c>
-      <c r="V34" t="n">
-        <v>91.25110451129788</v>
-      </c>
-      <c r="W34" t="n">
-        <v>91.25110451129788</v>
       </c>
       <c r="X34" t="n">
         <v>91.25110451129788</v>
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>6.696708188746101</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="C35" t="n">
-        <v>6.696708188746101</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="D35" t="n">
-        <v>6.696708188746101</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="E35" t="n">
-        <v>6.696708188746101</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="F35" t="n">
-        <v>6.696708188746101</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="G35" t="n">
-        <v>6.696708188746101</v>
+        <v>81.17222046964969</v>
       </c>
       <c r="H35" t="n">
         <v>6.696708188746101</v>
@@ -6937,52 +6937,52 @@
         <v>6.696708188746101</v>
       </c>
       <c r="J35" t="n">
-        <v>44.4360887082459</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="K35" t="n">
-        <v>127.3078525439789</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="L35" t="n">
-        <v>198.7853091397774</v>
+        <v>89.56847202447909</v>
       </c>
       <c r="M35" t="n">
-        <v>198.7853091397774</v>
+        <v>172.4402358602121</v>
       </c>
       <c r="N35" t="n">
-        <v>198.7853091397774</v>
+        <v>255.3119996959451</v>
       </c>
       <c r="O35" t="n">
-        <v>198.7853091397774</v>
+        <v>334.835409437305</v>
       </c>
       <c r="P35" t="n">
-        <v>281.6570729755103</v>
+        <v>334.835409437305</v>
       </c>
       <c r="Q35" t="n">
         <v>334.835409437305</v>
       </c>
       <c r="R35" t="n">
+        <v>334.835409437305</v>
+      </c>
+      <c r="S35" t="n">
+        <v>334.835409437305</v>
+      </c>
+      <c r="T35" t="n">
         <v>250.2810131147533</v>
       </c>
-      <c r="S35" t="n">
-        <v>175.8055008338497</v>
-      </c>
-      <c r="T35" t="n">
-        <v>175.8055008338497</v>
-      </c>
       <c r="U35" t="n">
-        <v>91.25110451129788</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="V35" t="n">
-        <v>91.25110451129788</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="W35" t="n">
-        <v>6.696708188746101</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="X35" t="n">
-        <v>6.696708188746101</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="Y35" t="n">
-        <v>6.696708188746101</v>
+        <v>165.7266167922015</v>
       </c>
     </row>
     <row r="36">
@@ -7022,16 +7022,16 @@
         <v>6.696708188746101</v>
       </c>
       <c r="L36" t="n">
-        <v>89.56847202447909</v>
+        <v>86.22011793010606</v>
       </c>
       <c r="M36" t="n">
-        <v>172.4402358602121</v>
+        <v>169.091881765839</v>
       </c>
       <c r="N36" t="n">
-        <v>172.4402358602121</v>
+        <v>251.963645601572</v>
       </c>
       <c r="O36" t="n">
-        <v>172.4402358602121</v>
+        <v>251.963645601572</v>
       </c>
       <c r="P36" t="n">
         <v>251.963645601572</v>
@@ -7040,13 +7040,13 @@
         <v>334.835409437305</v>
       </c>
       <c r="R36" t="n">
-        <v>260.3598971564014</v>
+        <v>253.4613449019607</v>
       </c>
       <c r="S36" t="n">
-        <v>175.8055008338497</v>
+        <v>168.9069485794089</v>
       </c>
       <c r="T36" t="n">
-        <v>91.25110451129788</v>
+        <v>84.35255225685714</v>
       </c>
       <c r="U36" t="n">
         <v>6.696708188746101</v>
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>16.52232115102021</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="C37" t="n">
         <v>6.696708188746101</v>
@@ -7098,10 +7098,10 @@
         <v>6.696708188746101</v>
       </c>
       <c r="K37" t="n">
-        <v>15.08695199673547</v>
+        <v>15.08695199673545</v>
       </c>
       <c r="L37" t="n">
-        <v>81.35001001408396</v>
+        <v>81.35001001408395</v>
       </c>
       <c r="M37" t="n">
         <v>161.6042370215895</v>
@@ -7116,31 +7116,31 @@
         <v>334.835409437305</v>
       </c>
       <c r="Q37" t="n">
-        <v>270.1855101186756</v>
+        <v>334.835409437305</v>
       </c>
       <c r="R37" t="n">
-        <v>270.1855101186756</v>
+        <v>260.3598971564014</v>
       </c>
       <c r="S37" t="n">
-        <v>185.6311137961238</v>
+        <v>260.3598971564014</v>
       </c>
       <c r="T37" t="n">
-        <v>185.6311137961238</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="U37" t="n">
-        <v>101.076717473572</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="V37" t="n">
-        <v>16.52232115102021</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="W37" t="n">
-        <v>16.52232115102021</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="X37" t="n">
-        <v>16.52232115102021</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="Y37" t="n">
-        <v>16.52232115102021</v>
+        <v>6.696708188746101</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>6.696708188746101</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="C38" t="n">
-        <v>6.696708188746101</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="D38" t="n">
-        <v>6.696708188746101</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="E38" t="n">
-        <v>6.696708188746101</v>
+        <v>81.17222046964969</v>
       </c>
       <c r="F38" t="n">
-        <v>6.696708188746101</v>
+        <v>81.17222046964969</v>
       </c>
       <c r="G38" t="n">
         <v>6.696708188746101</v>
@@ -7174,25 +7174,25 @@
         <v>6.696708188746101</v>
       </c>
       <c r="J38" t="n">
-        <v>33.04178146831137</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="K38" t="n">
-        <v>33.04178146831137</v>
+        <v>86.22011793010606</v>
       </c>
       <c r="L38" t="n">
-        <v>115.9135453040444</v>
+        <v>169.091881765839</v>
       </c>
       <c r="M38" t="n">
-        <v>115.9135453040444</v>
+        <v>251.963645601572</v>
       </c>
       <c r="N38" t="n">
-        <v>198.7853091397774</v>
+        <v>334.835409437305</v>
       </c>
       <c r="O38" t="n">
-        <v>281.6570729755103</v>
+        <v>334.835409437305</v>
       </c>
       <c r="P38" t="n">
-        <v>281.6570729755103</v>
+        <v>334.835409437305</v>
       </c>
       <c r="Q38" t="n">
         <v>334.835409437305</v>
@@ -7204,22 +7204,22 @@
         <v>334.835409437305</v>
       </c>
       <c r="T38" t="n">
-        <v>334.835409437305</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="U38" t="n">
-        <v>334.835409437305</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="V38" t="n">
         <v>250.2810131147533</v>
       </c>
       <c r="W38" t="n">
+        <v>250.2810131147533</v>
+      </c>
+      <c r="X38" t="n">
+        <v>250.2810131147533</v>
+      </c>
+      <c r="Y38" t="n">
         <v>165.7266167922015</v>
-      </c>
-      <c r="X38" t="n">
-        <v>165.7266167922015</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>91.25110451129788</v>
       </c>
     </row>
     <row r="39">
@@ -7229,19 +7229,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>6.696708188746101</v>
+        <v>334.835409437305</v>
       </c>
       <c r="C39" t="n">
-        <v>6.696708188746101</v>
+        <v>334.835409437305</v>
       </c>
       <c r="D39" t="n">
-        <v>6.696708188746101</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="E39" t="n">
-        <v>6.696708188746101</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="F39" t="n">
-        <v>6.696708188746101</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="G39" t="n">
         <v>6.696708188746101</v>
@@ -7253,52 +7253,52 @@
         <v>6.696708188746101</v>
       </c>
       <c r="J39" t="n">
-        <v>6.696708188746101</v>
+        <v>35.48064500251785</v>
       </c>
       <c r="K39" t="n">
-        <v>6.696708188746101</v>
+        <v>86.22011793010606</v>
       </c>
       <c r="L39" t="n">
-        <v>89.56847202447909</v>
+        <v>169.091881765839</v>
       </c>
       <c r="M39" t="n">
-        <v>89.56847202447909</v>
+        <v>251.963645601572</v>
       </c>
       <c r="N39" t="n">
-        <v>169.091881765839</v>
+        <v>251.963645601572</v>
       </c>
       <c r="O39" t="n">
         <v>251.963645601572</v>
       </c>
       <c r="P39" t="n">
-        <v>334.835409437305</v>
+        <v>251.963645601572</v>
       </c>
       <c r="Q39" t="n">
         <v>334.835409437305</v>
       </c>
       <c r="R39" t="n">
-        <v>260.3598971564014</v>
+        <v>334.835409437305</v>
       </c>
       <c r="S39" t="n">
-        <v>175.8055008338497</v>
+        <v>334.835409437305</v>
       </c>
       <c r="T39" t="n">
-        <v>91.25110451129788</v>
+        <v>334.835409437305</v>
       </c>
       <c r="U39" t="n">
-        <v>91.25110451129788</v>
+        <v>334.835409437305</v>
       </c>
       <c r="V39" t="n">
-        <v>91.25110451129788</v>
+        <v>334.835409437305</v>
       </c>
       <c r="W39" t="n">
-        <v>91.25110451129788</v>
+        <v>334.835409437305</v>
       </c>
       <c r="X39" t="n">
-        <v>6.696708188746101</v>
+        <v>334.835409437305</v>
       </c>
       <c r="Y39" t="n">
-        <v>6.696708188746101</v>
+        <v>334.835409437305</v>
       </c>
     </row>
     <row r="40">
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>91.25110451129788</v>
+        <v>101.076717473572</v>
       </c>
       <c r="C40" t="n">
-        <v>91.25110451129788</v>
+        <v>101.076717473572</v>
       </c>
       <c r="D40" t="n">
-        <v>91.25110451129788</v>
+        <v>101.076717473572</v>
       </c>
       <c r="E40" t="n">
-        <v>6.696708188746101</v>
+        <v>101.076717473572</v>
       </c>
       <c r="F40" t="n">
-        <v>6.696708188746101</v>
+        <v>101.076717473572</v>
       </c>
       <c r="G40" t="n">
-        <v>6.696708188746101</v>
+        <v>16.52232115102021</v>
       </c>
       <c r="H40" t="n">
-        <v>6.696708188746101</v>
+        <v>16.52232115102021</v>
       </c>
       <c r="I40" t="n">
-        <v>6.696708188746101</v>
+        <v>16.52232115102021</v>
       </c>
       <c r="J40" t="n">
         <v>6.696708188746101</v>
       </c>
       <c r="K40" t="n">
-        <v>15.08695199673551</v>
+        <v>15.08695199673548</v>
       </c>
       <c r="L40" t="n">
         <v>81.35001001408399</v>
@@ -7359,25 +7359,25 @@
         <v>270.1855101186756</v>
       </c>
       <c r="S40" t="n">
-        <v>185.6311137961238</v>
+        <v>270.1855101186756</v>
       </c>
       <c r="T40" t="n">
-        <v>185.6311137961238</v>
+        <v>270.1855101186756</v>
       </c>
       <c r="U40" t="n">
-        <v>185.6311137961238</v>
+        <v>270.1855101186756</v>
       </c>
       <c r="V40" t="n">
         <v>185.6311137961238</v>
       </c>
       <c r="W40" t="n">
-        <v>185.6311137961238</v>
+        <v>101.076717473572</v>
       </c>
       <c r="X40" t="n">
-        <v>175.8055008338497</v>
+        <v>101.076717473572</v>
       </c>
       <c r="Y40" t="n">
-        <v>175.8055008338497</v>
+        <v>101.076717473572</v>
       </c>
     </row>
     <row r="41">
@@ -7387,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>91.25110451129788</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="C41" t="n">
         <v>91.25110451129788</v>
@@ -7399,7 +7399,7 @@
         <v>91.25110451129788</v>
       </c>
       <c r="F41" t="n">
-        <v>6.696708188746101</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="G41" t="n">
         <v>6.696708188746101</v>
@@ -7411,52 +7411,52 @@
         <v>6.696708188746101</v>
       </c>
       <c r="J41" t="n">
-        <v>6.696708188746101</v>
+        <v>44.43608870824591</v>
       </c>
       <c r="K41" t="n">
-        <v>89.56847202447909</v>
+        <v>127.3078525439789</v>
       </c>
       <c r="L41" t="n">
-        <v>89.56847202447909</v>
+        <v>210.1796163797119</v>
       </c>
       <c r="M41" t="n">
-        <v>115.9135453040444</v>
+        <v>293.0513802154449</v>
       </c>
       <c r="N41" t="n">
-        <v>198.7853091397774</v>
+        <v>334.835409437305</v>
       </c>
       <c r="O41" t="n">
-        <v>198.7853091397774</v>
+        <v>334.835409437305</v>
       </c>
       <c r="P41" t="n">
-        <v>281.6570729755103</v>
+        <v>334.835409437305</v>
       </c>
       <c r="Q41" t="n">
         <v>334.835409437305</v>
       </c>
       <c r="R41" t="n">
-        <v>250.2810131147533</v>
+        <v>334.835409437305</v>
       </c>
       <c r="S41" t="n">
-        <v>250.2810131147533</v>
+        <v>334.835409437305</v>
       </c>
       <c r="T41" t="n">
-        <v>175.8055008338497</v>
+        <v>334.835409437305</v>
       </c>
       <c r="U41" t="n">
-        <v>175.8055008338497</v>
+        <v>260.3598971564014</v>
       </c>
       <c r="V41" t="n">
-        <v>91.25110451129788</v>
+        <v>260.3598971564014</v>
       </c>
       <c r="W41" t="n">
-        <v>91.25110451129788</v>
+        <v>260.3598971564014</v>
       </c>
       <c r="X41" t="n">
-        <v>91.25110451129788</v>
+        <v>260.3598971564014</v>
       </c>
       <c r="Y41" t="n">
-        <v>91.25110451129788</v>
+        <v>260.3598971564014</v>
       </c>
     </row>
     <row r="42">
@@ -7466,19 +7466,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>334.835409437305</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="C42" t="n">
-        <v>334.835409437305</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="D42" t="n">
-        <v>260.3598971564014</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="E42" t="n">
-        <v>175.8055008338497</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="F42" t="n">
-        <v>91.25110451129788</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="G42" t="n">
         <v>6.696708188746101</v>
@@ -7490,52 +7490,52 @@
         <v>6.696708188746101</v>
       </c>
       <c r="J42" t="n">
-        <v>35.48064500251784</v>
+        <v>35.48064500251785</v>
       </c>
       <c r="K42" t="n">
-        <v>35.48064500251784</v>
+        <v>35.48064500251785</v>
       </c>
       <c r="L42" t="n">
-        <v>118.3524088382508</v>
+        <v>35.48064500251785</v>
       </c>
       <c r="M42" t="n">
-        <v>201.2241726739838</v>
+        <v>35.48064500251785</v>
       </c>
       <c r="N42" t="n">
+        <v>86.22011793010606</v>
+      </c>
+      <c r="O42" t="n">
+        <v>169.091881765839</v>
+      </c>
+      <c r="P42" t="n">
         <v>251.963645601572</v>
-      </c>
-      <c r="O42" t="n">
-        <v>251.963645601572</v>
-      </c>
-      <c r="P42" t="n">
-        <v>334.835409437305</v>
       </c>
       <c r="Q42" t="n">
         <v>334.835409437305</v>
       </c>
       <c r="R42" t="n">
-        <v>334.835409437305</v>
+        <v>260.3598971564014</v>
       </c>
       <c r="S42" t="n">
-        <v>334.835409437305</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="T42" t="n">
-        <v>334.835409437305</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="U42" t="n">
-        <v>334.835409437305</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="V42" t="n">
-        <v>334.835409437305</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="W42" t="n">
-        <v>334.835409437305</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="X42" t="n">
-        <v>334.835409437305</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="Y42" t="n">
-        <v>334.835409437305</v>
+        <v>6.696708188746101</v>
       </c>
     </row>
     <row r="43">
@@ -7545,43 +7545,43 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>251.2098145186532</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="C43" t="n">
-        <v>251.2098145186532</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="D43" t="n">
-        <v>251.2098145186532</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="E43" t="n">
-        <v>251.2098145186532</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="F43" t="n">
-        <v>251.2098145186532</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="G43" t="n">
-        <v>251.2098145186532</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="H43" t="n">
-        <v>166.6554181961014</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="I43" t="n">
-        <v>82.10102187354958</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="J43" t="n">
         <v>6.696708188746101</v>
       </c>
       <c r="K43" t="n">
-        <v>15.08695199673551</v>
+        <v>15.08695199673548</v>
       </c>
       <c r="L43" t="n">
-        <v>81.35001001408399</v>
+        <v>81.35001001408396</v>
       </c>
       <c r="M43" t="n">
-        <v>161.6042370215896</v>
+        <v>161.6042370215895</v>
       </c>
       <c r="N43" t="n">
-        <v>244.4760008573226</v>
+        <v>244.4760008573225</v>
       </c>
       <c r="O43" t="n">
         <v>305.8446287478054</v>
@@ -7593,28 +7593,28 @@
         <v>334.835409437305</v>
       </c>
       <c r="R43" t="n">
-        <v>334.835409437305</v>
+        <v>260.3598971564014</v>
       </c>
       <c r="S43" t="n">
-        <v>334.835409437305</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="T43" t="n">
-        <v>334.835409437305</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="U43" t="n">
-        <v>251.2098145186532</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="V43" t="n">
-        <v>251.2098145186532</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="W43" t="n">
-        <v>251.2098145186532</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="X43" t="n">
-        <v>251.2098145186532</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="Y43" t="n">
-        <v>251.2098145186532</v>
+        <v>175.8055008338497</v>
       </c>
     </row>
     <row r="44">
@@ -7627,13 +7627,13 @@
         <v>91.25110451129788</v>
       </c>
       <c r="C44" t="n">
-        <v>6.696708188746101</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="D44" t="n">
-        <v>6.696708188746101</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="E44" t="n">
-        <v>6.696708188746101</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="F44" t="n">
         <v>6.696708188746101</v>
@@ -7648,52 +7648,52 @@
         <v>6.696708188746101</v>
       </c>
       <c r="J44" t="n">
-        <v>6.696708188746101</v>
+        <v>44.43608870824591</v>
       </c>
       <c r="K44" t="n">
-        <v>89.56847202447909</v>
+        <v>44.43608870824591</v>
       </c>
       <c r="L44" t="n">
-        <v>89.56847202447909</v>
+        <v>44.43608870824591</v>
       </c>
       <c r="M44" t="n">
-        <v>169.091881765839</v>
+        <v>115.9135453040443</v>
       </c>
       <c r="N44" t="n">
-        <v>251.963645601572</v>
+        <v>198.7853091397773</v>
       </c>
       <c r="O44" t="n">
-        <v>251.963645601572</v>
+        <v>198.7853091397773</v>
       </c>
       <c r="P44" t="n">
-        <v>334.835409437305</v>
+        <v>281.6570729755103</v>
       </c>
       <c r="Q44" t="n">
         <v>334.835409437305</v>
       </c>
       <c r="R44" t="n">
-        <v>334.835409437305</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="S44" t="n">
-        <v>334.835409437305</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="T44" t="n">
-        <v>334.835409437305</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="U44" t="n">
-        <v>260.3598971564014</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="V44" t="n">
-        <v>260.3598971564014</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="W44" t="n">
-        <v>260.3598971564014</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="X44" t="n">
-        <v>175.8055008338497</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="Y44" t="n">
-        <v>175.8055008338497</v>
+        <v>91.25110451129788</v>
       </c>
     </row>
     <row r="45">
@@ -7703,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>175.8055008338497</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="C45" t="n">
-        <v>175.8055008338497</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="D45" t="n">
-        <v>175.8055008338497</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="E45" t="n">
-        <v>91.25110451129788</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="F45" t="n">
-        <v>91.25110451129788</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="G45" t="n">
-        <v>91.25110451129788</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="H45" t="n">
         <v>6.696708188746101</v>
@@ -7727,52 +7727,52 @@
         <v>6.696708188746101</v>
       </c>
       <c r="J45" t="n">
-        <v>35.48064500251784</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="K45" t="n">
-        <v>35.48064500251784</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="L45" t="n">
-        <v>118.3524088382508</v>
+        <v>86.22011793010606</v>
       </c>
       <c r="M45" t="n">
-        <v>201.2241726739838</v>
+        <v>86.22011793010606</v>
       </c>
       <c r="N45" t="n">
-        <v>201.2241726739838</v>
+        <v>169.091881765839</v>
       </c>
       <c r="O45" t="n">
         <v>251.963645601572</v>
       </c>
       <c r="P45" t="n">
-        <v>334.835409437305</v>
+        <v>251.963645601572</v>
       </c>
       <c r="Q45" t="n">
         <v>334.835409437305</v>
       </c>
       <c r="R45" t="n">
-        <v>334.835409437305</v>
+        <v>253.4613449019607</v>
       </c>
       <c r="S45" t="n">
-        <v>334.835409437305</v>
+        <v>168.9069485794089</v>
       </c>
       <c r="T45" t="n">
-        <v>334.835409437305</v>
+        <v>84.35255225685714</v>
       </c>
       <c r="U45" t="n">
-        <v>334.835409437305</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="V45" t="n">
-        <v>334.835409437305</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="W45" t="n">
-        <v>260.3598971564014</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="X45" t="n">
-        <v>260.3598971564014</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="Y45" t="n">
-        <v>260.3598971564014</v>
+        <v>6.696708188746101</v>
       </c>
     </row>
     <row r="46">
@@ -7809,7 +7809,7 @@
         <v>6.696708188746101</v>
       </c>
       <c r="K46" t="n">
-        <v>15.08695199673547</v>
+        <v>15.08695199673548</v>
       </c>
       <c r="L46" t="n">
         <v>81.35001001408396</v>
@@ -7818,7 +7818,7 @@
         <v>161.6042370215895</v>
       </c>
       <c r="N46" t="n">
-        <v>244.4760008573225</v>
+        <v>244.4760008573226</v>
       </c>
       <c r="O46" t="n">
         <v>305.8446287478054</v>
@@ -7839,10 +7839,10 @@
         <v>91.25110451129788</v>
       </c>
       <c r="U46" t="n">
-        <v>6.696708188746101</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="V46" t="n">
-        <v>6.696708188746101</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="W46" t="n">
         <v>6.696708188746101</v>
@@ -8768,22 +8768,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>97.01635169013436</v>
+        <v>97.01635169013434</v>
       </c>
       <c r="K12" t="n">
         <v>86.87213017667128</v>
       </c>
       <c r="L12" t="n">
-        <v>70.01985409800085</v>
+        <v>70.01985409800083</v>
       </c>
       <c r="M12" t="n">
-        <v>62.15747501601244</v>
+        <v>62.15747501601243</v>
       </c>
       <c r="N12" t="n">
-        <v>49.24841164076375</v>
+        <v>49.24841164076372</v>
       </c>
       <c r="O12" t="n">
-        <v>67.49691276755156</v>
+        <v>67.49691276755155</v>
       </c>
       <c r="P12" t="n">
         <v>73.70057286958928</v>
@@ -8859,7 +8859,7 @@
         <v>97.44478514428849</v>
       </c>
       <c r="N13" t="n">
-        <v>87.19087109886839</v>
+        <v>87.19087109886837</v>
       </c>
       <c r="O13" t="n">
         <v>101.0531533451928</v>
@@ -9005,22 +9005,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>97.01635169013436</v>
+        <v>97.01635169013434</v>
       </c>
       <c r="K15" t="n">
         <v>86.87213017667128</v>
       </c>
       <c r="L15" t="n">
-        <v>70.01985409800085</v>
+        <v>70.01985409800083</v>
       </c>
       <c r="M15" t="n">
-        <v>62.15747501601244</v>
+        <v>62.15747501601243</v>
       </c>
       <c r="N15" t="n">
-        <v>49.24841164076375</v>
+        <v>49.24841164076372</v>
       </c>
       <c r="O15" t="n">
-        <v>67.49691276755156</v>
+        <v>67.49691276755155</v>
       </c>
       <c r="P15" t="n">
         <v>73.70057286958928</v>
@@ -9096,7 +9096,7 @@
         <v>97.44478514428849</v>
       </c>
       <c r="N16" t="n">
-        <v>87.19087109886839</v>
+        <v>87.19087109886837</v>
       </c>
       <c r="O16" t="n">
         <v>101.0531533451928</v>
@@ -9242,22 +9242,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>97.01635169013436</v>
+        <v>97.01635169013434</v>
       </c>
       <c r="K18" t="n">
         <v>86.87213017667128</v>
       </c>
       <c r="L18" t="n">
-        <v>70.01985409800085</v>
+        <v>70.01985409800083</v>
       </c>
       <c r="M18" t="n">
-        <v>62.15747501601244</v>
+        <v>62.15747501601243</v>
       </c>
       <c r="N18" t="n">
-        <v>49.24841164076375</v>
+        <v>49.24841164076372</v>
       </c>
       <c r="O18" t="n">
-        <v>67.49691276755156</v>
+        <v>67.49691276755155</v>
       </c>
       <c r="P18" t="n">
         <v>73.70057286958928</v>
@@ -9333,7 +9333,7 @@
         <v>97.44478514428849</v>
       </c>
       <c r="N19" t="n">
-        <v>87.19087109886839</v>
+        <v>87.19087109886837</v>
       </c>
       <c r="O19" t="n">
         <v>101.0531533451928</v>
@@ -9479,22 +9479,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>97.01635169013436</v>
+        <v>97.01635169013434</v>
       </c>
       <c r="K21" t="n">
         <v>86.87213017667128</v>
       </c>
       <c r="L21" t="n">
-        <v>70.01985409800085</v>
+        <v>70.01985409800083</v>
       </c>
       <c r="M21" t="n">
-        <v>62.15747501601244</v>
+        <v>62.15747501601243</v>
       </c>
       <c r="N21" t="n">
-        <v>49.24841164076375</v>
+        <v>49.24841164076372</v>
       </c>
       <c r="O21" t="n">
-        <v>67.49691276755156</v>
+        <v>67.49691276755155</v>
       </c>
       <c r="P21" t="n">
         <v>73.70057286958928</v>
@@ -9570,7 +9570,7 @@
         <v>97.44478514428849</v>
       </c>
       <c r="N22" t="n">
-        <v>87.19087109886839</v>
+        <v>87.19087109886837</v>
       </c>
       <c r="O22" t="n">
         <v>101.0531533451928</v>
@@ -9637,28 +9637,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>130.9760287887406</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>228.7569389494465</v>
+        <v>145.0480865901202</v>
       </c>
       <c r="L23" t="n">
         <v>142.6704705170102</v>
       </c>
       <c r="M23" t="n">
-        <v>153.3702424860951</v>
+        <v>210.4679097145473</v>
       </c>
       <c r="N23" t="n">
-        <v>207.8585912811976</v>
+        <v>207.8585912811975</v>
       </c>
       <c r="O23" t="n">
-        <v>130.7010388478133</v>
+        <v>214.4098912071395</v>
       </c>
       <c r="P23" t="n">
-        <v>230.1086609576568</v>
+        <v>188.6058987214216</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>158.5994992843545</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9716,16 +9716,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>97.01635169013434</v>
       </c>
       <c r="K24" t="n">
         <v>86.87213017667128</v>
       </c>
       <c r="L24" t="n">
-        <v>70.01985409800085</v>
+        <v>70.01985409800083</v>
       </c>
       <c r="M24" t="n">
-        <v>113.4094678721622</v>
+        <v>145.8663273753387</v>
       </c>
       <c r="N24" t="n">
         <v>132.95726400009</v>
@@ -9734,10 +9734,10 @@
         <v>151.2057651268778</v>
       </c>
       <c r="P24" t="n">
-        <v>73.70057286958928</v>
+        <v>154.0272493760135</v>
       </c>
       <c r="Q24" t="n">
-        <v>183.3991642608161</v>
+        <v>99.69031190148982</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9807,7 +9807,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N25" t="n">
-        <v>170.8997234581947</v>
+        <v>170.8997234581946</v>
       </c>
       <c r="O25" t="n">
         <v>163.0416663658825</v>
@@ -9883,16 +9883,16 @@
         <v>142.6704705170102</v>
       </c>
       <c r="M26" t="n">
-        <v>198.9585084620882</v>
+        <v>210.4679097145473</v>
       </c>
       <c r="N26" t="n">
-        <v>124.1497389218713</v>
+        <v>196.3491900287383</v>
       </c>
       <c r="O26" t="n">
-        <v>214.4098912071396</v>
+        <v>214.4098912071395</v>
       </c>
       <c r="P26" t="n">
-        <v>230.1086609576568</v>
+        <v>146.3998085983305</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
@@ -9953,13 +9953,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>97.01635169013436</v>
+        <v>97.01635169013434</v>
       </c>
       <c r="K27" t="n">
         <v>86.87213017667128</v>
       </c>
       <c r="L27" t="n">
-        <v>70.01985409800085</v>
+        <v>150.346530604425</v>
       </c>
       <c r="M27" t="n">
         <v>145.8663273753387</v>
@@ -9968,13 +9968,13 @@
         <v>132.95726400009</v>
       </c>
       <c r="O27" t="n">
-        <v>67.49691276755156</v>
+        <v>151.2057651268778</v>
       </c>
       <c r="P27" t="n">
-        <v>154.0272493760135</v>
+        <v>73.70057286958928</v>
       </c>
       <c r="Q27" t="n">
-        <v>183.3991642608161</v>
+        <v>99.69031190148982</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10114,7 +10114,7 @@
         <v>130.9760287887406</v>
       </c>
       <c r="K29" t="n">
-        <v>171.6592717209942</v>
+        <v>228.7569389494465</v>
       </c>
       <c r="L29" t="n">
         <v>226.3793228763365</v>
@@ -10123,16 +10123,16 @@
         <v>126.759057355221</v>
       </c>
       <c r="N29" t="n">
-        <v>124.1497389218713</v>
+        <v>204.4764154282955</v>
       </c>
       <c r="O29" t="n">
-        <v>214.4098912071396</v>
+        <v>214.4098912071395</v>
       </c>
       <c r="P29" t="n">
-        <v>230.1086609576568</v>
+        <v>146.3998085983305</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>158.5994992843545</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10190,16 +10190,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>97.01635169013436</v>
+        <v>97.01635169013434</v>
       </c>
       <c r="K30" t="n">
         <v>86.87213017667128</v>
       </c>
       <c r="L30" t="n">
-        <v>150.346530604425</v>
+        <v>70.01985409800083</v>
       </c>
       <c r="M30" t="n">
-        <v>62.15747501601244</v>
+        <v>145.8663273753387</v>
       </c>
       <c r="N30" t="n">
         <v>132.95726400009</v>
@@ -10211,7 +10211,7 @@
         <v>73.70057286958928</v>
       </c>
       <c r="Q30" t="n">
-        <v>183.3991642608161</v>
+        <v>180.016988407914</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10272,7 +10272,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K31" t="n">
-        <v>106.7437663446526</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L31" t="n">
         <v>162.4747015415544</v>
@@ -10281,7 +10281,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N31" t="n">
-        <v>170.8997234581947</v>
+        <v>170.8997234581946</v>
       </c>
       <c r="O31" t="n">
         <v>163.0416663658825</v>
@@ -10351,25 +10351,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>228.7569389494465</v>
+        <v>145.0480865901202</v>
       </c>
       <c r="L32" t="n">
-        <v>142.6704705170102</v>
+        <v>226.3793228763365</v>
       </c>
       <c r="M32" t="n">
         <v>126.759057355221</v>
       </c>
       <c r="N32" t="n">
-        <v>196.3491900287384</v>
+        <v>207.8585912811975</v>
       </c>
       <c r="O32" t="n">
-        <v>130.7010388478133</v>
+        <v>214.4098912071395</v>
       </c>
       <c r="P32" t="n">
-        <v>230.1086609576568</v>
+        <v>188.6058987214216</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>158.5994992843545</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10427,28 +10427,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>97.01635169013436</v>
+        <v>97.01635169013434</v>
       </c>
       <c r="K33" t="n">
-        <v>167.1988066830955</v>
+        <v>170.5809825359975</v>
       </c>
       <c r="L33" t="n">
-        <v>70.01985409800085</v>
+        <v>153.7287064573271</v>
       </c>
       <c r="M33" t="n">
-        <v>62.15747501601244</v>
+        <v>145.8663273753387</v>
       </c>
       <c r="N33" t="n">
-        <v>132.95726400009</v>
+        <v>49.24841164076372</v>
       </c>
       <c r="O33" t="n">
-        <v>67.49691276755156</v>
+        <v>67.49691276755155</v>
       </c>
       <c r="P33" t="n">
-        <v>157.4094252289156</v>
+        <v>154.0272493760135</v>
       </c>
       <c r="Q33" t="n">
-        <v>183.3991642608161</v>
+        <v>99.69031190148982</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10512,13 +10512,13 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L34" t="n">
-        <v>162.4747015415545</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M34" t="n">
         <v>178.5096609094456</v>
       </c>
       <c r="N34" t="n">
-        <v>170.8997234581947</v>
+        <v>170.8997234581946</v>
       </c>
       <c r="O34" t="n">
         <v>163.0416663658825</v>
@@ -10585,28 +10585,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>130.9760287887406</v>
       </c>
       <c r="K35" t="n">
-        <v>228.7569389494465</v>
+        <v>145.0480865901202</v>
       </c>
       <c r="L35" t="n">
-        <v>214.8699216238774</v>
+        <v>226.3793228763365</v>
       </c>
       <c r="M35" t="n">
-        <v>126.759057355221</v>
+        <v>210.4679097145473</v>
       </c>
       <c r="N35" t="n">
-        <v>124.1497389218713</v>
+        <v>207.8585912811975</v>
       </c>
       <c r="O35" t="n">
-        <v>130.7010388478133</v>
+        <v>211.0277153542375</v>
       </c>
       <c r="P35" t="n">
-        <v>230.1086609576568</v>
+        <v>146.3998085983305</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>158.5994992843545</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10664,25 +10664,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>97.01635169013436</v>
+        <v>97.01635169013434</v>
       </c>
       <c r="K36" t="n">
         <v>86.87213017667128</v>
       </c>
       <c r="L36" t="n">
-        <v>153.7287064573271</v>
+        <v>150.346530604425</v>
       </c>
       <c r="M36" t="n">
         <v>145.8663273753387</v>
       </c>
       <c r="N36" t="n">
-        <v>49.24841164076375</v>
+        <v>132.95726400009</v>
       </c>
       <c r="O36" t="n">
-        <v>67.49691276755156</v>
+        <v>67.49691276755155</v>
       </c>
       <c r="P36" t="n">
-        <v>154.0272493760135</v>
+        <v>73.70057286958928</v>
       </c>
       <c r="Q36" t="n">
         <v>183.3991642608161</v>
@@ -10822,28 +10822,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>157.5872139196147</v>
+        <v>130.9760287887406</v>
       </c>
       <c r="K38" t="n">
-        <v>145.0480865901202</v>
+        <v>225.3747630965444</v>
       </c>
       <c r="L38" t="n">
         <v>226.3793228763365</v>
       </c>
       <c r="M38" t="n">
-        <v>126.759057355221</v>
+        <v>210.4679097145473</v>
       </c>
       <c r="N38" t="n">
-        <v>207.8585912811976</v>
+        <v>207.8585912811975</v>
       </c>
       <c r="O38" t="n">
-        <v>214.4098912071396</v>
+        <v>130.7010388478133</v>
       </c>
       <c r="P38" t="n">
         <v>146.3998085983305</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>158.5994992843545</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10901,28 +10901,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>97.01635169013436</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>86.87213017667128</v>
+        <v>138.124123032821</v>
       </c>
       <c r="L39" t="n">
         <v>153.7287064573271</v>
       </c>
       <c r="M39" t="n">
-        <v>62.15747501601244</v>
+        <v>145.8663273753387</v>
       </c>
       <c r="N39" t="n">
-        <v>129.575088147188</v>
+        <v>49.24841164076372</v>
       </c>
       <c r="O39" t="n">
-        <v>151.2057651268778</v>
+        <v>67.49691276755155</v>
       </c>
       <c r="P39" t="n">
-        <v>157.4094252289156</v>
+        <v>73.70057286958928</v>
       </c>
       <c r="Q39" t="n">
-        <v>99.69031190148982</v>
+        <v>183.3991642608161</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -10983,16 +10983,16 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K40" t="n">
-        <v>106.7437663446526</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L40" t="n">
-        <v>162.4747015415544</v>
+        <v>162.4747015415545</v>
       </c>
       <c r="M40" t="n">
         <v>178.5096609094456</v>
       </c>
       <c r="N40" t="n">
-        <v>170.8997234581947</v>
+        <v>170.8997234581946</v>
       </c>
       <c r="O40" t="n">
         <v>163.0416663658825</v>
@@ -11059,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>130.9760287887406</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>228.7569389494465</v>
       </c>
       <c r="L41" t="n">
-        <v>142.6704705170102</v>
+        <v>226.3793228763365</v>
       </c>
       <c r="M41" t="n">
-        <v>153.3702424860951</v>
+        <v>210.4679097145473</v>
       </c>
       <c r="N41" t="n">
-        <v>207.8585912811976</v>
+        <v>166.3558290449623</v>
       </c>
       <c r="O41" t="n">
         <v>130.7010388478133</v>
       </c>
       <c r="P41" t="n">
-        <v>230.1086609576568</v>
+        <v>146.3998085983305</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>158.5994992843545</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11144,22 +11144,22 @@
         <v>86.87213017667128</v>
       </c>
       <c r="L42" t="n">
-        <v>153.7287064573271</v>
+        <v>70.01985409800083</v>
       </c>
       <c r="M42" t="n">
-        <v>145.8663273753387</v>
+        <v>62.15747501601243</v>
       </c>
       <c r="N42" t="n">
-        <v>100.5004044969135</v>
+        <v>100.5004044969134</v>
       </c>
       <c r="O42" t="n">
-        <v>67.49691276755156</v>
+        <v>151.2057651268778</v>
       </c>
       <c r="P42" t="n">
         <v>157.4094252289156</v>
       </c>
       <c r="Q42" t="n">
-        <v>99.69031190148982</v>
+        <v>183.3991642608161</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11220,7 +11220,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K43" t="n">
-        <v>106.7437663446526</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L43" t="n">
         <v>162.4747015415544</v>
@@ -11229,7 +11229,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N43" t="n">
-        <v>170.8997234581947</v>
+        <v>170.8997234581946</v>
       </c>
       <c r="O43" t="n">
         <v>163.0416663658825</v>
@@ -11296,19 +11296,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>130.9760287887406</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>228.7569389494465</v>
+        <v>145.0480865901202</v>
       </c>
       <c r="L44" t="n">
         <v>142.6704705170102</v>
       </c>
       <c r="M44" t="n">
-        <v>207.0857338616452</v>
+        <v>198.9585084620881</v>
       </c>
       <c r="N44" t="n">
-        <v>207.8585912811976</v>
+        <v>207.8585912811975</v>
       </c>
       <c r="O44" t="n">
         <v>130.7010388478133</v>
@@ -11317,7 +11317,7 @@
         <v>230.1086609576568</v>
       </c>
       <c r="Q44" t="n">
-        <v>158.5994992843545</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11375,28 +11375,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>97.01635169013434</v>
       </c>
       <c r="K45" t="n">
         <v>86.87213017667128</v>
       </c>
       <c r="L45" t="n">
-        <v>153.7287064573271</v>
+        <v>150.346530604425</v>
       </c>
       <c r="M45" t="n">
-        <v>145.8663273753387</v>
+        <v>62.15747501601243</v>
       </c>
       <c r="N45" t="n">
-        <v>49.24841164076375</v>
+        <v>132.95726400009</v>
       </c>
       <c r="O45" t="n">
-        <v>118.7489056237013</v>
+        <v>151.2057651268778</v>
       </c>
       <c r="P45" t="n">
-        <v>157.4094252289156</v>
+        <v>73.70057286958928</v>
       </c>
       <c r="Q45" t="n">
-        <v>99.69031190148982</v>
+        <v>183.3991642608161</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11466,7 +11466,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N46" t="n">
-        <v>170.8997234581946</v>
+        <v>170.8997234581947</v>
       </c>
       <c r="O46" t="n">
         <v>163.0416663658825</v>
@@ -23384,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>80.5603238899909</v>
+        <v>80.56032388999088</v>
       </c>
       <c r="S12" t="n">
         <v>165.8202538982478</v>
@@ -23621,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>80.5603238899909</v>
+        <v>80.56032388999088</v>
       </c>
       <c r="S15" t="n">
         <v>165.8202538982478</v>
@@ -23858,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>80.5603238899909</v>
+        <v>80.56032388999088</v>
       </c>
       <c r="S18" t="n">
         <v>165.8202538982478</v>
@@ -24095,7 +24095,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>80.5603238899909</v>
+        <v>80.56032388999088</v>
       </c>
       <c r="S21" t="n">
         <v>165.8202538982478</v>
@@ -24214,16 +24214,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>308.1996129141672</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>414.7128039286263</v>
+        <v>340.9820467705318</v>
       </c>
       <c r="H23" t="n">
-        <v>333.4331447729346</v>
+        <v>249.7242924136083</v>
       </c>
       <c r="I23" t="n">
         <v>187.732474976528</v>
@@ -24253,19 +24253,19 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>29.10284992829418</v>
+        <v>112.8117022876204</v>
       </c>
       <c r="S23" t="n">
         <v>111.8681056243513</v>
       </c>
       <c r="T23" t="n">
-        <v>220.5134152891894</v>
+        <v>136.8045629298631</v>
       </c>
       <c r="U23" t="n">
         <v>251.2984582209158</v>
       </c>
       <c r="V23" t="n">
-        <v>244.0434061108086</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -24287,7 +24287,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>98.97774183022119</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -24332,16 +24332,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>80.56032388999088</v>
       </c>
       <c r="S24" t="n">
-        <v>165.8202538982478</v>
+        <v>82.11140153892156</v>
       </c>
       <c r="T24" t="n">
-        <v>115.1836163799021</v>
+        <v>198.8924687392284</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9206161404591</v>
+        <v>142.2117637811329</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -24350,7 +24350,7 @@
         <v>167.9861308015933</v>
       </c>
       <c r="X24" t="n">
-        <v>128.8936995760476</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24372,7 +24372,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>62.72511028724291</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24381,7 +24381,7 @@
         <v>167.72635546074</v>
       </c>
       <c r="H25" t="n">
-        <v>159.8744254895399</v>
+        <v>76.16557313021367</v>
       </c>
       <c r="I25" t="n">
         <v>147.4925126213155</v>
@@ -24411,25 +24411,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>81.68608630768817</v>
+        <v>165.3949386670144</v>
       </c>
       <c r="S25" t="n">
-        <v>209.6775683686219</v>
+        <v>219.4049252012732</v>
       </c>
       <c r="T25" t="n">
         <v>226.8149236834831</v>
       </c>
       <c r="U25" t="n">
-        <v>202.5957429663799</v>
+        <v>286.3045953257062</v>
       </c>
       <c r="V25" t="n">
-        <v>168.4287909645017</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>202.8141459772647</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>215.9822985563858</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>299.0249893041543</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24496,22 +24496,22 @@
         <v>195.5769579836776</v>
       </c>
       <c r="T26" t="n">
-        <v>136.8045629298631</v>
+        <v>220.5134152891894</v>
       </c>
       <c r="U26" t="n">
         <v>251.2984582209158</v>
       </c>
       <c r="V26" t="n">
-        <v>254.0215013120404</v>
+        <v>254.0215013120403</v>
       </c>
       <c r="W26" t="n">
         <v>265.5321163580867</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>286.0222483191428</v>
       </c>
       <c r="Y26" t="n">
-        <v>302.5290862967273</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24569,16 +24569,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>6.829566731896307</v>
       </c>
       <c r="S27" t="n">
-        <v>82.11140153892156</v>
+        <v>165.8202538982478</v>
       </c>
       <c r="T27" t="n">
         <v>198.8924687392284</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9206161404591</v>
+        <v>142.2117637811329</v>
       </c>
       <c r="V27" t="n">
         <v>149.091734790099</v>
@@ -24587,7 +24587,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>128.8936995760476</v>
+        <v>122.0641328441512</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -24648,10 +24648,10 @@
         <v>64.00340032544321</v>
       </c>
       <c r="R28" t="n">
-        <v>91.66418150891985</v>
+        <v>165.3949386670144</v>
       </c>
       <c r="S28" t="n">
-        <v>135.696072841947</v>
+        <v>219.4049252012732</v>
       </c>
       <c r="T28" t="n">
         <v>143.1060713241569</v>
@@ -24660,13 +24660,13 @@
         <v>202.5957429663799</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>168.4287909645017</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>151.9788982309426</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24688,13 +24688,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>298.2215177129355</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>333.1452885836169</v>
+        <v>323.1671933823852</v>
       </c>
       <c r="G29" t="n">
-        <v>331.0039515693001</v>
+        <v>340.9820467705318</v>
       </c>
       <c r="H29" t="n">
         <v>333.4331447729346</v>
@@ -24736,13 +24736,13 @@
         <v>220.5134152891894</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2984582209158</v>
+        <v>167.5896058615895</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>244.0434061108086</v>
       </c>
       <c r="W29" t="n">
-        <v>265.5321163580867</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -24767,10 +24767,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>80.76579482797105</v>
+        <v>80.76579482797102</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>61.36036003405762</v>
       </c>
       <c r="G30" t="n">
         <v>137.0278748673725</v>
@@ -24809,10 +24809,10 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>165.8202538982478</v>
+        <v>82.11140153892156</v>
       </c>
       <c r="T30" t="n">
-        <v>115.1836163799021</v>
+        <v>198.8924687392284</v>
       </c>
       <c r="U30" t="n">
         <v>225.9206161404591</v>
@@ -24821,7 +24821,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>167.9861308015933</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>96.12312782261104</v>
       </c>
       <c r="C31" t="n">
-        <v>93.51606394053329</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24855,7 +24855,7 @@
         <v>167.72635546074</v>
       </c>
       <c r="H31" t="n">
-        <v>159.8744254895399</v>
+        <v>86.14366833144538</v>
       </c>
       <c r="I31" t="n">
         <v>147.4925126213155</v>
@@ -24885,7 +24885,7 @@
         <v>64.00340032544321</v>
       </c>
       <c r="R31" t="n">
-        <v>81.68608630768817</v>
+        <v>165.3949386670144</v>
       </c>
       <c r="S31" t="n">
         <v>219.4049252012732</v>
@@ -24897,13 +24897,13 @@
         <v>286.3045953257062</v>
       </c>
       <c r="V31" t="n">
-        <v>168.4287909645017</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>142.0008030297109</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24919,19 +24919,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>281.5640394116813</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>298.2215177129355</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>414.7128039286263</v>
+        <v>340.9820467705318</v>
       </c>
       <c r="H32" t="n">
         <v>333.4331447729346</v>
@@ -24964,19 +24964,19 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>29.10284992829418</v>
+        <v>112.8117022876204</v>
       </c>
       <c r="S32" t="n">
-        <v>111.8681056243513</v>
+        <v>195.5769579836776</v>
       </c>
       <c r="T32" t="n">
-        <v>220.5134152891894</v>
+        <v>136.8045629298631</v>
       </c>
       <c r="U32" t="n">
         <v>251.2984582209158</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>244.0434061108086</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -24985,7 +24985,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>312.507181497959</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25043,25 +25043,25 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>6.829566731896307</v>
       </c>
       <c r="S33" t="n">
-        <v>88.94096827081792</v>
+        <v>82.11140153892156</v>
       </c>
       <c r="T33" t="n">
-        <v>115.1836163799021</v>
+        <v>198.8924687392284</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9206161404591</v>
+        <v>142.2117637811329</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>149.091734790099</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>122.0641328441512</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -25119,28 +25119,28 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>64.00340032544321</v>
       </c>
       <c r="R34" t="n">
         <v>165.3949386670144</v>
       </c>
       <c r="S34" t="n">
-        <v>135.696072841947</v>
+        <v>219.4049252012732</v>
       </c>
       <c r="T34" t="n">
-        <v>217.0875668508317</v>
+        <v>226.8149236834831</v>
       </c>
       <c r="U34" t="n">
-        <v>202.5957429663799</v>
+        <v>286.3045953257062</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>178.4068861657334</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>202.8141459772647</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>142.0008030297109</v>
       </c>
       <c r="Y34" t="n">
         <v>134.8758009927685</v>
@@ -25168,10 +25168,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>414.7128039286263</v>
+        <v>331.0039515693001</v>
       </c>
       <c r="H35" t="n">
-        <v>333.4331447729346</v>
+        <v>259.70238761484</v>
       </c>
       <c r="I35" t="n">
         <v>187.732474976528</v>
@@ -25201,13 +25201,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>29.10284992829418</v>
+        <v>112.8117022876204</v>
       </c>
       <c r="S35" t="n">
-        <v>121.846200825583</v>
+        <v>195.5769579836776</v>
       </c>
       <c r="T35" t="n">
-        <v>220.5134152891894</v>
+        <v>136.8045629298631</v>
       </c>
       <c r="U35" t="n">
         <v>167.5896058615895</v>
@@ -25216,7 +25216,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>265.5321163580867</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -25280,7 +25280,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>6.829566731896321</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>82.11140153892156</v>
@@ -25289,7 +25289,7 @@
         <v>115.1836163799021</v>
       </c>
       <c r="U36" t="n">
-        <v>142.2117637811329</v>
+        <v>149.0413305130292</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -25314,7 +25314,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>157.5194642659765</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25356,28 +25356,28 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>64.00340032544321</v>
       </c>
       <c r="R37" t="n">
-        <v>165.3949386670144</v>
+        <v>91.66418150891985</v>
       </c>
       <c r="S37" t="n">
-        <v>135.696072841947</v>
+        <v>219.4049252012732</v>
       </c>
       <c r="T37" t="n">
-        <v>226.8149236834831</v>
+        <v>143.1060713241569</v>
       </c>
       <c r="U37" t="n">
-        <v>202.5957429663799</v>
+        <v>286.3045953257062</v>
       </c>
       <c r="V37" t="n">
-        <v>168.4287909645017</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>202.8141459772647</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>142.0008030297109</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>299.0249893041543</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25399,13 +25399,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>298.2215177129355</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>414.7128039286263</v>
+        <v>340.9820467705318</v>
       </c>
       <c r="H38" t="n">
         <v>333.4331447729346</v>
@@ -25444,22 +25444,22 @@
         <v>195.5769579836776</v>
       </c>
       <c r="T38" t="n">
-        <v>220.5134152891894</v>
+        <v>136.8045629298631</v>
       </c>
       <c r="U38" t="n">
         <v>251.2984582209158</v>
       </c>
       <c r="V38" t="n">
-        <v>244.0434061108086</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>265.5321163580867</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>312.507181497959</v>
+        <v>302.5290862967273</v>
       </c>
     </row>
     <row r="39">
@@ -25475,16 +25475,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>63.7362132053125</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>83.9143232973064</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>61.36036003405762</v>
       </c>
       <c r="G39" t="n">
-        <v>137.0278748673725</v>
+        <v>53.31902250804625</v>
       </c>
       <c r="H39" t="n">
         <v>109.1870041687965</v>
@@ -25517,13 +25517,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>6.829566731896321</v>
+        <v>80.56032388999088</v>
       </c>
       <c r="S39" t="n">
-        <v>82.11140153892156</v>
+        <v>165.8202538982478</v>
       </c>
       <c r="T39" t="n">
-        <v>115.1836163799021</v>
+        <v>198.8924687392284</v>
       </c>
       <c r="U39" t="n">
         <v>225.9206161404591</v>
@@ -25535,7 +25535,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>122.0641328441512</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>96.12312782261104</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25557,13 +25557,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>62.72511028724291</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.72635546074</v>
+        <v>84.01750310141374</v>
       </c>
       <c r="H40" t="n">
         <v>159.8744254895399</v>
@@ -25572,7 +25572,7 @@
         <v>147.4925126213155</v>
       </c>
       <c r="J40" t="n">
-        <v>74.65027054795544</v>
+        <v>64.92291371530408</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>165.3949386670144</v>
       </c>
       <c r="S40" t="n">
-        <v>135.696072841947</v>
+        <v>219.4049252012732</v>
       </c>
       <c r="T40" t="n">
         <v>226.8149236834831</v>
@@ -25608,13 +25608,13 @@
         <v>286.3045953257062</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>168.4287909645017</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>202.8141459772647</v>
       </c>
       <c r="X40" t="n">
-        <v>215.9822985563858</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25627,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>299.0249893041543</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>281.5640394116813</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25639,10 +25639,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>323.1671933823852</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>414.7128039286263</v>
+        <v>331.0039515693001</v>
       </c>
       <c r="H41" t="n">
         <v>333.4331447729346</v>
@@ -25675,19 +25675,19 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>29.10284992829418</v>
+        <v>112.8117022876204</v>
       </c>
       <c r="S41" t="n">
         <v>195.5769579836776</v>
       </c>
       <c r="T41" t="n">
-        <v>146.7826581310948</v>
+        <v>220.5134152891894</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2984582209158</v>
+        <v>177.5677010628212</v>
       </c>
       <c r="V41" t="n">
-        <v>244.0434061108086</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -25712,16 +25712,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>73.71430840654418</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>73.93622809607469</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>61.36036003405762</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>53.31902250804625</v>
+        <v>137.0278748673725</v>
       </c>
       <c r="H42" t="n">
         <v>109.1870041687965</v>
@@ -25754,10 +25754,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>80.5603238899909</v>
+        <v>6.829566731896307</v>
       </c>
       <c r="S42" t="n">
-        <v>165.8202538982478</v>
+        <v>82.11140153892156</v>
       </c>
       <c r="T42" t="n">
         <v>198.8924687392284</v>
@@ -25772,10 +25772,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>122.0641328441512</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>121.9738434179781</v>
       </c>
     </row>
     <row r="43">
@@ -25800,16 +25800,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.72635546074</v>
+        <v>84.01750310141374</v>
       </c>
       <c r="H43" t="n">
         <v>76.16557313021367</v>
       </c>
       <c r="I43" t="n">
-        <v>63.78366026198925</v>
+        <v>147.4925126213155</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>74.65027054795544</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>64.00340032544321</v>
       </c>
       <c r="R43" t="n">
-        <v>165.3949386670144</v>
+        <v>91.66418150891985</v>
       </c>
       <c r="S43" t="n">
-        <v>219.4049252012732</v>
+        <v>135.696072841947</v>
       </c>
       <c r="T43" t="n">
         <v>226.8149236834831</v>
       </c>
       <c r="U43" t="n">
-        <v>203.5152563562409</v>
+        <v>286.3045953257062</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25864,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>299.0249893041543</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>281.5640394116813</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25876,7 +25876,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>323.1671933823852</v>
       </c>
       <c r="G44" t="n">
         <v>414.7128039286263</v>
@@ -25912,16 +25912,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>112.8117022876204</v>
+        <v>29.10284992829416</v>
       </c>
       <c r="S44" t="n">
         <v>195.5769579836776</v>
       </c>
       <c r="T44" t="n">
-        <v>220.5134152891894</v>
+        <v>146.7826581310948</v>
       </c>
       <c r="U44" t="n">
-        <v>177.5677010628212</v>
+        <v>167.5896058615895</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25930,7 +25930,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>286.0222483191428</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -25943,7 +25943,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>82.82433129054108</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
@@ -25952,7 +25952,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>73.93622809607469</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
@@ -25961,7 +25961,7 @@
         <v>137.0278748673725</v>
       </c>
       <c r="H45" t="n">
-        <v>25.47815180947028</v>
+        <v>109.1870041687965</v>
       </c>
       <c r="I45" t="n">
         <v>78.52912398154929</v>
@@ -25991,22 +25991,22 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>80.5603238899909</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>165.8202538982478</v>
+        <v>82.11140153892156</v>
       </c>
       <c r="T45" t="n">
-        <v>198.8924687392284</v>
+        <v>115.1836163799021</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9206161404591</v>
+        <v>149.0413305130292</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>177.964226002825</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
@@ -26079,13 +26079,13 @@
         <v>143.1060713241569</v>
       </c>
       <c r="U46" t="n">
-        <v>202.5957429663799</v>
+        <v>286.3045953257062</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>202.8141459772647</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>365177.5146266681</v>
+        <v>365177.5146266682</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>365177.5146266681</v>
+        <v>365177.5146266682</v>
       </c>
     </row>
     <row r="12">
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>553011.5286340009</v>
+      </c>
+      <c r="C2" t="n">
+        <v>553011.5286340009</v>
+      </c>
+      <c r="D2" t="n">
         <v>553011.5286340008</v>
-      </c>
-      <c r="C2" t="n">
-        <v>553011.5286340008</v>
-      </c>
-      <c r="D2" t="n">
-        <v>553011.5286340009</v>
       </c>
       <c r="E2" t="n">
         <v>153465.4373200753</v>
@@ -26337,7 +26337,7 @@
         <v>185480.1256380403</v>
       </c>
       <c r="J2" t="n">
-        <v>185480.1256380403</v>
+        <v>185480.1256380402</v>
       </c>
       <c r="K2" t="n">
         <v>185480.1256380403</v>
@@ -26349,13 +26349,13 @@
         <v>185480.1256380403</v>
       </c>
       <c r="N2" t="n">
-        <v>185480.1256380402</v>
+        <v>185480.1256380403</v>
       </c>
       <c r="O2" t="n">
         <v>185480.1256380402</v>
       </c>
       <c r="P2" t="n">
-        <v>185480.1256380402</v>
+        <v>185480.1256380403</v>
       </c>
     </row>
     <row r="3">
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>22259.9417282444</v>
+        <v>22259.94172824437</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26426,16 +26426,16 @@
         <v>425523.1391661035</v>
       </c>
       <c r="E4" t="n">
-        <v>51636.17592363533</v>
+        <v>51636.17592363532</v>
       </c>
       <c r="F4" t="n">
-        <v>51636.17592363533</v>
+        <v>51636.17592363532</v>
       </c>
       <c r="G4" t="n">
-        <v>51636.17592363533</v>
+        <v>51636.17592363532</v>
       </c>
       <c r="H4" t="n">
-        <v>51636.17592363533</v>
+        <v>51636.17592363532</v>
       </c>
       <c r="I4" t="n">
         <v>69855.82872053637</v>
@@ -26447,16 +26447,16 @@
         <v>69855.82872053637</v>
       </c>
       <c r="L4" t="n">
-        <v>69855.82872053637</v>
+        <v>69855.82872053636</v>
       </c>
       <c r="M4" t="n">
         <v>69855.82872053637</v>
       </c>
       <c r="N4" t="n">
-        <v>69855.82872053639</v>
+        <v>69855.82872053637</v>
       </c>
       <c r="O4" t="n">
-        <v>69855.82872053639</v>
+        <v>69855.82872053637</v>
       </c>
       <c r="P4" t="n">
         <v>69855.82872053637</v>
@@ -26478,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>3199.062356240236</v>
+        <v>3199.062356240237</v>
       </c>
       <c r="F5" t="n">
-        <v>3199.062356240236</v>
+        <v>3199.062356240237</v>
       </c>
       <c r="G5" t="n">
-        <v>3199.062356240236</v>
+        <v>3199.062356240237</v>
       </c>
       <c r="H5" t="n">
-        <v>3199.062356240236</v>
+        <v>3199.062356240237</v>
       </c>
       <c r="I5" t="n">
-        <v>8288.560579687271</v>
+        <v>8288.560579687273</v>
       </c>
       <c r="J5" t="n">
-        <v>8288.560579687271</v>
+        <v>8288.560579687273</v>
       </c>
       <c r="K5" t="n">
-        <v>8288.560579687271</v>
+        <v>8288.560579687273</v>
       </c>
       <c r="L5" t="n">
-        <v>8288.560579687271</v>
+        <v>8288.560579687273</v>
       </c>
       <c r="M5" t="n">
-        <v>8288.560579687271</v>
+        <v>8288.560579687273</v>
       </c>
       <c r="N5" t="n">
-        <v>8288.560579687271</v>
+        <v>8288.560579687273</v>
       </c>
       <c r="O5" t="n">
-        <v>8288.560579687271</v>
+        <v>8288.560579687273</v>
       </c>
       <c r="P5" t="n">
-        <v>8288.560579687271</v>
+        <v>8288.560579687273</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>93860.7894678973</v>
+        <v>93816.65368921628</v>
       </c>
       <c r="C6" t="n">
-        <v>93860.78946789724</v>
+        <v>93816.65368921623</v>
       </c>
       <c r="D6" t="n">
-        <v>93860.78946789741</v>
+        <v>93816.65368921617</v>
       </c>
       <c r="E6" t="n">
-        <v>-19265.96124376695</v>
+        <v>-34108.10040444534</v>
       </c>
       <c r="F6" t="n">
-        <v>98630.19904019975</v>
+        <v>83788.05987952139</v>
       </c>
       <c r="G6" t="n">
-        <v>98630.19904019975</v>
+        <v>83788.05987952139</v>
       </c>
       <c r="H6" t="n">
-        <v>98630.19904019975</v>
+        <v>83788.05987952139</v>
       </c>
       <c r="I6" t="n">
-        <v>85075.79460957227</v>
+        <v>71419.38464585558</v>
       </c>
       <c r="J6" t="n">
-        <v>107335.7363378166</v>
+        <v>93679.32637409991</v>
       </c>
       <c r="K6" t="n">
-        <v>107335.7363378166</v>
+        <v>93679.32637409997</v>
       </c>
       <c r="L6" t="n">
-        <v>107335.7363378166</v>
+        <v>93679.32637409995</v>
       </c>
       <c r="M6" t="n">
-        <v>107335.7363378167</v>
+        <v>93679.32637409997</v>
       </c>
       <c r="N6" t="n">
-        <v>107335.7363378166</v>
+        <v>93679.32637409994</v>
       </c>
       <c r="O6" t="n">
-        <v>107335.7363378166</v>
+        <v>93679.32637409991</v>
       </c>
       <c r="P6" t="n">
-        <v>107335.7363378166</v>
+        <v>93679.32637409994</v>
       </c>
     </row>
   </sheetData>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>83.70885235932626</v>
+        <v>83.70885235932616</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5899335865087333</v>
+        <v>0.5899335865087334</v>
       </c>
       <c r="H11" t="n">
-        <v>6.041657342832566</v>
+        <v>6.041657342832568</v>
       </c>
       <c r="I11" t="n">
-        <v>22.74341459387796</v>
+        <v>22.74341459387797</v>
       </c>
       <c r="J11" t="n">
-        <v>50.06987573794564</v>
+        <v>50.06987573794566</v>
       </c>
       <c r="K11" t="n">
-        <v>75.04176445486034</v>
+        <v>75.04176445486036</v>
       </c>
       <c r="L11" t="n">
-        <v>93.09594445297701</v>
+        <v>93.09594445297702</v>
       </c>
       <c r="M11" t="n">
         <v>103.5871758720517</v>
       </c>
       <c r="N11" t="n">
-        <v>105.2633246747196</v>
+        <v>105.2633246747197</v>
       </c>
       <c r="O11" t="n">
-        <v>99.39717257387341</v>
+        <v>99.39717257387343</v>
       </c>
       <c r="P11" t="n">
-        <v>84.83318715693905</v>
+        <v>84.83318715693906</v>
       </c>
       <c r="Q11" t="n">
-        <v>63.70619059009501</v>
+        <v>63.70619059009503</v>
       </c>
       <c r="R11" t="n">
         <v>37.05741565352925</v>
       </c>
       <c r="S11" t="n">
-        <v>13.44311160256777</v>
+        <v>13.44311160256778</v>
       </c>
       <c r="T11" t="n">
-        <v>2.582434274941981</v>
+        <v>2.582434274941982</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04719468692069865</v>
+        <v>0.04719468692069866</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31834,40 +31834,40 @@
         <v>0.31564229583814</v>
       </c>
       <c r="H12" t="n">
-        <v>3.048440067699931</v>
+        <v>3.048440067699932</v>
       </c>
       <c r="I12" t="n">
-        <v>10.86750886986578</v>
+        <v>10.86750886986579</v>
       </c>
       <c r="J12" t="n">
         <v>29.82127497653234</v>
       </c>
       <c r="K12" t="n">
-        <v>50.96930879768771</v>
+        <v>50.96930879768772</v>
       </c>
       <c r="L12" t="n">
-        <v>68.53452568187333</v>
+        <v>68.53452568187335</v>
       </c>
       <c r="M12" t="n">
-        <v>79.97655890600588</v>
+        <v>79.97655890600589</v>
       </c>
       <c r="N12" t="n">
-        <v>82.09330044256956</v>
+        <v>82.09330044256959</v>
       </c>
       <c r="O12" t="n">
-        <v>75.09933167689287</v>
+        <v>75.09933167689289</v>
       </c>
       <c r="P12" t="n">
         <v>60.27383454474096</v>
       </c>
       <c r="Q12" t="n">
-        <v>40.29146218453169</v>
+        <v>40.2914621845317</v>
       </c>
       <c r="R12" t="n">
         <v>19.59751026265224</v>
       </c>
       <c r="S12" t="n">
-        <v>5.862917205590008</v>
+        <v>5.862917205590009</v>
       </c>
       <c r="T12" t="n">
         <v>1.272259955593204</v>
@@ -31910,19 +31910,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2646238977187741</v>
+        <v>0.2646238977187742</v>
       </c>
       <c r="H13" t="n">
-        <v>2.352747017899648</v>
+        <v>2.352747017899649</v>
       </c>
       <c r="I13" t="n">
-        <v>7.957962305942774</v>
+        <v>7.957962305942776</v>
       </c>
       <c r="J13" t="n">
         <v>18.70890956871733</v>
       </c>
       <c r="K13" t="n">
-        <v>30.74448557132666</v>
+        <v>30.74448557132667</v>
       </c>
       <c r="L13" t="n">
         <v>39.3423565753894</v>
@@ -31934,22 +31934,22 @@
         <v>40.49467336636481</v>
       </c>
       <c r="O13" t="n">
-        <v>37.40338510665002</v>
+        <v>37.40338510665003</v>
       </c>
       <c r="P13" t="n">
         <v>32.005057593187</v>
       </c>
       <c r="Q13" t="n">
-        <v>22.15864292625117</v>
+        <v>22.15864292625118</v>
       </c>
       <c r="R13" t="n">
         <v>11.89845271015506</v>
       </c>
       <c r="S13" t="n">
-        <v>4.611672835698999</v>
+        <v>4.611672835699</v>
       </c>
       <c r="T13" t="n">
-        <v>1.130665744798398</v>
+        <v>1.130665744798399</v>
       </c>
       <c r="U13" t="n">
         <v>0.01443403078466043</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5899335865087333</v>
+        <v>0.5899335865087334</v>
       </c>
       <c r="H14" t="n">
-        <v>6.041657342832566</v>
+        <v>6.041657342832568</v>
       </c>
       <c r="I14" t="n">
-        <v>22.74341459387796</v>
+        <v>22.74341459387797</v>
       </c>
       <c r="J14" t="n">
-        <v>50.06987573794564</v>
+        <v>50.06987573794566</v>
       </c>
       <c r="K14" t="n">
-        <v>75.04176445486034</v>
+        <v>75.04176445486036</v>
       </c>
       <c r="L14" t="n">
-        <v>93.09594445297701</v>
+        <v>93.09594445297702</v>
       </c>
       <c r="M14" t="n">
         <v>103.5871758720517</v>
       </c>
       <c r="N14" t="n">
-        <v>105.2633246747196</v>
+        <v>105.2633246747197</v>
       </c>
       <c r="O14" t="n">
-        <v>99.39717257387341</v>
+        <v>99.39717257387343</v>
       </c>
       <c r="P14" t="n">
-        <v>84.83318715693905</v>
+        <v>84.83318715693906</v>
       </c>
       <c r="Q14" t="n">
-        <v>63.70619059009501</v>
+        <v>63.70619059009503</v>
       </c>
       <c r="R14" t="n">
         <v>37.05741565352925</v>
       </c>
       <c r="S14" t="n">
-        <v>13.44311160256777</v>
+        <v>13.44311160256778</v>
       </c>
       <c r="T14" t="n">
-        <v>2.582434274941981</v>
+        <v>2.582434274941982</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04719468692069865</v>
+        <v>0.04719468692069866</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32071,40 +32071,40 @@
         <v>0.31564229583814</v>
       </c>
       <c r="H15" t="n">
-        <v>3.048440067699931</v>
+        <v>3.048440067699932</v>
       </c>
       <c r="I15" t="n">
-        <v>10.86750886986578</v>
+        <v>10.86750886986579</v>
       </c>
       <c r="J15" t="n">
         <v>29.82127497653234</v>
       </c>
       <c r="K15" t="n">
-        <v>50.96930879768771</v>
+        <v>50.96930879768772</v>
       </c>
       <c r="L15" t="n">
-        <v>68.53452568187333</v>
+        <v>68.53452568187335</v>
       </c>
       <c r="M15" t="n">
-        <v>79.97655890600588</v>
+        <v>79.97655890600589</v>
       </c>
       <c r="N15" t="n">
-        <v>82.09330044256956</v>
+        <v>82.09330044256959</v>
       </c>
       <c r="O15" t="n">
-        <v>75.09933167689287</v>
+        <v>75.09933167689289</v>
       </c>
       <c r="P15" t="n">
         <v>60.27383454474096</v>
       </c>
       <c r="Q15" t="n">
-        <v>40.29146218453169</v>
+        <v>40.2914621845317</v>
       </c>
       <c r="R15" t="n">
         <v>19.59751026265224</v>
       </c>
       <c r="S15" t="n">
-        <v>5.862917205590008</v>
+        <v>5.862917205590009</v>
       </c>
       <c r="T15" t="n">
         <v>1.272259955593204</v>
@@ -32147,19 +32147,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2646238977187741</v>
+        <v>0.2646238977187742</v>
       </c>
       <c r="H16" t="n">
-        <v>2.352747017899648</v>
+        <v>2.352747017899649</v>
       </c>
       <c r="I16" t="n">
-        <v>7.957962305942774</v>
+        <v>7.957962305942776</v>
       </c>
       <c r="J16" t="n">
         <v>18.70890956871733</v>
       </c>
       <c r="K16" t="n">
-        <v>30.74448557132666</v>
+        <v>30.74448557132667</v>
       </c>
       <c r="L16" t="n">
         <v>39.3423565753894</v>
@@ -32171,22 +32171,22 @@
         <v>40.49467336636481</v>
       </c>
       <c r="O16" t="n">
-        <v>37.40338510665002</v>
+        <v>37.40338510665003</v>
       </c>
       <c r="P16" t="n">
         <v>32.005057593187</v>
       </c>
       <c r="Q16" t="n">
-        <v>22.15864292625117</v>
+        <v>22.15864292625118</v>
       </c>
       <c r="R16" t="n">
         <v>11.89845271015506</v>
       </c>
       <c r="S16" t="n">
-        <v>4.611672835698999</v>
+        <v>4.611672835699</v>
       </c>
       <c r="T16" t="n">
-        <v>1.130665744798398</v>
+        <v>1.130665744798399</v>
       </c>
       <c r="U16" t="n">
         <v>0.01443403078466043</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5899335865087333</v>
+        <v>0.5899335865087334</v>
       </c>
       <c r="H17" t="n">
-        <v>6.041657342832566</v>
+        <v>6.041657342832568</v>
       </c>
       <c r="I17" t="n">
-        <v>22.74341459387796</v>
+        <v>22.74341459387797</v>
       </c>
       <c r="J17" t="n">
-        <v>50.06987573794564</v>
+        <v>50.06987573794566</v>
       </c>
       <c r="K17" t="n">
-        <v>75.04176445486034</v>
+        <v>75.04176445486036</v>
       </c>
       <c r="L17" t="n">
-        <v>93.09594445297701</v>
+        <v>93.09594445297702</v>
       </c>
       <c r="M17" t="n">
         <v>103.5871758720517</v>
       </c>
       <c r="N17" t="n">
-        <v>105.2633246747196</v>
+        <v>105.2633246747197</v>
       </c>
       <c r="O17" t="n">
-        <v>99.39717257387341</v>
+        <v>99.39717257387343</v>
       </c>
       <c r="P17" t="n">
-        <v>84.83318715693905</v>
+        <v>84.83318715693906</v>
       </c>
       <c r="Q17" t="n">
-        <v>63.70619059009501</v>
+        <v>63.70619059009503</v>
       </c>
       <c r="R17" t="n">
         <v>37.05741565352925</v>
       </c>
       <c r="S17" t="n">
-        <v>13.44311160256777</v>
+        <v>13.44311160256778</v>
       </c>
       <c r="T17" t="n">
-        <v>2.582434274941981</v>
+        <v>2.582434274941982</v>
       </c>
       <c r="U17" t="n">
-        <v>0.04719468692069865</v>
+        <v>0.04719468692069866</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32308,40 +32308,40 @@
         <v>0.31564229583814</v>
       </c>
       <c r="H18" t="n">
-        <v>3.048440067699931</v>
+        <v>3.048440067699932</v>
       </c>
       <c r="I18" t="n">
-        <v>10.86750886986578</v>
+        <v>10.86750886986579</v>
       </c>
       <c r="J18" t="n">
         <v>29.82127497653234</v>
       </c>
       <c r="K18" t="n">
-        <v>50.96930879768771</v>
+        <v>50.96930879768772</v>
       </c>
       <c r="L18" t="n">
-        <v>68.53452568187333</v>
+        <v>68.53452568187335</v>
       </c>
       <c r="M18" t="n">
-        <v>79.97655890600588</v>
+        <v>79.97655890600589</v>
       </c>
       <c r="N18" t="n">
-        <v>82.09330044256956</v>
+        <v>82.09330044256959</v>
       </c>
       <c r="O18" t="n">
-        <v>75.09933167689287</v>
+        <v>75.09933167689289</v>
       </c>
       <c r="P18" t="n">
         <v>60.27383454474096</v>
       </c>
       <c r="Q18" t="n">
-        <v>40.29146218453169</v>
+        <v>40.2914621845317</v>
       </c>
       <c r="R18" t="n">
         <v>19.59751026265224</v>
       </c>
       <c r="S18" t="n">
-        <v>5.862917205590008</v>
+        <v>5.862917205590009</v>
       </c>
       <c r="T18" t="n">
         <v>1.272259955593204</v>
@@ -32384,19 +32384,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2646238977187741</v>
+        <v>0.2646238977187742</v>
       </c>
       <c r="H19" t="n">
-        <v>2.352747017899648</v>
+        <v>2.352747017899649</v>
       </c>
       <c r="I19" t="n">
-        <v>7.957962305942774</v>
+        <v>7.957962305942776</v>
       </c>
       <c r="J19" t="n">
         <v>18.70890956871733</v>
       </c>
       <c r="K19" t="n">
-        <v>30.74448557132666</v>
+        <v>30.74448557132667</v>
       </c>
       <c r="L19" t="n">
         <v>39.3423565753894</v>
@@ -32408,22 +32408,22 @@
         <v>40.49467336636481</v>
       </c>
       <c r="O19" t="n">
-        <v>37.40338510665002</v>
+        <v>37.40338510665003</v>
       </c>
       <c r="P19" t="n">
         <v>32.005057593187</v>
       </c>
       <c r="Q19" t="n">
-        <v>22.15864292625117</v>
+        <v>22.15864292625118</v>
       </c>
       <c r="R19" t="n">
         <v>11.89845271015506</v>
       </c>
       <c r="S19" t="n">
-        <v>4.611672835698999</v>
+        <v>4.611672835699</v>
       </c>
       <c r="T19" t="n">
-        <v>1.130665744798398</v>
+        <v>1.130665744798399</v>
       </c>
       <c r="U19" t="n">
         <v>0.01443403078466043</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5899335865087333</v>
+        <v>0.5899335865087334</v>
       </c>
       <c r="H20" t="n">
-        <v>6.041657342832566</v>
+        <v>6.041657342832568</v>
       </c>
       <c r="I20" t="n">
-        <v>22.74341459387796</v>
+        <v>22.74341459387797</v>
       </c>
       <c r="J20" t="n">
-        <v>50.06987573794564</v>
+        <v>50.06987573794566</v>
       </c>
       <c r="K20" t="n">
-        <v>75.04176445486034</v>
+        <v>75.04176445486036</v>
       </c>
       <c r="L20" t="n">
-        <v>93.09594445297701</v>
+        <v>93.09594445297702</v>
       </c>
       <c r="M20" t="n">
         <v>103.5871758720517</v>
       </c>
       <c r="N20" t="n">
-        <v>105.2633246747196</v>
+        <v>105.2633246747197</v>
       </c>
       <c r="O20" t="n">
-        <v>99.39717257387341</v>
+        <v>99.39717257387343</v>
       </c>
       <c r="P20" t="n">
-        <v>84.83318715693905</v>
+        <v>84.83318715693906</v>
       </c>
       <c r="Q20" t="n">
-        <v>63.70619059009501</v>
+        <v>63.70619059009503</v>
       </c>
       <c r="R20" t="n">
         <v>37.05741565352925</v>
       </c>
       <c r="S20" t="n">
-        <v>13.44311160256777</v>
+        <v>13.44311160256778</v>
       </c>
       <c r="T20" t="n">
-        <v>2.582434274941981</v>
+        <v>2.582434274941982</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04719468692069865</v>
+        <v>0.04719468692069866</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32545,40 +32545,40 @@
         <v>0.31564229583814</v>
       </c>
       <c r="H21" t="n">
-        <v>3.048440067699931</v>
+        <v>3.048440067699932</v>
       </c>
       <c r="I21" t="n">
-        <v>10.86750886986578</v>
+        <v>10.86750886986579</v>
       </c>
       <c r="J21" t="n">
         <v>29.82127497653234</v>
       </c>
       <c r="K21" t="n">
-        <v>50.96930879768771</v>
+        <v>50.96930879768772</v>
       </c>
       <c r="L21" t="n">
-        <v>68.53452568187333</v>
+        <v>68.53452568187335</v>
       </c>
       <c r="M21" t="n">
-        <v>79.97655890600588</v>
+        <v>79.97655890600589</v>
       </c>
       <c r="N21" t="n">
-        <v>82.09330044256956</v>
+        <v>82.09330044256959</v>
       </c>
       <c r="O21" t="n">
-        <v>75.09933167689287</v>
+        <v>75.09933167689289</v>
       </c>
       <c r="P21" t="n">
         <v>60.27383454474096</v>
       </c>
       <c r="Q21" t="n">
-        <v>40.29146218453169</v>
+        <v>40.2914621845317</v>
       </c>
       <c r="R21" t="n">
         <v>19.59751026265224</v>
       </c>
       <c r="S21" t="n">
-        <v>5.862917205590008</v>
+        <v>5.862917205590009</v>
       </c>
       <c r="T21" t="n">
         <v>1.272259955593204</v>
@@ -32621,19 +32621,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2646238977187741</v>
+        <v>0.2646238977187742</v>
       </c>
       <c r="H22" t="n">
-        <v>2.352747017899648</v>
+        <v>2.352747017899649</v>
       </c>
       <c r="I22" t="n">
-        <v>7.957962305942774</v>
+        <v>7.957962305942776</v>
       </c>
       <c r="J22" t="n">
         <v>18.70890956871733</v>
       </c>
       <c r="K22" t="n">
-        <v>30.74448557132666</v>
+        <v>30.74448557132667</v>
       </c>
       <c r="L22" t="n">
         <v>39.3423565753894</v>
@@ -32645,22 +32645,22 @@
         <v>40.49467336636481</v>
       </c>
       <c r="O22" t="n">
-        <v>37.40338510665002</v>
+        <v>37.40338510665003</v>
       </c>
       <c r="P22" t="n">
         <v>32.005057593187</v>
       </c>
       <c r="Q22" t="n">
-        <v>22.15864292625117</v>
+        <v>22.15864292625118</v>
       </c>
       <c r="R22" t="n">
         <v>11.89845271015506</v>
       </c>
       <c r="S22" t="n">
-        <v>4.611672835698999</v>
+        <v>4.611672835699</v>
       </c>
       <c r="T22" t="n">
-        <v>1.130665744798398</v>
+        <v>1.130665744798399</v>
       </c>
       <c r="U22" t="n">
         <v>0.01443403078466043</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5899335865087333</v>
+        <v>0.5899335865087334</v>
       </c>
       <c r="H23" t="n">
-        <v>6.041657342832566</v>
+        <v>6.041657342832568</v>
       </c>
       <c r="I23" t="n">
-        <v>22.74341459387796</v>
+        <v>22.74341459387797</v>
       </c>
       <c r="J23" t="n">
-        <v>50.06987573794564</v>
+        <v>50.06987573794566</v>
       </c>
       <c r="K23" t="n">
-        <v>75.04176445486034</v>
+        <v>75.04176445486036</v>
       </c>
       <c r="L23" t="n">
-        <v>93.09594445297701</v>
+        <v>93.09594445297702</v>
       </c>
       <c r="M23" t="n">
         <v>103.5871758720517</v>
       </c>
       <c r="N23" t="n">
-        <v>105.2633246747196</v>
+        <v>105.2633246747197</v>
       </c>
       <c r="O23" t="n">
-        <v>99.39717257387341</v>
+        <v>99.39717257387343</v>
       </c>
       <c r="P23" t="n">
-        <v>84.83318715693905</v>
+        <v>84.83318715693906</v>
       </c>
       <c r="Q23" t="n">
-        <v>63.70619059009501</v>
+        <v>63.70619059009503</v>
       </c>
       <c r="R23" t="n">
         <v>37.05741565352925</v>
       </c>
       <c r="S23" t="n">
-        <v>13.44311160256777</v>
+        <v>13.44311160256778</v>
       </c>
       <c r="T23" t="n">
-        <v>2.582434274941981</v>
+        <v>2.582434274941982</v>
       </c>
       <c r="U23" t="n">
-        <v>0.04719468692069865</v>
+        <v>0.04719468692069866</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32782,40 +32782,40 @@
         <v>0.31564229583814</v>
       </c>
       <c r="H24" t="n">
-        <v>3.048440067699931</v>
+        <v>3.048440067699932</v>
       </c>
       <c r="I24" t="n">
-        <v>10.86750886986578</v>
+        <v>10.86750886986579</v>
       </c>
       <c r="J24" t="n">
         <v>29.82127497653234</v>
       </c>
       <c r="K24" t="n">
-        <v>50.96930879768771</v>
+        <v>50.96930879768772</v>
       </c>
       <c r="L24" t="n">
-        <v>68.53452568187333</v>
+        <v>68.53452568187335</v>
       </c>
       <c r="M24" t="n">
-        <v>79.97655890600588</v>
+        <v>79.97655890600589</v>
       </c>
       <c r="N24" t="n">
-        <v>82.09330044256956</v>
+        <v>82.09330044256959</v>
       </c>
       <c r="O24" t="n">
-        <v>75.09933167689287</v>
+        <v>75.09933167689289</v>
       </c>
       <c r="P24" t="n">
         <v>60.27383454474096</v>
       </c>
       <c r="Q24" t="n">
-        <v>40.29146218453169</v>
+        <v>40.2914621845317</v>
       </c>
       <c r="R24" t="n">
         <v>19.59751026265224</v>
       </c>
       <c r="S24" t="n">
-        <v>5.862917205590008</v>
+        <v>5.862917205590009</v>
       </c>
       <c r="T24" t="n">
         <v>1.272259955593204</v>
@@ -32858,19 +32858,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2646238977187741</v>
+        <v>0.2646238977187742</v>
       </c>
       <c r="H25" t="n">
-        <v>2.352747017899648</v>
+        <v>2.352747017899649</v>
       </c>
       <c r="I25" t="n">
-        <v>7.957962305942774</v>
+        <v>7.957962305942776</v>
       </c>
       <c r="J25" t="n">
         <v>18.70890956871733</v>
       </c>
       <c r="K25" t="n">
-        <v>30.74448557132666</v>
+        <v>30.74448557132667</v>
       </c>
       <c r="L25" t="n">
         <v>39.3423565753894</v>
@@ -32882,22 +32882,22 @@
         <v>40.49467336636481</v>
       </c>
       <c r="O25" t="n">
-        <v>37.40338510665002</v>
+        <v>37.40338510665003</v>
       </c>
       <c r="P25" t="n">
         <v>32.005057593187</v>
       </c>
       <c r="Q25" t="n">
-        <v>22.15864292625117</v>
+        <v>22.15864292625118</v>
       </c>
       <c r="R25" t="n">
         <v>11.89845271015506</v>
       </c>
       <c r="S25" t="n">
-        <v>4.611672835698999</v>
+        <v>4.611672835699</v>
       </c>
       <c r="T25" t="n">
-        <v>1.130665744798398</v>
+        <v>1.130665744798399</v>
       </c>
       <c r="U25" t="n">
         <v>0.01443403078466043</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5899335865087333</v>
+        <v>0.5899335865087334</v>
       </c>
       <c r="H26" t="n">
-        <v>6.041657342832566</v>
+        <v>6.041657342832568</v>
       </c>
       <c r="I26" t="n">
-        <v>22.74341459387796</v>
+        <v>22.74341459387797</v>
       </c>
       <c r="J26" t="n">
-        <v>50.06987573794564</v>
+        <v>50.06987573794566</v>
       </c>
       <c r="K26" t="n">
-        <v>75.04176445486034</v>
+        <v>75.04176445486036</v>
       </c>
       <c r="L26" t="n">
-        <v>93.09594445297701</v>
+        <v>93.09594445297702</v>
       </c>
       <c r="M26" t="n">
         <v>103.5871758720517</v>
       </c>
       <c r="N26" t="n">
-        <v>105.2633246747196</v>
+        <v>105.2633246747197</v>
       </c>
       <c r="O26" t="n">
-        <v>99.39717257387341</v>
+        <v>99.39717257387343</v>
       </c>
       <c r="P26" t="n">
-        <v>84.83318715693905</v>
+        <v>84.83318715693906</v>
       </c>
       <c r="Q26" t="n">
-        <v>63.70619059009501</v>
+        <v>63.70619059009503</v>
       </c>
       <c r="R26" t="n">
         <v>37.05741565352925</v>
       </c>
       <c r="S26" t="n">
-        <v>13.44311160256777</v>
+        <v>13.44311160256778</v>
       </c>
       <c r="T26" t="n">
-        <v>2.582434274941981</v>
+        <v>2.582434274941982</v>
       </c>
       <c r="U26" t="n">
-        <v>0.04719468692069865</v>
+        <v>0.04719468692069866</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33019,40 +33019,40 @@
         <v>0.31564229583814</v>
       </c>
       <c r="H27" t="n">
-        <v>3.048440067699931</v>
+        <v>3.048440067699932</v>
       </c>
       <c r="I27" t="n">
-        <v>10.86750886986578</v>
+        <v>10.86750886986579</v>
       </c>
       <c r="J27" t="n">
         <v>29.82127497653234</v>
       </c>
       <c r="K27" t="n">
-        <v>50.96930879768771</v>
+        <v>50.96930879768772</v>
       </c>
       <c r="L27" t="n">
-        <v>68.53452568187333</v>
+        <v>68.53452568187335</v>
       </c>
       <c r="M27" t="n">
-        <v>79.97655890600588</v>
+        <v>79.97655890600589</v>
       </c>
       <c r="N27" t="n">
-        <v>82.09330044256956</v>
+        <v>82.09330044256959</v>
       </c>
       <c r="O27" t="n">
-        <v>75.09933167689287</v>
+        <v>75.09933167689289</v>
       </c>
       <c r="P27" t="n">
         <v>60.27383454474096</v>
       </c>
       <c r="Q27" t="n">
-        <v>40.29146218453169</v>
+        <v>40.2914621845317</v>
       </c>
       <c r="R27" t="n">
         <v>19.59751026265224</v>
       </c>
       <c r="S27" t="n">
-        <v>5.862917205590008</v>
+        <v>5.862917205590009</v>
       </c>
       <c r="T27" t="n">
         <v>1.272259955593204</v>
@@ -33095,19 +33095,19 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2646238977187741</v>
+        <v>0.2646238977187742</v>
       </c>
       <c r="H28" t="n">
-        <v>2.352747017899648</v>
+        <v>2.352747017899649</v>
       </c>
       <c r="I28" t="n">
-        <v>7.957962305942774</v>
+        <v>7.957962305942776</v>
       </c>
       <c r="J28" t="n">
         <v>18.70890956871733</v>
       </c>
       <c r="K28" t="n">
-        <v>30.74448557132666</v>
+        <v>30.74448557132667</v>
       </c>
       <c r="L28" t="n">
         <v>39.3423565753894</v>
@@ -33119,22 +33119,22 @@
         <v>40.49467336636481</v>
       </c>
       <c r="O28" t="n">
-        <v>37.40338510665002</v>
+        <v>37.40338510665003</v>
       </c>
       <c r="P28" t="n">
         <v>32.005057593187</v>
       </c>
       <c r="Q28" t="n">
-        <v>22.15864292625117</v>
+        <v>22.15864292625118</v>
       </c>
       <c r="R28" t="n">
         <v>11.89845271015506</v>
       </c>
       <c r="S28" t="n">
-        <v>4.611672835698999</v>
+        <v>4.611672835699</v>
       </c>
       <c r="T28" t="n">
-        <v>1.130665744798398</v>
+        <v>1.130665744798399</v>
       </c>
       <c r="U28" t="n">
         <v>0.01443403078466043</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5899335865087333</v>
+        <v>0.5899335865087334</v>
       </c>
       <c r="H29" t="n">
-        <v>6.041657342832566</v>
+        <v>6.041657342832568</v>
       </c>
       <c r="I29" t="n">
-        <v>22.74341459387796</v>
+        <v>22.74341459387797</v>
       </c>
       <c r="J29" t="n">
-        <v>50.06987573794564</v>
+        <v>50.06987573794566</v>
       </c>
       <c r="K29" t="n">
-        <v>75.04176445486034</v>
+        <v>75.04176445486036</v>
       </c>
       <c r="L29" t="n">
-        <v>93.09594445297701</v>
+        <v>93.09594445297702</v>
       </c>
       <c r="M29" t="n">
         <v>103.5871758720517</v>
       </c>
       <c r="N29" t="n">
-        <v>105.2633246747196</v>
+        <v>105.2633246747197</v>
       </c>
       <c r="O29" t="n">
-        <v>99.39717257387341</v>
+        <v>99.39717257387343</v>
       </c>
       <c r="P29" t="n">
-        <v>84.83318715693905</v>
+        <v>84.83318715693906</v>
       </c>
       <c r="Q29" t="n">
-        <v>63.70619059009501</v>
+        <v>63.70619059009503</v>
       </c>
       <c r="R29" t="n">
         <v>37.05741565352925</v>
       </c>
       <c r="S29" t="n">
-        <v>13.44311160256777</v>
+        <v>13.44311160256778</v>
       </c>
       <c r="T29" t="n">
-        <v>2.582434274941981</v>
+        <v>2.582434274941982</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04719468692069865</v>
+        <v>0.04719468692069866</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33256,40 +33256,40 @@
         <v>0.31564229583814</v>
       </c>
       <c r="H30" t="n">
-        <v>3.048440067699931</v>
+        <v>3.048440067699932</v>
       </c>
       <c r="I30" t="n">
-        <v>10.86750886986578</v>
+        <v>10.86750886986579</v>
       </c>
       <c r="J30" t="n">
         <v>29.82127497653234</v>
       </c>
       <c r="K30" t="n">
-        <v>50.96930879768771</v>
+        <v>50.96930879768772</v>
       </c>
       <c r="L30" t="n">
-        <v>68.53452568187333</v>
+        <v>68.53452568187335</v>
       </c>
       <c r="M30" t="n">
-        <v>79.97655890600588</v>
+        <v>79.97655890600589</v>
       </c>
       <c r="N30" t="n">
-        <v>82.09330044256956</v>
+        <v>82.09330044256959</v>
       </c>
       <c r="O30" t="n">
-        <v>75.09933167689287</v>
+        <v>75.09933167689289</v>
       </c>
       <c r="P30" t="n">
         <v>60.27383454474096</v>
       </c>
       <c r="Q30" t="n">
-        <v>40.29146218453169</v>
+        <v>40.2914621845317</v>
       </c>
       <c r="R30" t="n">
         <v>19.59751026265224</v>
       </c>
       <c r="S30" t="n">
-        <v>5.862917205590008</v>
+        <v>5.862917205590009</v>
       </c>
       <c r="T30" t="n">
         <v>1.272259955593204</v>
@@ -33332,19 +33332,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2646238977187741</v>
+        <v>0.2646238977187742</v>
       </c>
       <c r="H31" t="n">
-        <v>2.352747017899648</v>
+        <v>2.352747017899649</v>
       </c>
       <c r="I31" t="n">
-        <v>7.957962305942774</v>
+        <v>7.957962305942776</v>
       </c>
       <c r="J31" t="n">
         <v>18.70890956871733</v>
       </c>
       <c r="K31" t="n">
-        <v>30.74448557132666</v>
+        <v>30.74448557132667</v>
       </c>
       <c r="L31" t="n">
         <v>39.3423565753894</v>
@@ -33356,22 +33356,22 @@
         <v>40.49467336636481</v>
       </c>
       <c r="O31" t="n">
-        <v>37.40338510665002</v>
+        <v>37.40338510665003</v>
       </c>
       <c r="P31" t="n">
         <v>32.005057593187</v>
       </c>
       <c r="Q31" t="n">
-        <v>22.15864292625117</v>
+        <v>22.15864292625118</v>
       </c>
       <c r="R31" t="n">
         <v>11.89845271015506</v>
       </c>
       <c r="S31" t="n">
-        <v>4.611672835698999</v>
+        <v>4.611672835699</v>
       </c>
       <c r="T31" t="n">
-        <v>1.130665744798398</v>
+        <v>1.130665744798399</v>
       </c>
       <c r="U31" t="n">
         <v>0.01443403078466043</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5899335865087333</v>
+        <v>0.5899335865087334</v>
       </c>
       <c r="H32" t="n">
-        <v>6.041657342832566</v>
+        <v>6.041657342832568</v>
       </c>
       <c r="I32" t="n">
-        <v>22.74341459387796</v>
+        <v>22.74341459387797</v>
       </c>
       <c r="J32" t="n">
-        <v>50.06987573794564</v>
+        <v>50.06987573794566</v>
       </c>
       <c r="K32" t="n">
-        <v>75.04176445486034</v>
+        <v>75.04176445486036</v>
       </c>
       <c r="L32" t="n">
-        <v>93.09594445297701</v>
+        <v>93.09594445297702</v>
       </c>
       <c r="M32" t="n">
         <v>103.5871758720517</v>
       </c>
       <c r="N32" t="n">
-        <v>105.2633246747196</v>
+        <v>105.2633246747197</v>
       </c>
       <c r="O32" t="n">
-        <v>99.39717257387341</v>
+        <v>99.39717257387343</v>
       </c>
       <c r="P32" t="n">
-        <v>84.83318715693905</v>
+        <v>84.83318715693906</v>
       </c>
       <c r="Q32" t="n">
-        <v>63.70619059009501</v>
+        <v>63.70619059009503</v>
       </c>
       <c r="R32" t="n">
         <v>37.05741565352925</v>
       </c>
       <c r="S32" t="n">
-        <v>13.44311160256777</v>
+        <v>13.44311160256778</v>
       </c>
       <c r="T32" t="n">
-        <v>2.582434274941981</v>
+        <v>2.582434274941982</v>
       </c>
       <c r="U32" t="n">
-        <v>0.04719468692069865</v>
+        <v>0.04719468692069866</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33493,40 +33493,40 @@
         <v>0.31564229583814</v>
       </c>
       <c r="H33" t="n">
-        <v>3.048440067699931</v>
+        <v>3.048440067699932</v>
       </c>
       <c r="I33" t="n">
-        <v>10.86750886986578</v>
+        <v>10.86750886986579</v>
       </c>
       <c r="J33" t="n">
         <v>29.82127497653234</v>
       </c>
       <c r="K33" t="n">
-        <v>50.96930879768771</v>
+        <v>50.96930879768772</v>
       </c>
       <c r="L33" t="n">
-        <v>68.53452568187333</v>
+        <v>68.53452568187335</v>
       </c>
       <c r="M33" t="n">
-        <v>79.97655890600588</v>
+        <v>79.97655890600589</v>
       </c>
       <c r="N33" t="n">
-        <v>82.09330044256956</v>
+        <v>82.09330044256959</v>
       </c>
       <c r="O33" t="n">
-        <v>75.09933167689287</v>
+        <v>75.09933167689289</v>
       </c>
       <c r="P33" t="n">
         <v>60.27383454474096</v>
       </c>
       <c r="Q33" t="n">
-        <v>40.29146218453169</v>
+        <v>40.2914621845317</v>
       </c>
       <c r="R33" t="n">
         <v>19.59751026265224</v>
       </c>
       <c r="S33" t="n">
-        <v>5.862917205590008</v>
+        <v>5.862917205590009</v>
       </c>
       <c r="T33" t="n">
         <v>1.272259955593204</v>
@@ -33569,19 +33569,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2646238977187741</v>
+        <v>0.2646238977187742</v>
       </c>
       <c r="H34" t="n">
-        <v>2.352747017899648</v>
+        <v>2.352747017899649</v>
       </c>
       <c r="I34" t="n">
-        <v>7.957962305942774</v>
+        <v>7.957962305942776</v>
       </c>
       <c r="J34" t="n">
         <v>18.70890956871733</v>
       </c>
       <c r="K34" t="n">
-        <v>30.74448557132666</v>
+        <v>30.74448557132667</v>
       </c>
       <c r="L34" t="n">
         <v>39.3423565753894</v>
@@ -33593,22 +33593,22 @@
         <v>40.49467336636481</v>
       </c>
       <c r="O34" t="n">
-        <v>37.40338510665002</v>
+        <v>37.40338510665003</v>
       </c>
       <c r="P34" t="n">
         <v>32.005057593187</v>
       </c>
       <c r="Q34" t="n">
-        <v>22.15864292625117</v>
+        <v>22.15864292625118</v>
       </c>
       <c r="R34" t="n">
         <v>11.89845271015506</v>
       </c>
       <c r="S34" t="n">
-        <v>4.611672835698999</v>
+        <v>4.611672835699</v>
       </c>
       <c r="T34" t="n">
-        <v>1.130665744798398</v>
+        <v>1.130665744798399</v>
       </c>
       <c r="U34" t="n">
         <v>0.01443403078466043</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5899335865087333</v>
+        <v>0.5899335865087334</v>
       </c>
       <c r="H35" t="n">
-        <v>6.041657342832566</v>
+        <v>6.041657342832568</v>
       </c>
       <c r="I35" t="n">
-        <v>22.74341459387796</v>
+        <v>22.74341459387797</v>
       </c>
       <c r="J35" t="n">
-        <v>50.06987573794564</v>
+        <v>50.06987573794566</v>
       </c>
       <c r="K35" t="n">
-        <v>75.04176445486034</v>
+        <v>75.04176445486036</v>
       </c>
       <c r="L35" t="n">
-        <v>93.09594445297701</v>
+        <v>93.09594445297702</v>
       </c>
       <c r="M35" t="n">
         <v>103.5871758720517</v>
       </c>
       <c r="N35" t="n">
-        <v>105.2633246747196</v>
+        <v>105.2633246747197</v>
       </c>
       <c r="O35" t="n">
-        <v>99.39717257387341</v>
+        <v>99.39717257387343</v>
       </c>
       <c r="P35" t="n">
-        <v>84.83318715693905</v>
+        <v>84.83318715693906</v>
       </c>
       <c r="Q35" t="n">
-        <v>63.70619059009501</v>
+        <v>63.70619059009503</v>
       </c>
       <c r="R35" t="n">
         <v>37.05741565352925</v>
       </c>
       <c r="S35" t="n">
-        <v>13.44311160256777</v>
+        <v>13.44311160256778</v>
       </c>
       <c r="T35" t="n">
-        <v>2.582434274941981</v>
+        <v>2.582434274941982</v>
       </c>
       <c r="U35" t="n">
-        <v>0.04719468692069865</v>
+        <v>0.04719468692069866</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33730,40 +33730,40 @@
         <v>0.31564229583814</v>
       </c>
       <c r="H36" t="n">
-        <v>3.048440067699931</v>
+        <v>3.048440067699932</v>
       </c>
       <c r="I36" t="n">
-        <v>10.86750886986578</v>
+        <v>10.86750886986579</v>
       </c>
       <c r="J36" t="n">
         <v>29.82127497653234</v>
       </c>
       <c r="K36" t="n">
-        <v>50.96930879768771</v>
+        <v>50.96930879768772</v>
       </c>
       <c r="L36" t="n">
-        <v>68.53452568187333</v>
+        <v>68.53452568187335</v>
       </c>
       <c r="M36" t="n">
-        <v>79.97655890600588</v>
+        <v>79.97655890600589</v>
       </c>
       <c r="N36" t="n">
-        <v>82.09330044256956</v>
+        <v>82.09330044256959</v>
       </c>
       <c r="O36" t="n">
-        <v>75.09933167689287</v>
+        <v>75.09933167689289</v>
       </c>
       <c r="P36" t="n">
         <v>60.27383454474096</v>
       </c>
       <c r="Q36" t="n">
-        <v>40.29146218453169</v>
+        <v>40.2914621845317</v>
       </c>
       <c r="R36" t="n">
         <v>19.59751026265224</v>
       </c>
       <c r="S36" t="n">
-        <v>5.862917205590008</v>
+        <v>5.862917205590009</v>
       </c>
       <c r="T36" t="n">
         <v>1.272259955593204</v>
@@ -33806,19 +33806,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2646238977187741</v>
+        <v>0.2646238977187742</v>
       </c>
       <c r="H37" t="n">
-        <v>2.352747017899648</v>
+        <v>2.352747017899649</v>
       </c>
       <c r="I37" t="n">
-        <v>7.957962305942774</v>
+        <v>7.957962305942776</v>
       </c>
       <c r="J37" t="n">
         <v>18.70890956871733</v>
       </c>
       <c r="K37" t="n">
-        <v>30.74448557132666</v>
+        <v>30.74448557132667</v>
       </c>
       <c r="L37" t="n">
         <v>39.3423565753894</v>
@@ -33830,22 +33830,22 @@
         <v>40.49467336636481</v>
       </c>
       <c r="O37" t="n">
-        <v>37.40338510665002</v>
+        <v>37.40338510665003</v>
       </c>
       <c r="P37" t="n">
         <v>32.005057593187</v>
       </c>
       <c r="Q37" t="n">
-        <v>22.15864292625117</v>
+        <v>22.15864292625118</v>
       </c>
       <c r="R37" t="n">
         <v>11.89845271015506</v>
       </c>
       <c r="S37" t="n">
-        <v>4.611672835698999</v>
+        <v>4.611672835699</v>
       </c>
       <c r="T37" t="n">
-        <v>1.130665744798398</v>
+        <v>1.130665744798399</v>
       </c>
       <c r="U37" t="n">
         <v>0.01443403078466043</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5899335865087333</v>
+        <v>0.5899335865087334</v>
       </c>
       <c r="H38" t="n">
-        <v>6.041657342832566</v>
+        <v>6.041657342832568</v>
       </c>
       <c r="I38" t="n">
-        <v>22.74341459387796</v>
+        <v>22.74341459387797</v>
       </c>
       <c r="J38" t="n">
-        <v>50.06987573794564</v>
+        <v>50.06987573794566</v>
       </c>
       <c r="K38" t="n">
-        <v>75.04176445486034</v>
+        <v>75.04176445486036</v>
       </c>
       <c r="L38" t="n">
-        <v>93.09594445297701</v>
+        <v>93.09594445297702</v>
       </c>
       <c r="M38" t="n">
         <v>103.5871758720517</v>
       </c>
       <c r="N38" t="n">
-        <v>105.2633246747196</v>
+        <v>105.2633246747197</v>
       </c>
       <c r="O38" t="n">
-        <v>99.39717257387341</v>
+        <v>99.39717257387343</v>
       </c>
       <c r="P38" t="n">
-        <v>84.83318715693905</v>
+        <v>84.83318715693906</v>
       </c>
       <c r="Q38" t="n">
-        <v>63.70619059009501</v>
+        <v>63.70619059009503</v>
       </c>
       <c r="R38" t="n">
         <v>37.05741565352925</v>
       </c>
       <c r="S38" t="n">
-        <v>13.44311160256777</v>
+        <v>13.44311160256778</v>
       </c>
       <c r="T38" t="n">
-        <v>2.582434274941981</v>
+        <v>2.582434274941982</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04719468692069865</v>
+        <v>0.04719468692069866</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33967,40 +33967,40 @@
         <v>0.31564229583814</v>
       </c>
       <c r="H39" t="n">
-        <v>3.048440067699931</v>
+        <v>3.048440067699932</v>
       </c>
       <c r="I39" t="n">
-        <v>10.86750886986578</v>
+        <v>10.86750886986579</v>
       </c>
       <c r="J39" t="n">
         <v>29.82127497653234</v>
       </c>
       <c r="K39" t="n">
-        <v>50.96930879768771</v>
+        <v>50.96930879768772</v>
       </c>
       <c r="L39" t="n">
-        <v>68.53452568187333</v>
+        <v>68.53452568187335</v>
       </c>
       <c r="M39" t="n">
-        <v>79.97655890600588</v>
+        <v>79.97655890600589</v>
       </c>
       <c r="N39" t="n">
-        <v>82.09330044256956</v>
+        <v>82.09330044256959</v>
       </c>
       <c r="O39" t="n">
-        <v>75.09933167689287</v>
+        <v>75.09933167689289</v>
       </c>
       <c r="P39" t="n">
         <v>60.27383454474096</v>
       </c>
       <c r="Q39" t="n">
-        <v>40.29146218453169</v>
+        <v>40.2914621845317</v>
       </c>
       <c r="R39" t="n">
         <v>19.59751026265224</v>
       </c>
       <c r="S39" t="n">
-        <v>5.862917205590008</v>
+        <v>5.862917205590009</v>
       </c>
       <c r="T39" t="n">
         <v>1.272259955593204</v>
@@ -34043,19 +34043,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2646238977187741</v>
+        <v>0.2646238977187742</v>
       </c>
       <c r="H40" t="n">
-        <v>2.352747017899648</v>
+        <v>2.352747017899649</v>
       </c>
       <c r="I40" t="n">
-        <v>7.957962305942774</v>
+        <v>7.957962305942776</v>
       </c>
       <c r="J40" t="n">
         <v>18.70890956871733</v>
       </c>
       <c r="K40" t="n">
-        <v>30.74448557132666</v>
+        <v>30.74448557132667</v>
       </c>
       <c r="L40" t="n">
         <v>39.3423565753894</v>
@@ -34067,22 +34067,22 @@
         <v>40.49467336636481</v>
       </c>
       <c r="O40" t="n">
-        <v>37.40338510665002</v>
+        <v>37.40338510665003</v>
       </c>
       <c r="P40" t="n">
         <v>32.005057593187</v>
       </c>
       <c r="Q40" t="n">
-        <v>22.15864292625117</v>
+        <v>22.15864292625118</v>
       </c>
       <c r="R40" t="n">
         <v>11.89845271015506</v>
       </c>
       <c r="S40" t="n">
-        <v>4.611672835698999</v>
+        <v>4.611672835699</v>
       </c>
       <c r="T40" t="n">
-        <v>1.130665744798398</v>
+        <v>1.130665744798399</v>
       </c>
       <c r="U40" t="n">
         <v>0.01443403078466043</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5899335865087333</v>
+        <v>0.5899335865087334</v>
       </c>
       <c r="H41" t="n">
-        <v>6.041657342832566</v>
+        <v>6.041657342832568</v>
       </c>
       <c r="I41" t="n">
-        <v>22.74341459387796</v>
+        <v>22.74341459387797</v>
       </c>
       <c r="J41" t="n">
-        <v>50.06987573794564</v>
+        <v>50.06987573794566</v>
       </c>
       <c r="K41" t="n">
-        <v>75.04176445486034</v>
+        <v>75.04176445486036</v>
       </c>
       <c r="L41" t="n">
-        <v>93.09594445297701</v>
+        <v>93.09594445297702</v>
       </c>
       <c r="M41" t="n">
         <v>103.5871758720517</v>
       </c>
       <c r="N41" t="n">
-        <v>105.2633246747196</v>
+        <v>105.2633246747197</v>
       </c>
       <c r="O41" t="n">
-        <v>99.39717257387341</v>
+        <v>99.39717257387343</v>
       </c>
       <c r="P41" t="n">
-        <v>84.83318715693905</v>
+        <v>84.83318715693906</v>
       </c>
       <c r="Q41" t="n">
-        <v>63.70619059009501</v>
+        <v>63.70619059009503</v>
       </c>
       <c r="R41" t="n">
         <v>37.05741565352925</v>
       </c>
       <c r="S41" t="n">
-        <v>13.44311160256777</v>
+        <v>13.44311160256778</v>
       </c>
       <c r="T41" t="n">
-        <v>2.582434274941981</v>
+        <v>2.582434274941982</v>
       </c>
       <c r="U41" t="n">
-        <v>0.04719468692069865</v>
+        <v>0.04719468692069866</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34204,40 +34204,40 @@
         <v>0.31564229583814</v>
       </c>
       <c r="H42" t="n">
-        <v>3.048440067699931</v>
+        <v>3.048440067699932</v>
       </c>
       <c r="I42" t="n">
-        <v>10.86750886986578</v>
+        <v>10.86750886986579</v>
       </c>
       <c r="J42" t="n">
         <v>29.82127497653234</v>
       </c>
       <c r="K42" t="n">
-        <v>50.96930879768771</v>
+        <v>50.96930879768772</v>
       </c>
       <c r="L42" t="n">
-        <v>68.53452568187333</v>
+        <v>68.53452568187335</v>
       </c>
       <c r="M42" t="n">
-        <v>79.97655890600588</v>
+        <v>79.97655890600589</v>
       </c>
       <c r="N42" t="n">
-        <v>82.09330044256956</v>
+        <v>82.09330044256959</v>
       </c>
       <c r="O42" t="n">
-        <v>75.09933167689287</v>
+        <v>75.09933167689289</v>
       </c>
       <c r="P42" t="n">
         <v>60.27383454474096</v>
       </c>
       <c r="Q42" t="n">
-        <v>40.29146218453169</v>
+        <v>40.2914621845317</v>
       </c>
       <c r="R42" t="n">
         <v>19.59751026265224</v>
       </c>
       <c r="S42" t="n">
-        <v>5.862917205590008</v>
+        <v>5.862917205590009</v>
       </c>
       <c r="T42" t="n">
         <v>1.272259955593204</v>
@@ -34280,19 +34280,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2646238977187741</v>
+        <v>0.2646238977187742</v>
       </c>
       <c r="H43" t="n">
-        <v>2.352747017899648</v>
+        <v>2.352747017899649</v>
       </c>
       <c r="I43" t="n">
-        <v>7.957962305942774</v>
+        <v>7.957962305942776</v>
       </c>
       <c r="J43" t="n">
         <v>18.70890956871733</v>
       </c>
       <c r="K43" t="n">
-        <v>30.74448557132666</v>
+        <v>30.74448557132667</v>
       </c>
       <c r="L43" t="n">
         <v>39.3423565753894</v>
@@ -34304,22 +34304,22 @@
         <v>40.49467336636481</v>
       </c>
       <c r="O43" t="n">
-        <v>37.40338510665002</v>
+        <v>37.40338510665003</v>
       </c>
       <c r="P43" t="n">
         <v>32.005057593187</v>
       </c>
       <c r="Q43" t="n">
-        <v>22.15864292625117</v>
+        <v>22.15864292625118</v>
       </c>
       <c r="R43" t="n">
         <v>11.89845271015506</v>
       </c>
       <c r="S43" t="n">
-        <v>4.611672835698999</v>
+        <v>4.611672835699</v>
       </c>
       <c r="T43" t="n">
-        <v>1.130665744798398</v>
+        <v>1.130665744798399</v>
       </c>
       <c r="U43" t="n">
         <v>0.01443403078466043</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5899335865087333</v>
+        <v>0.5899335865087334</v>
       </c>
       <c r="H44" t="n">
-        <v>6.041657342832566</v>
+        <v>6.041657342832568</v>
       </c>
       <c r="I44" t="n">
-        <v>22.74341459387796</v>
+        <v>22.74341459387797</v>
       </c>
       <c r="J44" t="n">
-        <v>50.06987573794564</v>
+        <v>50.06987573794566</v>
       </c>
       <c r="K44" t="n">
-        <v>75.04176445486034</v>
+        <v>75.04176445486036</v>
       </c>
       <c r="L44" t="n">
-        <v>93.09594445297701</v>
+        <v>93.09594445297702</v>
       </c>
       <c r="M44" t="n">
         <v>103.5871758720517</v>
       </c>
       <c r="N44" t="n">
-        <v>105.2633246747196</v>
+        <v>105.2633246747197</v>
       </c>
       <c r="O44" t="n">
-        <v>99.39717257387341</v>
+        <v>99.39717257387343</v>
       </c>
       <c r="P44" t="n">
-        <v>84.83318715693905</v>
+        <v>84.83318715693906</v>
       </c>
       <c r="Q44" t="n">
-        <v>63.70619059009501</v>
+        <v>63.70619059009503</v>
       </c>
       <c r="R44" t="n">
         <v>37.05741565352925</v>
       </c>
       <c r="S44" t="n">
-        <v>13.44311160256777</v>
+        <v>13.44311160256778</v>
       </c>
       <c r="T44" t="n">
-        <v>2.582434274941981</v>
+        <v>2.582434274941982</v>
       </c>
       <c r="U44" t="n">
-        <v>0.04719468692069865</v>
+        <v>0.04719468692069866</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34441,40 +34441,40 @@
         <v>0.31564229583814</v>
       </c>
       <c r="H45" t="n">
-        <v>3.048440067699931</v>
+        <v>3.048440067699932</v>
       </c>
       <c r="I45" t="n">
-        <v>10.86750886986578</v>
+        <v>10.86750886986579</v>
       </c>
       <c r="J45" t="n">
         <v>29.82127497653234</v>
       </c>
       <c r="K45" t="n">
-        <v>50.96930879768771</v>
+        <v>50.96930879768772</v>
       </c>
       <c r="L45" t="n">
-        <v>68.53452568187333</v>
+        <v>68.53452568187335</v>
       </c>
       <c r="M45" t="n">
-        <v>79.97655890600588</v>
+        <v>79.97655890600589</v>
       </c>
       <c r="N45" t="n">
-        <v>82.09330044256956</v>
+        <v>82.09330044256959</v>
       </c>
       <c r="O45" t="n">
-        <v>75.09933167689287</v>
+        <v>75.09933167689289</v>
       </c>
       <c r="P45" t="n">
         <v>60.27383454474096</v>
       </c>
       <c r="Q45" t="n">
-        <v>40.29146218453169</v>
+        <v>40.2914621845317</v>
       </c>
       <c r="R45" t="n">
         <v>19.59751026265224</v>
       </c>
       <c r="S45" t="n">
-        <v>5.862917205590008</v>
+        <v>5.862917205590009</v>
       </c>
       <c r="T45" t="n">
         <v>1.272259955593204</v>
@@ -34517,19 +34517,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2646238977187741</v>
+        <v>0.2646238977187742</v>
       </c>
       <c r="H46" t="n">
-        <v>2.352747017899648</v>
+        <v>2.352747017899649</v>
       </c>
       <c r="I46" t="n">
-        <v>7.957962305942774</v>
+        <v>7.957962305942776</v>
       </c>
       <c r="J46" t="n">
         <v>18.70890956871733</v>
       </c>
       <c r="K46" t="n">
-        <v>30.74448557132666</v>
+        <v>30.74448557132667</v>
       </c>
       <c r="L46" t="n">
         <v>39.3423565753894</v>
@@ -34541,22 +34541,22 @@
         <v>40.49467336636481</v>
       </c>
       <c r="O46" t="n">
-        <v>37.40338510665002</v>
+        <v>37.40338510665003</v>
       </c>
       <c r="P46" t="n">
         <v>32.005057593187</v>
       </c>
       <c r="Q46" t="n">
-        <v>22.15864292625117</v>
+        <v>22.15864292625118</v>
       </c>
       <c r="R46" t="n">
         <v>11.89845271015506</v>
       </c>
       <c r="S46" t="n">
-        <v>4.611672835698999</v>
+        <v>4.611672835699</v>
       </c>
       <c r="T46" t="n">
-        <v>1.130665744798398</v>
+        <v>1.130665744798399</v>
       </c>
       <c r="U46" t="n">
         <v>0.01443403078466043</v>
@@ -36357,28 +36357,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>38.12058638333314</v>
       </c>
       <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
         <v>83.70885235932626</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>26.61118513087401</v>
       </c>
       <c r="N23" t="n">
         <v>83.70885235932626</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="P23" t="n">
-        <v>83.70885235932626</v>
+        <v>42.20609012309109</v>
       </c>
       <c r="Q23" t="n">
-        <v>53.71549137555021</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>29.07468365027448</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -36445,7 +36445,7 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>51.25199285614971</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="N24" t="n">
         <v>83.70885235932626</v>
@@ -36454,10 +36454,10 @@
         <v>83.70885235932626</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>80.32667650642419</v>
       </c>
       <c r="Q24" t="n">
-        <v>83.70885235932626</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36518,7 +36518,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>8.474993745443811</v>
+        <v>8.474993745443818</v>
       </c>
       <c r="L25" t="n">
         <v>66.93238183570554</v>
@@ -36530,7 +36530,7 @@
         <v>83.70885235932626</v>
       </c>
       <c r="O25" t="n">
-        <v>61.98851302068969</v>
+        <v>61.9885130206897</v>
       </c>
       <c r="P25" t="n">
         <v>29.28361685808049</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>38.12058638333313</v>
+        <v>38.12058638333314</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -36603,19 +36603,19 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>72.19945110686713</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>72.19945110686707</v>
       </c>
       <c r="O26" t="n">
         <v>83.70885235932626</v>
       </c>
       <c r="P26" t="n">
-        <v>83.70885235932626</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>53.71549137555021</v>
+        <v>53.71549137555022</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36679,7 +36679,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>80.32667650642419</v>
       </c>
       <c r="M27" t="n">
         <v>83.70885235932626</v>
@@ -36688,13 +36688,13 @@
         <v>83.70885235932626</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="P27" t="n">
-        <v>80.32667650642419</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>83.70885235932626</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36755,7 +36755,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>8.474993745443811</v>
+        <v>8.474993745443818</v>
       </c>
       <c r="L28" t="n">
         <v>66.93238183570554</v>
@@ -36767,10 +36767,10 @@
         <v>83.70885235932626</v>
       </c>
       <c r="O28" t="n">
-        <v>61.98851302068969</v>
+        <v>61.9885130206897</v>
       </c>
       <c r="P28" t="n">
-        <v>29.28361685808048</v>
+        <v>29.28361685808049</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36834,7 +36834,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>26.61118513087401</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="L29" t="n">
         <v>83.70885235932626</v>
@@ -36843,16 +36843,16 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>80.32667650642419</v>
       </c>
       <c r="O29" t="n">
         <v>83.70885235932626</v>
       </c>
       <c r="P29" t="n">
-        <v>83.70885235932626</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>53.71549137555021</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36916,10 +36916,10 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>80.32667650642419</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="N30" t="n">
         <v>83.70885235932626</v>
@@ -36931,7 +36931,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>83.70885235932626</v>
+        <v>80.32667650642419</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36992,7 +36992,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>8.474993745443845</v>
+        <v>8.474993745443818</v>
       </c>
       <c r="L31" t="n">
         <v>66.93238183570554</v>
@@ -37004,7 +37004,7 @@
         <v>83.70885235932626</v>
       </c>
       <c r="O31" t="n">
-        <v>61.98851302068969</v>
+        <v>61.9885130206897</v>
       </c>
       <c r="P31" t="n">
         <v>29.28361685808049</v>
@@ -37068,28 +37068,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>38.12058638333313</v>
+        <v>38.12058638333314</v>
       </c>
       <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
         <v>83.70885235932626</v>
       </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>72.19945110686713</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="P32" t="n">
-        <v>83.70885235932626</v>
+        <v>42.20609012309109</v>
       </c>
       <c r="Q32" t="n">
-        <v>53.71549137555021</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37150,25 +37150,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
+        <v>83.70885235932626</v>
+      </c>
+      <c r="L33" t="n">
+        <v>83.70885235932626</v>
+      </c>
+      <c r="M33" t="n">
+        <v>83.70885235932626</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
         <v>80.32667650642419</v>
       </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>83.70885235932626</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>83.70885235932626</v>
-      </c>
       <c r="Q33" t="n">
-        <v>83.70885235932626</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37229,10 +37229,10 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>8.474993745443811</v>
+        <v>8.474993745443818</v>
       </c>
       <c r="L34" t="n">
-        <v>66.93238183570557</v>
+        <v>66.93238183570554</v>
       </c>
       <c r="M34" t="n">
         <v>81.06487576515715</v>
@@ -37241,7 +37241,7 @@
         <v>83.70885235932626</v>
       </c>
       <c r="O34" t="n">
-        <v>61.98851302068969</v>
+        <v>61.9885130206897</v>
       </c>
       <c r="P34" t="n">
         <v>29.28361685808049</v>
@@ -37305,28 +37305,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>38.12058638333313</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
         <v>83.70885235932626</v>
       </c>
-      <c r="L35" t="n">
-        <v>72.19945110686713</v>
-      </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>80.32667650642419</v>
       </c>
       <c r="P35" t="n">
-        <v>83.70885235932626</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>53.71549137555021</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37390,19 +37390,19 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>83.70885235932626</v>
+        <v>80.32667650642419</v>
       </c>
       <c r="M36" t="n">
         <v>83.70885235932626</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>80.32667650642419</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>83.70885235932626</v>
@@ -37466,7 +37466,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>8.474993745443811</v>
+        <v>8.474993745443818</v>
       </c>
       <c r="L37" t="n">
         <v>66.93238183570554</v>
@@ -37478,7 +37478,7 @@
         <v>83.70885235932626</v>
       </c>
       <c r="O37" t="n">
-        <v>61.98851302068972</v>
+        <v>61.9885130206897</v>
       </c>
       <c r="P37" t="n">
         <v>29.28361685808049</v>
@@ -37542,28 +37542,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>26.61118513087401</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>80.32667650642419</v>
       </c>
       <c r="L38" t="n">
         <v>83.70885235932626</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="N38" t="n">
         <v>83.70885235932626</v>
       </c>
       <c r="O38" t="n">
-        <v>83.70885235932626</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>53.71549137555021</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>29.07468365027449</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>51.25199285614971</v>
       </c>
       <c r="L39" t="n">
         <v>83.70885235932626</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="N39" t="n">
-        <v>80.32667650642419</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q39" t="n">
         <v>83.70885235932626</v>
-      </c>
-      <c r="P39" t="n">
-        <v>83.70885235932626</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37703,10 +37703,10 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>8.474993745443845</v>
+        <v>8.474993745443818</v>
       </c>
       <c r="L40" t="n">
-        <v>66.93238183570554</v>
+        <v>66.93238183570557</v>
       </c>
       <c r="M40" t="n">
         <v>81.06487576515715</v>
@@ -37715,7 +37715,7 @@
         <v>83.70885235932626</v>
       </c>
       <c r="O40" t="n">
-        <v>61.98851302068969</v>
+        <v>61.9885130206897</v>
       </c>
       <c r="P40" t="n">
         <v>29.28361685808049</v>
@@ -37779,28 +37779,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>38.12058638333314</v>
       </c>
       <c r="K41" t="n">
         <v>83.70885235932626</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="M41" t="n">
-        <v>26.61118513087401</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="N41" t="n">
-        <v>83.70885235932626</v>
+        <v>42.20609012309109</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>83.70885235932626</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>53.71549137555021</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>29.07468365027448</v>
+        <v>29.07468365027449</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>51.25199285614971</v>
+      </c>
+      <c r="O42" t="n">
         <v>83.70885235932626</v>
-      </c>
-      <c r="M42" t="n">
-        <v>83.70885235932626</v>
-      </c>
-      <c r="N42" t="n">
-        <v>51.25199285614972</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>83.70885235932626</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37940,7 +37940,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>8.474993745443845</v>
+        <v>8.474993745443818</v>
       </c>
       <c r="L43" t="n">
         <v>66.93238183570554</v>
@@ -37952,10 +37952,10 @@
         <v>83.70885235932626</v>
       </c>
       <c r="O43" t="n">
-        <v>61.98851302068969</v>
+        <v>61.9885130206897</v>
       </c>
       <c r="P43" t="n">
-        <v>29.28361685808049</v>
+        <v>29.28361685808048</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38016,16 +38016,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>38.12058638333314</v>
       </c>
       <c r="K44" t="n">
-        <v>83.70885235932626</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>80.32667650642419</v>
+        <v>72.19945110686707</v>
       </c>
       <c r="N44" t="n">
         <v>83.70885235932626</v>
@@ -38037,7 +38037,7 @@
         <v>83.70885235932626</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>53.71549137555022</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>29.07468365027448</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
+        <v>80.32667650642419</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
         <v>83.70885235932626</v>
       </c>
-      <c r="M45" t="n">
+      <c r="O45" t="n">
         <v>83.70885235932626</v>
       </c>
-      <c r="N45" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" t="n">
-        <v>51.25199285614972</v>
-      </c>
       <c r="P45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q45" t="n">
         <v>83.70885235932626</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38177,7 +38177,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>8.474993745443811</v>
+        <v>8.474993745443818</v>
       </c>
       <c r="L46" t="n">
         <v>66.93238183570554</v>
@@ -38186,13 +38186,13 @@
         <v>81.06487576515715</v>
       </c>
       <c r="N46" t="n">
-        <v>83.70885235932626</v>
+        <v>83.70885235932629</v>
       </c>
       <c r="O46" t="n">
-        <v>61.98851302068969</v>
+        <v>61.9885130206897</v>
       </c>
       <c r="P46" t="n">
-        <v>29.28361685808048</v>
+        <v>29.28361685808049</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
